--- a/data/hyporheic_fluxes/trapGSD_hypflux_organized.xlsx
+++ b/data/hyporheic_fluxes/trapGSD_hypflux_organized.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\sediment_trap_paper\data\hyporheic_fluxes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\sediment_trap_paper\data\hyporheic_fluxes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D6256-FF8D-4B9C-8A27-402EFA60EE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93F218C-B604-4FF8-8D04-7615501F17C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{8606DF0C-3933-40BB-BE19-03FC0B44297F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1531,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="543">
+  <cellXfs count="532">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2813,199 +2813,20 @@
     <xf numFmtId="164" fontId="10" fillId="50" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
@@ -3039,39 +2860,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -3115,6 +2919,177 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="50" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -20594,22 +20569,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AG1" s="457" t="s">
+      <c r="AG1" s="481" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="457" t="s">
+      <c r="AH1" s="481" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="457" t="s">
+      <c r="AI1" s="481" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="457" t="s">
+      <c r="AJ1" s="481" t="s">
         <v>121</v>
       </c>
-      <c r="AK1" s="468" t="s">
+      <c r="AK1" s="475" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="468" t="s">
+      <c r="AL1" s="475" t="s">
         <v>52</v>
       </c>
     </row>
@@ -20686,23 +20661,23 @@
       <c r="Y2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="465" t="s">
+      <c r="AB2" s="478" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="471"/>
-      <c r="AD2" s="464" t="s">
+      <c r="AC2" s="479"/>
+      <c r="AD2" s="482" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="464"/>
+      <c r="AE2" s="482"/>
       <c r="AF2" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="472"/>
-      <c r="AH2" s="457"/>
-      <c r="AI2" s="457"/>
-      <c r="AJ2" s="457"/>
-      <c r="AK2" s="468"/>
-      <c r="AL2" s="468"/>
+      <c r="AG2" s="483"/>
+      <c r="AH2" s="481"/>
+      <c r="AI2" s="481"/>
+      <c r="AJ2" s="481"/>
+      <c r="AK2" s="475"/>
+      <c r="AL2" s="475"/>
     </row>
     <row r="3" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
@@ -22409,22 +22384,22 @@
       <c r="Y16" s="41">
         <v>1.1583636475738333</v>
       </c>
-      <c r="AG16" s="457" t="s">
+      <c r="AG16" s="481" t="s">
         <v>122</v>
       </c>
-      <c r="AH16" s="457" t="s">
+      <c r="AH16" s="481" t="s">
         <v>57</v>
       </c>
-      <c r="AI16" s="457" t="s">
+      <c r="AI16" s="481" t="s">
         <v>52</v>
       </c>
-      <c r="AJ16" s="457" t="s">
+      <c r="AJ16" s="481" t="s">
         <v>56</v>
       </c>
-      <c r="AK16" s="468" t="s">
+      <c r="AK16" s="475" t="s">
         <v>57</v>
       </c>
-      <c r="AL16" s="468" t="s">
+      <c r="AL16" s="475" t="s">
         <v>52</v>
       </c>
       <c r="AN16" s="395"/>
@@ -22503,23 +22478,23 @@
         <v>1.2284974412725813</v>
       </c>
       <c r="Z17" s="395"/>
-      <c r="AB17" s="465" t="s">
+      <c r="AB17" s="478" t="s">
         <v>40</v>
       </c>
-      <c r="AC17" s="466"/>
-      <c r="AD17" s="464" t="s">
+      <c r="AC17" s="480"/>
+      <c r="AD17" s="482" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="464"/>
+      <c r="AE17" s="482"/>
       <c r="AF17" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="AG17" s="472"/>
-      <c r="AH17" s="457"/>
-      <c r="AI17" s="457"/>
-      <c r="AJ17" s="457"/>
-      <c r="AK17" s="468"/>
-      <c r="AL17" s="468"/>
+      <c r="AG17" s="483"/>
+      <c r="AH17" s="481"/>
+      <c r="AI17" s="481"/>
+      <c r="AJ17" s="481"/>
+      <c r="AK17" s="475"/>
+      <c r="AL17" s="475"/>
       <c r="AN17" s="395"/>
     </row>
     <row r="18" spans="2:40" x14ac:dyDescent="0.25">
@@ -24206,14 +24181,14 @@
       <c r="Y32" s="41">
         <v>6.9971946482520506</v>
       </c>
-      <c r="AA32" s="469" t="s">
+      <c r="AA32" s="476" t="s">
         <v>25</v>
       </c>
-      <c r="AB32" s="469"/>
-      <c r="AC32" s="470" t="s">
+      <c r="AB32" s="476"/>
+      <c r="AC32" s="477" t="s">
         <v>40</v>
       </c>
-      <c r="AD32" s="470"/>
+      <c r="AD32" s="477"/>
       <c r="AI32" s="229" t="s">
         <v>73</v>
       </c>
@@ -25790,10 +25765,10 @@
       </c>
     </row>
     <row r="49" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="AB49" s="464" t="s">
+      <c r="AB49" s="482" t="s">
         <v>132</v>
       </c>
-      <c r="AC49" s="464"/>
+      <c r="AC49" s="482"/>
       <c r="AJ49" s="232" t="s">
         <v>79</v>
       </c>
@@ -26018,34 +25993,34 @@
       </c>
     </row>
     <row r="55" spans="2:39" x14ac:dyDescent="0.25">
-      <c r="B55" s="461" t="s">
+      <c r="B55" s="490" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="462"/>
-      <c r="D55" s="462"/>
-      <c r="E55" s="462"/>
-      <c r="F55" s="463"/>
-      <c r="G55" s="461" t="s">
+      <c r="C55" s="491"/>
+      <c r="D55" s="491"/>
+      <c r="E55" s="491"/>
+      <c r="F55" s="492"/>
+      <c r="G55" s="490" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="462"/>
-      <c r="I55" s="462"/>
-      <c r="J55" s="462"/>
-      <c r="K55" s="463"/>
-      <c r="L55" s="461" t="s">
+      <c r="H55" s="491"/>
+      <c r="I55" s="491"/>
+      <c r="J55" s="491"/>
+      <c r="K55" s="492"/>
+      <c r="L55" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="462"/>
-      <c r="N55" s="462"/>
-      <c r="O55" s="462"/>
-      <c r="P55" s="463"/>
-      <c r="Q55" s="461" t="s">
+      <c r="M55" s="491"/>
+      <c r="N55" s="491"/>
+      <c r="O55" s="491"/>
+      <c r="P55" s="492"/>
+      <c r="Q55" s="490" t="s">
         <v>4</v>
       </c>
-      <c r="R55" s="462"/>
-      <c r="S55" s="462"/>
-      <c r="T55" s="462"/>
-      <c r="U55" s="463"/>
+      <c r="R55" s="491"/>
+      <c r="S55" s="491"/>
+      <c r="T55" s="491"/>
+      <c r="U55" s="492"/>
       <c r="AA55" s="67" t="s">
         <v>110</v>
       </c>
@@ -26347,17 +26322,17 @@
       <c r="U58" s="169">
         <v>56.48097393940624</v>
       </c>
-      <c r="AB58" s="465" t="s">
+      <c r="AB58" s="478" t="s">
         <v>135</v>
       </c>
-      <c r="AC58" s="466"/>
-      <c r="AI58" s="467" t="s">
+      <c r="AC58" s="480"/>
+      <c r="AI58" s="493" t="s">
         <v>136</v>
       </c>
-      <c r="AJ58" s="467"/>
-      <c r="AK58" s="467"/>
-      <c r="AL58" s="467"/>
-      <c r="AM58" s="467"/>
+      <c r="AJ58" s="493"/>
+      <c r="AK58" s="493"/>
+      <c r="AL58" s="493"/>
+      <c r="AM58" s="493"/>
     </row>
     <row r="59" spans="2:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="170">
@@ -27383,26 +27358,26 @@
     </row>
     <row r="69" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AA69" s="215"/>
-      <c r="AB69" s="464" t="s">
+      <c r="AB69" s="482" t="s">
         <v>132</v>
       </c>
-      <c r="AC69" s="464"/>
+      <c r="AC69" s="482"/>
     </row>
     <row r="70" spans="2:40" x14ac:dyDescent="0.25">
-      <c r="B70" s="433" t="s">
+      <c r="B70" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="434"/>
-      <c r="D70" s="434"/>
-      <c r="E70" s="434"/>
-      <c r="F70" s="435"/>
-      <c r="G70" s="433" t="s">
+      <c r="C70" s="485"/>
+      <c r="D70" s="485"/>
+      <c r="E70" s="485"/>
+      <c r="F70" s="486"/>
+      <c r="G70" s="484" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="434"/>
-      <c r="I70" s="434"/>
-      <c r="J70" s="434"/>
-      <c r="K70" s="435"/>
+      <c r="H70" s="485"/>
+      <c r="I70" s="485"/>
+      <c r="J70" s="485"/>
+      <c r="K70" s="486"/>
       <c r="AA70" s="215"/>
       <c r="AB70" s="57" t="s">
         <v>133</v>
@@ -27520,10 +27495,10 @@
       <c r="AK72" s="215" t="s">
         <v>126</v>
       </c>
-      <c r="AM72" s="521" t="s">
+      <c r="AM72" s="83" t="s">
         <v>170</v>
       </c>
-      <c r="AN72" s="521" t="s">
+      <c r="AN72" s="83" t="s">
         <v>170</v>
       </c>
     </row>
@@ -27580,11 +27555,11 @@
         <v>106</v>
       </c>
       <c r="AJ73" s="85">
-        <f>AB60-AB51</f>
+        <f t="shared" ref="AJ73:AK79" si="38">AB60-AB51</f>
         <v>-17.267499999999998</v>
       </c>
       <c r="AK73" s="85">
-        <f>AC60-AC51</f>
+        <f t="shared" si="38"/>
         <v>-16.659925266373641</v>
       </c>
       <c r="AM73">
@@ -27592,7 +27567,7 @@
         <v>-0.43234041580861138</v>
       </c>
       <c r="AN73">
-        <f>AK82/AC71</f>
+        <f t="shared" ref="AN73:AN79" si="39">AK82/AC71</f>
         <v>-0.43234041580861138</v>
       </c>
     </row>
@@ -27649,19 +27624,19 @@
         <v>107</v>
       </c>
       <c r="AJ74" s="85">
-        <f>AB61-AB52</f>
+        <f t="shared" si="38"/>
         <v>24.205699999999993</v>
       </c>
       <c r="AK74" s="85">
-        <f>AC61-AC52</f>
+        <f t="shared" si="38"/>
         <v>24.889039116604451</v>
       </c>
       <c r="AM74">
-        <f t="shared" ref="AM74:AM79" si="38">AK74/AC52</f>
+        <f t="shared" ref="AM74:AM78" si="40">AK74/AC52</f>
         <v>0.50884869356740547</v>
       </c>
       <c r="AN74">
-        <f>AK83/AC72</f>
+        <f t="shared" si="39"/>
         <v>0.50884869356740547</v>
       </c>
     </row>
@@ -27711,19 +27686,19 @@
         <v>108</v>
       </c>
       <c r="AJ75" s="85">
-        <f>AB62-AB53</f>
+        <f t="shared" si="38"/>
         <v>8.5274999999999963</v>
       </c>
       <c r="AK75" s="85">
-        <f>AC62-AC53</f>
+        <f t="shared" si="38"/>
         <v>9.8280699210308455</v>
       </c>
       <c r="AM75">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0.24664125913512705</v>
       </c>
       <c r="AN75">
-        <f>AK84/AC73</f>
+        <f t="shared" si="39"/>
         <v>0.24664125913512705</v>
       </c>
     </row>
@@ -27773,19 +27748,19 @@
         <v>109</v>
       </c>
       <c r="AJ76" s="85">
-        <f>AB63-AB54</f>
+        <f t="shared" si="38"/>
         <v>-13.177100000000003</v>
       </c>
       <c r="AK76" s="85">
-        <f>AC63-AC54</f>
+        <f t="shared" si="38"/>
         <v>-14.736111114880174</v>
       </c>
       <c r="AM76">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-0.3362610840623162</v>
       </c>
       <c r="AN76">
-        <f>AK85/AC74</f>
+        <f t="shared" si="39"/>
         <v>-0.3362610840623162</v>
       </c>
     </row>
@@ -27835,19 +27810,19 @@
         <v>110</v>
       </c>
       <c r="AJ77" s="85">
-        <f>AB64-AB55</f>
+        <f t="shared" si="38"/>
         <v>-1.6156000000000006</v>
       </c>
       <c r="AK77" s="85">
-        <f>AC64-AC55</f>
+        <f t="shared" si="38"/>
         <v>-1.6581253218931309</v>
       </c>
       <c r="AM77">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-3.3319808321692172E-2</v>
       </c>
       <c r="AN77">
-        <f>AK86/AC75</f>
+        <f t="shared" si="39"/>
         <v>-3.3319808321692172E-2</v>
       </c>
     </row>
@@ -27882,28 +27857,28 @@
       <c r="K78" s="106">
         <v>0.97190567716775433</v>
       </c>
-      <c r="AA78" s="542"/>
-      <c r="AB78" s="465" t="s">
+      <c r="AA78" s="474"/>
+      <c r="AB78" s="478" t="s">
         <v>135</v>
       </c>
-      <c r="AC78" s="466"/>
+      <c r="AC78" s="480"/>
       <c r="AI78" s="69" t="s">
         <v>111</v>
       </c>
       <c r="AJ78" s="85">
-        <f>AB65-AB56</f>
+        <f t="shared" si="38"/>
         <v>0.5995999999999988</v>
       </c>
       <c r="AK78" s="85">
-        <f>AC65-AC56</f>
+        <f t="shared" si="38"/>
         <v>0.89012061287546729</v>
       </c>
       <c r="AM78">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.4618332766722259E-2</v>
       </c>
       <c r="AN78">
-        <f>AK87/AC76</f>
+        <f t="shared" si="39"/>
         <v>4.4618332766722259E-2</v>
       </c>
     </row>
@@ -27949,11 +27924,11 @@
         <v>112</v>
       </c>
       <c r="AJ79" s="85">
-        <f>AB66-AB57</f>
+        <f t="shared" si="38"/>
         <v>1.7379999999999995</v>
       </c>
       <c r="AK79" s="85">
-        <f>AC66-AC57</f>
+        <f t="shared" si="38"/>
         <v>1.3840160937869257</v>
       </c>
       <c r="AM79">
@@ -27961,7 +27936,7 @@
         <v>4.5057622169479845E-2</v>
       </c>
       <c r="AN79">
-        <f>AK88/AC77</f>
+        <f t="shared" si="39"/>
         <v>-0.47747118891526008</v>
       </c>
     </row>
@@ -28151,11 +28126,11 @@
         <v>107</v>
       </c>
       <c r="AJ83" s="85">
-        <f t="shared" ref="AJ83:AK88" si="39">AB81-AB72</f>
+        <f t="shared" ref="AJ83:AK88" si="41">AB81-AB72</f>
         <v>24.205699999999993</v>
       </c>
       <c r="AK83" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>24.889039116604451</v>
       </c>
     </row>
@@ -28175,29 +28150,29 @@
         <v>108</v>
       </c>
       <c r="AJ84" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>8.5274999999999963</v>
       </c>
       <c r="AK84" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>9.8280699210308455</v>
       </c>
     </row>
     <row r="85" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B85" s="458" t="s">
+      <c r="B85" s="487" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="459"/>
-      <c r="D85" s="459"/>
-      <c r="E85" s="459"/>
-      <c r="F85" s="460"/>
-      <c r="G85" s="458" t="s">
+      <c r="C85" s="488"/>
+      <c r="D85" s="488"/>
+      <c r="E85" s="488"/>
+      <c r="F85" s="489"/>
+      <c r="G85" s="487" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="459"/>
-      <c r="I85" s="459"/>
-      <c r="J85" s="459"/>
-      <c r="K85" s="460"/>
+      <c r="H85" s="488"/>
+      <c r="I85" s="488"/>
+      <c r="J85" s="488"/>
+      <c r="K85" s="489"/>
       <c r="M85" t="s">
         <v>119</v>
       </c>
@@ -28219,11 +28194,11 @@
         <v>109</v>
       </c>
       <c r="AJ85" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-26.354200000000006</v>
       </c>
       <c r="AK85" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-29.472222229760348</v>
       </c>
     </row>
@@ -28280,11 +28255,11 @@
         <v>110</v>
       </c>
       <c r="AJ86" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-3.2312000000000012</v>
       </c>
       <c r="AK86" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-3.3162506437862618</v>
       </c>
     </row>
@@ -28330,11 +28305,11 @@
         <v>111</v>
       </c>
       <c r="AJ87" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.1991999999999976</v>
       </c>
       <c r="AK87" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>1.7802412257509346</v>
       </c>
     </row>
@@ -28373,7 +28348,7 @@
         <v>112</v>
       </c>
       <c r="AJ88" s="85">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-27.782299999999999</v>
       </c>
       <c r="AK88" s="85">
@@ -28693,34 +28668,34 @@
     </row>
     <row r="99" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B100" s="445" t="s">
+      <c r="B100" s="494" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="446"/>
-      <c r="D100" s="446"/>
-      <c r="E100" s="446"/>
-      <c r="F100" s="447"/>
-      <c r="G100" s="445" t="s">
+      <c r="C100" s="495"/>
+      <c r="D100" s="495"/>
+      <c r="E100" s="495"/>
+      <c r="F100" s="496"/>
+      <c r="G100" s="494" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="446"/>
-      <c r="I100" s="446"/>
-      <c r="J100" s="446"/>
-      <c r="K100" s="447"/>
-      <c r="L100" s="448" t="s">
+      <c r="H100" s="495"/>
+      <c r="I100" s="495"/>
+      <c r="J100" s="495"/>
+      <c r="K100" s="496"/>
+      <c r="L100" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="M100" s="449"/>
-      <c r="N100" s="449"/>
-      <c r="O100" s="449"/>
-      <c r="P100" s="450"/>
-      <c r="Q100" s="445" t="s">
+      <c r="M100" s="498"/>
+      <c r="N100" s="498"/>
+      <c r="O100" s="498"/>
+      <c r="P100" s="499"/>
+      <c r="Q100" s="494" t="s">
         <v>12</v>
       </c>
-      <c r="R100" s="446"/>
-      <c r="S100" s="446"/>
-      <c r="T100" s="446"/>
-      <c r="U100" s="447"/>
+      <c r="R100" s="495"/>
+      <c r="S100" s="495"/>
+      <c r="T100" s="495"/>
+      <c r="U100" s="496"/>
     </row>
     <row r="101" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="183" t="s">
@@ -29542,34 +29517,34 @@
     </row>
     <row r="114" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B115" s="451" t="s">
+      <c r="B115" s="500" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="452"/>
-      <c r="D115" s="452"/>
-      <c r="E115" s="452"/>
-      <c r="F115" s="453"/>
-      <c r="G115" s="451" t="s">
+      <c r="C115" s="501"/>
+      <c r="D115" s="501"/>
+      <c r="E115" s="501"/>
+      <c r="F115" s="502"/>
+      <c r="G115" s="500" t="s">
         <v>14</v>
       </c>
-      <c r="H115" s="452"/>
-      <c r="I115" s="452"/>
-      <c r="J115" s="452"/>
-      <c r="K115" s="453"/>
-      <c r="L115" s="454" t="s">
+      <c r="H115" s="501"/>
+      <c r="I115" s="501"/>
+      <c r="J115" s="501"/>
+      <c r="K115" s="502"/>
+      <c r="L115" s="503" t="s">
         <v>15</v>
       </c>
-      <c r="M115" s="455"/>
-      <c r="N115" s="455"/>
-      <c r="O115" s="455"/>
-      <c r="P115" s="456"/>
-      <c r="Q115" s="451" t="s">
+      <c r="M115" s="504"/>
+      <c r="N115" s="504"/>
+      <c r="O115" s="504"/>
+      <c r="P115" s="505"/>
+      <c r="Q115" s="500" t="s">
         <v>16</v>
       </c>
-      <c r="R115" s="452"/>
-      <c r="S115" s="452"/>
-      <c r="T115" s="452"/>
-      <c r="U115" s="453"/>
+      <c r="R115" s="501"/>
+      <c r="S115" s="501"/>
+      <c r="T115" s="501"/>
+      <c r="U115" s="502"/>
     </row>
     <row r="116" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="193" t="s">
@@ -30391,34 +30366,34 @@
     </row>
     <row r="129" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B130" s="433" t="s">
+      <c r="B130" s="484" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="434"/>
-      <c r="D130" s="434"/>
-      <c r="E130" s="434"/>
-      <c r="F130" s="435"/>
-      <c r="G130" s="433" t="s">
+      <c r="C130" s="485"/>
+      <c r="D130" s="485"/>
+      <c r="E130" s="485"/>
+      <c r="F130" s="486"/>
+      <c r="G130" s="484" t="s">
         <v>18</v>
       </c>
-      <c r="H130" s="434"/>
-      <c r="I130" s="434"/>
-      <c r="J130" s="434"/>
-      <c r="K130" s="435"/>
-      <c r="L130" s="436" t="s">
+      <c r="H130" s="485"/>
+      <c r="I130" s="485"/>
+      <c r="J130" s="485"/>
+      <c r="K130" s="486"/>
+      <c r="L130" s="506" t="s">
         <v>19</v>
       </c>
-      <c r="M130" s="437"/>
-      <c r="N130" s="437"/>
-      <c r="O130" s="437"/>
-      <c r="P130" s="438"/>
-      <c r="Q130" s="433" t="s">
+      <c r="M130" s="507"/>
+      <c r="N130" s="507"/>
+      <c r="O130" s="507"/>
+      <c r="P130" s="508"/>
+      <c r="Q130" s="484" t="s">
         <v>20</v>
       </c>
-      <c r="R130" s="434"/>
-      <c r="S130" s="434"/>
-      <c r="T130" s="434"/>
-      <c r="U130" s="435"/>
+      <c r="R130" s="485"/>
+      <c r="S130" s="485"/>
+      <c r="T130" s="485"/>
+      <c r="U130" s="486"/>
     </row>
     <row r="131" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="150" t="s">
@@ -31240,27 +31215,27 @@
     </row>
     <row r="144" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B145" s="439" t="s">
+      <c r="B145" s="509" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="440"/>
-      <c r="D145" s="440"/>
-      <c r="E145" s="440"/>
-      <c r="F145" s="441"/>
-      <c r="G145" s="439" t="s">
+      <c r="C145" s="510"/>
+      <c r="D145" s="510"/>
+      <c r="E145" s="510"/>
+      <c r="F145" s="511"/>
+      <c r="G145" s="509" t="s">
         <v>22</v>
       </c>
-      <c r="H145" s="440"/>
-      <c r="I145" s="440"/>
-      <c r="J145" s="440"/>
-      <c r="K145" s="441"/>
-      <c r="L145" s="442" t="s">
+      <c r="H145" s="510"/>
+      <c r="I145" s="510"/>
+      <c r="J145" s="510"/>
+      <c r="K145" s="511"/>
+      <c r="L145" s="512" t="s">
         <v>23</v>
       </c>
-      <c r="M145" s="443"/>
-      <c r="N145" s="443"/>
-      <c r="O145" s="443"/>
-      <c r="P145" s="444"/>
+      <c r="M145" s="513"/>
+      <c r="N145" s="513"/>
+      <c r="O145" s="513"/>
+      <c r="P145" s="514"/>
     </row>
     <row r="146" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="203" t="s">
@@ -31886,6 +31861,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="B130:F130"/>
+    <mergeCell ref="G130:K130"/>
+    <mergeCell ref="L130:P130"/>
+    <mergeCell ref="Q130:U130"/>
+    <mergeCell ref="B145:F145"/>
+    <mergeCell ref="G145:K145"/>
+    <mergeCell ref="L145:P145"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="Q100:U100"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="G115:K115"/>
+    <mergeCell ref="L115:P115"/>
+    <mergeCell ref="Q115:U115"/>
+    <mergeCell ref="AH16:AH17"/>
+    <mergeCell ref="AI16:AI17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AI58:AM58"/>
+    <mergeCell ref="AB69:AC69"/>
+    <mergeCell ref="AB78:AC78"/>
     <mergeCell ref="AL1:AL2"/>
     <mergeCell ref="AL16:AL17"/>
     <mergeCell ref="AK16:AK17"/>
@@ -31902,36 +31907,6 @@
     <mergeCell ref="AH1:AH2"/>
     <mergeCell ref="AI1:AI2"/>
     <mergeCell ref="AG16:AG17"/>
-    <mergeCell ref="AH16:AH17"/>
-    <mergeCell ref="AI16:AI17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AI58:AM58"/>
-    <mergeCell ref="AB69:AC69"/>
-    <mergeCell ref="AB78:AC78"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="L100:P100"/>
-    <mergeCell ref="Q100:U100"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="G115:K115"/>
-    <mergeCell ref="L115:P115"/>
-    <mergeCell ref="Q115:U115"/>
-    <mergeCell ref="B130:F130"/>
-    <mergeCell ref="G130:K130"/>
-    <mergeCell ref="L130:P130"/>
-    <mergeCell ref="Q130:U130"/>
-    <mergeCell ref="B145:F145"/>
-    <mergeCell ref="G145:K145"/>
-    <mergeCell ref="L145:P145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -31966,22 +31941,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AG1" s="457" t="s">
+      <c r="AG1" s="481" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="457" t="s">
+      <c r="AH1" s="481" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" s="457" t="s">
+      <c r="AI1" s="481" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="457" t="s">
+      <c r="AJ1" s="481" t="s">
         <v>122</v>
       </c>
-      <c r="AK1" s="457" t="s">
+      <c r="AK1" s="481" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="457" t="s">
+      <c r="AL1" s="481" t="s">
         <v>52</v>
       </c>
     </row>
@@ -32058,23 +32033,23 @@
       <c r="Y2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="465" t="s">
+      <c r="AB2" s="478" t="s">
         <v>25</v>
       </c>
-      <c r="AC2" s="471"/>
-      <c r="AD2" s="464" t="s">
+      <c r="AC2" s="479"/>
+      <c r="AD2" s="482" t="s">
         <v>58</v>
       </c>
-      <c r="AE2" s="464"/>
+      <c r="AE2" s="482"/>
       <c r="AF2" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="AG2" s="457"/>
-      <c r="AH2" s="457"/>
-      <c r="AI2" s="457"/>
-      <c r="AJ2" s="457"/>
-      <c r="AK2" s="457"/>
-      <c r="AL2" s="457"/>
+      <c r="AG2" s="481"/>
+      <c r="AH2" s="481"/>
+      <c r="AI2" s="481"/>
+      <c r="AJ2" s="481"/>
+      <c r="AK2" s="481"/>
+      <c r="AL2" s="481"/>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B3" s="14">
@@ -33593,22 +33568,22 @@
       <c r="Y15" s="364">
         <v>1.0235026535253984</v>
       </c>
-      <c r="AG15" s="457" t="s">
+      <c r="AG15" s="481" t="s">
         <v>122</v>
       </c>
-      <c r="AH15" s="457" t="s">
+      <c r="AH15" s="481" t="s">
         <v>57</v>
       </c>
-      <c r="AI15" s="457" t="s">
+      <c r="AI15" s="481" t="s">
         <v>52</v>
       </c>
-      <c r="AJ15" s="457" t="s">
+      <c r="AJ15" s="481" t="s">
         <v>122</v>
       </c>
-      <c r="AK15" s="457" t="s">
+      <c r="AK15" s="481" t="s">
         <v>57</v>
       </c>
-      <c r="AL15" s="457" t="s">
+      <c r="AL15" s="481" t="s">
         <v>52</v>
       </c>
       <c r="AM15" s="397"/>
@@ -33685,23 +33660,23 @@
       <c r="Y16" s="364">
         <v>1.0708870356330553</v>
       </c>
-      <c r="AB16" s="465" t="s">
+      <c r="AB16" s="478" t="s">
         <v>40</v>
       </c>
-      <c r="AC16" s="466"/>
-      <c r="AD16" s="464" t="s">
+      <c r="AC16" s="480"/>
+      <c r="AD16" s="482" t="s">
         <v>58</v>
       </c>
-      <c r="AE16" s="464"/>
+      <c r="AE16" s="482"/>
       <c r="AF16" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="AG16" s="457"/>
-      <c r="AH16" s="457"/>
-      <c r="AI16" s="457"/>
-      <c r="AJ16" s="457"/>
-      <c r="AK16" s="457"/>
-      <c r="AL16" s="457"/>
+      <c r="AG16" s="481"/>
+      <c r="AH16" s="481"/>
+      <c r="AI16" s="481"/>
+      <c r="AJ16" s="481"/>
+      <c r="AK16" s="481"/>
+      <c r="AL16" s="481"/>
       <c r="AM16" s="397"/>
       <c r="AN16" s="397"/>
     </row>
@@ -35360,14 +35335,14 @@
       <c r="Y31" s="364">
         <v>6.6148597422289619</v>
       </c>
-      <c r="AA31" s="469" t="s">
+      <c r="AA31" s="476" t="s">
         <v>25</v>
       </c>
-      <c r="AB31" s="469"/>
-      <c r="AC31" s="470" t="s">
+      <c r="AB31" s="476"/>
+      <c r="AC31" s="477" t="s">
         <v>40</v>
       </c>
-      <c r="AD31" s="470"/>
+      <c r="AD31" s="477"/>
       <c r="AJ31" s="229" t="s">
         <v>73</v>
       </c>
@@ -36984,10 +36959,10 @@
       </c>
     </row>
     <row r="49" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="AB49" s="464" t="s">
+      <c r="AB49" s="482" t="s">
         <v>137</v>
       </c>
-      <c r="AC49" s="464"/>
+      <c r="AC49" s="482"/>
       <c r="AJ49" s="233" t="s">
         <v>81</v>
       </c>
@@ -37191,34 +37166,34 @@
       <c r="AN54" s="85"/>
     </row>
     <row r="55" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B55" s="473" t="s">
+      <c r="B55" s="518" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="474"/>
-      <c r="D55" s="474"/>
-      <c r="E55" s="474"/>
-      <c r="F55" s="475"/>
-      <c r="G55" s="473" t="s">
+      <c r="C55" s="519"/>
+      <c r="D55" s="519"/>
+      <c r="E55" s="519"/>
+      <c r="F55" s="520"/>
+      <c r="G55" s="518" t="s">
         <v>2</v>
       </c>
-      <c r="H55" s="474"/>
-      <c r="I55" s="474"/>
-      <c r="J55" s="474"/>
-      <c r="K55" s="475"/>
-      <c r="L55" s="473" t="s">
+      <c r="H55" s="519"/>
+      <c r="I55" s="519"/>
+      <c r="J55" s="519"/>
+      <c r="K55" s="520"/>
+      <c r="L55" s="518" t="s">
         <v>3</v>
       </c>
-      <c r="M55" s="474"/>
-      <c r="N55" s="474"/>
-      <c r="O55" s="474"/>
-      <c r="P55" s="475"/>
-      <c r="Q55" s="473" t="s">
+      <c r="M55" s="519"/>
+      <c r="N55" s="519"/>
+      <c r="O55" s="519"/>
+      <c r="P55" s="520"/>
+      <c r="Q55" s="518" t="s">
         <v>4</v>
       </c>
-      <c r="R55" s="474"/>
-      <c r="S55" s="474"/>
-      <c r="T55" s="474"/>
-      <c r="U55" s="475"/>
+      <c r="R55" s="519"/>
+      <c r="S55" s="519"/>
+      <c r="T55" s="519"/>
+      <c r="U55" s="520"/>
       <c r="AA55" s="67" t="s">
         <v>110</v>
       </c>
@@ -37488,17 +37463,17 @@
       <c r="U58" s="250">
         <v>93.215838326871108</v>
       </c>
-      <c r="AB58" s="465" t="s">
+      <c r="AB58" s="478" t="s">
         <v>138</v>
       </c>
-      <c r="AC58" s="466"/>
-      <c r="AI58" s="467" t="s">
+      <c r="AC58" s="480"/>
+      <c r="AI58" s="493" t="s">
         <v>136</v>
       </c>
-      <c r="AJ58" s="467"/>
-      <c r="AK58" s="467"/>
-      <c r="AL58" s="467"/>
-      <c r="AM58" s="467"/>
+      <c r="AJ58" s="493"/>
+      <c r="AK58" s="493"/>
+      <c r="AL58" s="493"/>
+      <c r="AM58" s="493"/>
     </row>
     <row r="59" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="170">
@@ -38518,20 +38493,20 @@
       </c>
     </row>
     <row r="70" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B70" s="436" t="s">
+      <c r="B70" s="506" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="437"/>
-      <c r="D70" s="437"/>
-      <c r="E70" s="437"/>
-      <c r="F70" s="438"/>
-      <c r="G70" s="436" t="s">
+      <c r="C70" s="507"/>
+      <c r="D70" s="507"/>
+      <c r="E70" s="507"/>
+      <c r="F70" s="508"/>
+      <c r="G70" s="506" t="s">
         <v>6</v>
       </c>
-      <c r="H70" s="437"/>
-      <c r="I70" s="437"/>
-      <c r="J70" s="437"/>
-      <c r="K70" s="438"/>
+      <c r="H70" s="507"/>
+      <c r="I70" s="507"/>
+      <c r="J70" s="507"/>
+      <c r="K70" s="508"/>
       <c r="R70" s="83"/>
       <c r="S70" s="83"/>
       <c r="V70" s="83"/>
@@ -39147,20 +39122,20 @@
     </row>
     <row r="84" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B85" s="476" t="s">
+      <c r="B85" s="515" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="477"/>
-      <c r="D85" s="477"/>
-      <c r="E85" s="477"/>
-      <c r="F85" s="478"/>
-      <c r="G85" s="476" t="s">
+      <c r="C85" s="516"/>
+      <c r="D85" s="516"/>
+      <c r="E85" s="516"/>
+      <c r="F85" s="517"/>
+      <c r="G85" s="515" t="s">
         <v>8</v>
       </c>
-      <c r="H85" s="477"/>
-      <c r="I85" s="477"/>
-      <c r="J85" s="477"/>
-      <c r="K85" s="478"/>
+      <c r="H85" s="516"/>
+      <c r="I85" s="516"/>
+      <c r="J85" s="516"/>
+      <c r="K85" s="517"/>
       <c r="M85" t="s">
         <v>119</v>
       </c>
@@ -39590,34 +39565,34 @@
     </row>
     <row r="99" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B100" s="448" t="s">
+      <c r="B100" s="497" t="s">
         <v>9</v>
       </c>
-      <c r="C100" s="449"/>
-      <c r="D100" s="449"/>
-      <c r="E100" s="449"/>
-      <c r="F100" s="450"/>
-      <c r="G100" s="448" t="s">
+      <c r="C100" s="498"/>
+      <c r="D100" s="498"/>
+      <c r="E100" s="498"/>
+      <c r="F100" s="499"/>
+      <c r="G100" s="497" t="s">
         <v>10</v>
       </c>
-      <c r="H100" s="449"/>
-      <c r="I100" s="449"/>
-      <c r="J100" s="449"/>
-      <c r="K100" s="450"/>
-      <c r="L100" s="448" t="s">
+      <c r="H100" s="498"/>
+      <c r="I100" s="498"/>
+      <c r="J100" s="498"/>
+      <c r="K100" s="499"/>
+      <c r="L100" s="497" t="s">
         <v>11</v>
       </c>
-      <c r="M100" s="449"/>
-      <c r="N100" s="449"/>
-      <c r="O100" s="449"/>
-      <c r="P100" s="450"/>
-      <c r="Q100" s="448" t="s">
+      <c r="M100" s="498"/>
+      <c r="N100" s="498"/>
+      <c r="O100" s="498"/>
+      <c r="P100" s="499"/>
+      <c r="Q100" s="497" t="s">
         <v>12</v>
       </c>
-      <c r="R100" s="449"/>
-      <c r="S100" s="449"/>
-      <c r="T100" s="449"/>
-      <c r="U100" s="450"/>
+      <c r="R100" s="498"/>
+      <c r="S100" s="498"/>
+      <c r="T100" s="498"/>
+      <c r="U100" s="499"/>
     </row>
     <row r="101" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="183" t="s">
@@ -40439,34 +40414,34 @@
     </row>
     <row r="114" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="115" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B115" s="451" t="s">
+      <c r="B115" s="500" t="s">
         <v>13</v>
       </c>
-      <c r="C115" s="452"/>
-      <c r="D115" s="452"/>
-      <c r="E115" s="452"/>
-      <c r="F115" s="453"/>
-      <c r="G115" s="454" t="s">
+      <c r="C115" s="501"/>
+      <c r="D115" s="501"/>
+      <c r="E115" s="501"/>
+      <c r="F115" s="502"/>
+      <c r="G115" s="503" t="s">
         <v>14</v>
       </c>
-      <c r="H115" s="455"/>
-      <c r="I115" s="455"/>
-      <c r="J115" s="455"/>
-      <c r="K115" s="456"/>
-      <c r="L115" s="454" t="s">
+      <c r="H115" s="504"/>
+      <c r="I115" s="504"/>
+      <c r="J115" s="504"/>
+      <c r="K115" s="505"/>
+      <c r="L115" s="503" t="s">
         <v>15</v>
       </c>
-      <c r="M115" s="455"/>
-      <c r="N115" s="455"/>
-      <c r="O115" s="455"/>
-      <c r="P115" s="456"/>
-      <c r="Q115" s="454" t="s">
+      <c r="M115" s="504"/>
+      <c r="N115" s="504"/>
+      <c r="O115" s="504"/>
+      <c r="P115" s="505"/>
+      <c r="Q115" s="503" t="s">
         <v>16</v>
       </c>
-      <c r="R115" s="455"/>
-      <c r="S115" s="455"/>
-      <c r="T115" s="455"/>
-      <c r="U115" s="456"/>
+      <c r="R115" s="504"/>
+      <c r="S115" s="504"/>
+      <c r="T115" s="504"/>
+      <c r="U115" s="505"/>
     </row>
     <row r="116" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="193" t="s">
@@ -41165,34 +41140,34 @@
     </row>
     <row r="129" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="130" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B130" s="436" t="s">
+      <c r="B130" s="506" t="s">
         <v>17</v>
       </c>
-      <c r="C130" s="437"/>
-      <c r="D130" s="437"/>
-      <c r="E130" s="437"/>
-      <c r="F130" s="438"/>
-      <c r="G130" s="436" t="s">
+      <c r="C130" s="507"/>
+      <c r="D130" s="507"/>
+      <c r="E130" s="507"/>
+      <c r="F130" s="508"/>
+      <c r="G130" s="506" t="s">
         <v>18</v>
       </c>
-      <c r="H130" s="437"/>
-      <c r="I130" s="437"/>
-      <c r="J130" s="437"/>
-      <c r="K130" s="438"/>
-      <c r="L130" s="436" t="s">
+      <c r="H130" s="507"/>
+      <c r="I130" s="507"/>
+      <c r="J130" s="507"/>
+      <c r="K130" s="508"/>
+      <c r="L130" s="506" t="s">
         <v>19</v>
       </c>
-      <c r="M130" s="437"/>
-      <c r="N130" s="437"/>
-      <c r="O130" s="437"/>
-      <c r="P130" s="438"/>
-      <c r="Q130" s="436" t="s">
+      <c r="M130" s="507"/>
+      <c r="N130" s="507"/>
+      <c r="O130" s="507"/>
+      <c r="P130" s="508"/>
+      <c r="Q130" s="506" t="s">
         <v>20</v>
       </c>
-      <c r="R130" s="437"/>
-      <c r="S130" s="437"/>
-      <c r="T130" s="437"/>
-      <c r="U130" s="438"/>
+      <c r="R130" s="507"/>
+      <c r="S130" s="507"/>
+      <c r="T130" s="507"/>
+      <c r="U130" s="508"/>
     </row>
     <row r="131" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="150" t="s">
@@ -42014,27 +41989,27 @@
     </row>
     <row r="144" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="145" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B145" s="442" t="s">
+      <c r="B145" s="512" t="s">
         <v>21</v>
       </c>
-      <c r="C145" s="443"/>
-      <c r="D145" s="443"/>
-      <c r="E145" s="443"/>
-      <c r="F145" s="444"/>
-      <c r="G145" s="442" t="s">
+      <c r="C145" s="513"/>
+      <c r="D145" s="513"/>
+      <c r="E145" s="513"/>
+      <c r="F145" s="514"/>
+      <c r="G145" s="512" t="s">
         <v>22</v>
       </c>
-      <c r="H145" s="443"/>
-      <c r="I145" s="443"/>
-      <c r="J145" s="443"/>
-      <c r="K145" s="444"/>
-      <c r="L145" s="442" t="s">
+      <c r="H145" s="513"/>
+      <c r="I145" s="513"/>
+      <c r="J145" s="513"/>
+      <c r="K145" s="514"/>
+      <c r="L145" s="512" t="s">
         <v>23</v>
       </c>
-      <c r="M145" s="443"/>
-      <c r="N145" s="443"/>
-      <c r="O145" s="443"/>
-      <c r="P145" s="444"/>
+      <c r="M145" s="513"/>
+      <c r="N145" s="513"/>
+      <c r="O145" s="513"/>
+      <c r="P145" s="514"/>
     </row>
     <row r="146" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="203" t="s">
@@ -42660,34 +42635,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AI1:AI2"/>
-    <mergeCell ref="AJ1:AJ2"/>
-    <mergeCell ref="AK1:AK2"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AL15:AL16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AD16:AE16"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="AC31:AD31"/>
-    <mergeCell ref="AJ15:AJ16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AH15:AH16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="G85:K85"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="L100:P100"/>
-    <mergeCell ref="G55:K55"/>
-    <mergeCell ref="L55:P55"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="G70:K70"/>
     <mergeCell ref="AB49:AC49"/>
     <mergeCell ref="AB58:AC58"/>
     <mergeCell ref="AI58:AM58"/>
@@ -42704,6 +42651,34 @@
     <mergeCell ref="Q130:U130"/>
     <mergeCell ref="Q100:U100"/>
     <mergeCell ref="B55:F55"/>
+    <mergeCell ref="G55:K55"/>
+    <mergeCell ref="L55:P55"/>
+    <mergeCell ref="Q55:U55"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G85:K85"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AL15:AL16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AD16:AE16"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="AC31:AD31"/>
+    <mergeCell ref="AJ15:AJ16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AH15:AH16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AI1:AI2"/>
+    <mergeCell ref="AJ1:AJ2"/>
+    <mergeCell ref="AK1:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -42712,10 +42687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F56B83-6FD0-4F97-A83F-B325F07CC791}">
-  <dimension ref="A1:BR151"/>
+  <dimension ref="A1:BK120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+    <sheetView tabSelected="1" topLeftCell="O6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42745,149 +42720,66 @@
     <col min="30" max="30" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="481" t="s">
+    <row r="1" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="521" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="499"/>
-      <c r="C1" s="499"/>
-      <c r="D1" s="499"/>
-      <c r="E1" s="499"/>
-      <c r="F1" s="499"/>
-      <c r="G1" s="499"/>
-      <c r="H1" s="499"/>
-      <c r="I1" s="499"/>
-      <c r="J1" s="499"/>
-      <c r="K1" s="499"/>
-      <c r="L1" s="499"/>
-      <c r="M1" s="499"/>
-      <c r="N1" s="483"/>
-      <c r="AB1" s="491"/>
-      <c r="AC1" s="491"/>
-      <c r="AD1" s="491"/>
-      <c r="AE1" s="491"/>
-      <c r="AF1" s="491"/>
-      <c r="AG1" s="491"/>
-      <c r="AH1" s="491"/>
-      <c r="AI1" s="491"/>
-      <c r="AJ1" s="491"/>
-      <c r="AK1" s="491"/>
-      <c r="AL1" s="491"/>
-      <c r="AM1" s="491"/>
-      <c r="AN1" s="491"/>
-      <c r="AO1" s="491"/>
-      <c r="AP1" s="491"/>
-      <c r="AQ1" s="491"/>
-      <c r="AR1" s="491"/>
-      <c r="AS1" s="491"/>
-      <c r="AT1" s="491"/>
-      <c r="AU1" s="491"/>
-      <c r="AV1" s="491"/>
-      <c r="AW1" s="491"/>
-      <c r="AX1" s="491"/>
-      <c r="AY1" s="491"/>
-      <c r="AZ1" s="491"/>
-      <c r="BA1" s="491"/>
-      <c r="BB1" s="491"/>
-      <c r="BC1" s="491"/>
-      <c r="BD1" s="491"/>
-      <c r="BE1" s="491"/>
-      <c r="BF1" s="491"/>
-      <c r="BG1" s="491"/>
-      <c r="BH1" s="491"/>
-      <c r="BI1" s="491"/>
-      <c r="BJ1" s="491"/>
-      <c r="BK1" s="491"/>
-      <c r="BL1" s="491"/>
-      <c r="BM1" s="491"/>
-      <c r="BN1" s="491"/>
-      <c r="BO1" s="491"/>
-      <c r="BP1" s="491"/>
-      <c r="BQ1" s="491"/>
-      <c r="BR1" s="491"/>
+      <c r="B1" s="524"/>
+      <c r="C1" s="524"/>
+      <c r="D1" s="524"/>
+      <c r="E1" s="524"/>
+      <c r="F1" s="524"/>
+      <c r="G1" s="524"/>
+      <c r="H1" s="524"/>
+      <c r="I1" s="524"/>
+      <c r="J1" s="524"/>
+      <c r="K1" s="524"/>
+      <c r="L1" s="524"/>
+      <c r="M1" s="524"/>
+      <c r="N1" s="523"/>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A2" s="500"/>
-      <c r="B2" s="481" t="s">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" s="439"/>
+      <c r="B2" s="521" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="482"/>
-      <c r="D2" s="483"/>
-      <c r="E2" s="481" t="s">
+      <c r="C2" s="522"/>
+      <c r="D2" s="523"/>
+      <c r="E2" s="521" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="482"/>
-      <c r="G2" s="483"/>
-      <c r="H2" s="481" t="s">
+      <c r="F2" s="522"/>
+      <c r="G2" s="523"/>
+      <c r="H2" s="521" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="482"/>
-      <c r="J2" s="483"/>
-      <c r="K2" s="481" t="s">
+      <c r="I2" s="522"/>
+      <c r="J2" s="523"/>
+      <c r="K2" s="521" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="482"/>
-      <c r="M2" s="483"/>
-      <c r="N2" s="501"/>
-      <c r="Q2" s="464" t="s">
+      <c r="L2" s="522"/>
+      <c r="M2" s="523"/>
+      <c r="N2" s="440"/>
+      <c r="Q2" s="482" t="s">
         <v>141</v>
       </c>
-      <c r="R2" s="479"/>
-      <c r="S2" s="479"/>
-      <c r="T2" s="479"/>
-      <c r="U2" s="479"/>
-      <c r="V2" s="479"/>
-      <c r="W2" s="479"/>
-      <c r="X2" s="479"/>
-      <c r="Y2" s="479"/>
-      <c r="Z2" s="479"/>
-      <c r="AA2" s="479"/>
-      <c r="AB2" s="479"/>
-      <c r="AC2" s="479"/>
-      <c r="AD2" s="464"/>
-      <c r="AE2" s="491"/>
-      <c r="AF2" s="491"/>
-      <c r="AG2" s="491"/>
-      <c r="AH2" s="491"/>
-      <c r="AI2" s="491"/>
-      <c r="AJ2" s="491"/>
-      <c r="AK2" s="491"/>
-      <c r="AL2" s="491"/>
-      <c r="AM2" s="491"/>
-      <c r="AN2" s="491"/>
-      <c r="AO2" s="491"/>
-      <c r="AP2" s="491"/>
-      <c r="AQ2" s="491"/>
-      <c r="AR2" s="491"/>
-      <c r="AS2" s="491"/>
-      <c r="AT2" s="491"/>
-      <c r="AU2" s="491"/>
-      <c r="AV2" s="491"/>
-      <c r="AW2" s="491"/>
-      <c r="AX2" s="491"/>
-      <c r="AY2" s="491"/>
-      <c r="AZ2" s="491"/>
-      <c r="BA2" s="491"/>
-      <c r="BB2" s="491"/>
-      <c r="BC2" s="491"/>
-      <c r="BD2" s="491"/>
-      <c r="BE2" s="491"/>
-      <c r="BF2" s="491"/>
-      <c r="BG2" s="491"/>
-      <c r="BH2" s="491"/>
-      <c r="BI2" s="491"/>
-      <c r="BJ2" s="491"/>
-      <c r="BK2" s="491"/>
-      <c r="BL2" s="491"/>
-      <c r="BM2" s="491"/>
-      <c r="BN2" s="491"/>
-      <c r="BO2" s="491"/>
-      <c r="BP2" s="491"/>
-      <c r="BQ2" s="491"/>
-      <c r="BR2" s="491"/>
+      <c r="R2" s="526"/>
+      <c r="S2" s="526"/>
+      <c r="T2" s="526"/>
+      <c r="U2" s="526"/>
+      <c r="V2" s="526"/>
+      <c r="W2" s="526"/>
+      <c r="X2" s="526"/>
+      <c r="Y2" s="526"/>
+      <c r="Z2" s="526"/>
+      <c r="AA2" s="526"/>
+      <c r="AB2" s="526"/>
+      <c r="AC2" s="526"/>
+      <c r="AD2" s="482"/>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A3" s="502" t="s">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" s="441" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="237" t="s">
@@ -42926,74 +42818,34 @@
       <c r="M3" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="N3" s="503" t="s">
+      <c r="N3" s="442" t="s">
         <v>27</v>
       </c>
       <c r="Q3" s="228"/>
-      <c r="R3" s="464" t="s">
+      <c r="R3" s="482" t="s">
         <v>104</v>
       </c>
-      <c r="S3" s="464"/>
-      <c r="T3" s="464"/>
-      <c r="U3" s="464" t="s">
+      <c r="S3" s="482"/>
+      <c r="T3" s="482"/>
+      <c r="U3" s="482" t="s">
         <v>102</v>
       </c>
-      <c r="V3" s="464"/>
-      <c r="W3" s="464"/>
-      <c r="X3" s="464" t="s">
+      <c r="V3" s="482"/>
+      <c r="W3" s="482"/>
+      <c r="X3" s="482" t="s">
         <v>103</v>
       </c>
-      <c r="Y3" s="464"/>
-      <c r="Z3" s="464"/>
-      <c r="AA3" s="464" t="s">
+      <c r="Y3" s="482"/>
+      <c r="Z3" s="482"/>
+      <c r="AA3" s="482" t="s">
         <v>72</v>
       </c>
-      <c r="AB3" s="464"/>
-      <c r="AC3" s="464"/>
+      <c r="AB3" s="482"/>
+      <c r="AC3" s="482"/>
       <c r="AD3" s="244"/>
-      <c r="AE3" s="491"/>
-      <c r="AF3" s="491"/>
-      <c r="AG3" s="491"/>
-      <c r="AH3" s="491"/>
-      <c r="AI3" s="491"/>
-      <c r="AJ3" s="491"/>
-      <c r="AK3" s="491"/>
-      <c r="AL3" s="491"/>
-      <c r="AM3" s="491"/>
-      <c r="AN3" s="491"/>
-      <c r="AO3" s="491"/>
-      <c r="AP3" s="491"/>
-      <c r="AQ3" s="491"/>
-      <c r="AR3" s="491"/>
-      <c r="AS3" s="491"/>
-      <c r="AT3" s="491"/>
-      <c r="AU3" s="491"/>
-      <c r="AV3" s="491"/>
-      <c r="AW3" s="491"/>
-      <c r="AX3" s="491"/>
-      <c r="AY3" s="491"/>
-      <c r="AZ3" s="491"/>
-      <c r="BA3" s="491"/>
-      <c r="BB3" s="491"/>
-      <c r="BC3" s="491"/>
-      <c r="BD3" s="491"/>
-      <c r="BE3" s="491"/>
-      <c r="BF3" s="491"/>
-      <c r="BG3" s="491"/>
-      <c r="BH3" s="491"/>
-      <c r="BI3" s="491"/>
-      <c r="BJ3" s="491"/>
-      <c r="BK3" s="491"/>
-      <c r="BL3" s="491"/>
-      <c r="BM3" s="491"/>
-      <c r="BN3" s="491"/>
-      <c r="BO3" s="491"/>
-      <c r="BP3" s="491"/>
-      <c r="BQ3" s="491"/>
-      <c r="BR3" s="491"/>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A4" s="504" t="s">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" s="443" t="s">
         <v>76</v>
       </c>
       <c r="B4" s="239">
@@ -43044,7 +42896,7 @@
         <f>K4/L4</f>
         <v>-0.19519361027032103</v>
       </c>
-      <c r="N4" s="529">
+      <c r="N4" s="461">
         <v>0.20454360227175514</v>
       </c>
       <c r="Q4" s="229" t="s">
@@ -43089,49 +42941,15 @@
       <c r="AD4" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="491"/>
-      <c r="AF4" s="491"/>
-      <c r="AG4" s="491"/>
-      <c r="AH4" s="491"/>
-      <c r="AI4" s="491"/>
-      <c r="AJ4" s="491"/>
-      <c r="AK4" s="494"/>
-      <c r="AL4" s="494"/>
-      <c r="AM4" s="491"/>
-      <c r="AN4" s="491"/>
-      <c r="AO4" s="491"/>
-      <c r="AP4" s="491"/>
-      <c r="AQ4" s="491"/>
-      <c r="AR4" s="491"/>
-      <c r="AS4" s="491"/>
-      <c r="AT4" s="494"/>
-      <c r="AU4" s="494"/>
-      <c r="AV4" s="491"/>
-      <c r="AW4" s="491"/>
-      <c r="AX4" s="491"/>
-      <c r="AY4" s="491"/>
-      <c r="AZ4" s="491"/>
-      <c r="BA4" s="491"/>
-      <c r="BB4" s="491"/>
-      <c r="BC4" s="494"/>
-      <c r="BD4" s="494"/>
-      <c r="BE4" s="491"/>
-      <c r="BF4" s="491"/>
-      <c r="BG4" s="491"/>
-      <c r="BH4" s="491"/>
-      <c r="BI4" s="491"/>
-      <c r="BJ4" s="491"/>
-      <c r="BK4" s="491"/>
-      <c r="BL4" s="491"/>
-      <c r="BM4" s="491"/>
-      <c r="BN4" s="491"/>
-      <c r="BO4" s="491"/>
-      <c r="BP4" s="491"/>
-      <c r="BQ4" s="491"/>
-      <c r="BR4" s="491"/>
+      <c r="AK4" s="434"/>
+      <c r="AL4" s="434"/>
+      <c r="AT4" s="434"/>
+      <c r="AU4" s="434"/>
+      <c r="BC4" s="434"/>
+      <c r="BD4" s="434"/>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A5" s="504" t="s">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" s="443" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="239">
@@ -43182,7 +43000,7 @@
         <f t="shared" ref="M5:M14" si="3">K5/L5</f>
         <v>-0.66804316680566478</v>
       </c>
-      <c r="N5" s="529">
+      <c r="N5" s="461">
         <v>0.20454360227175514</v>
       </c>
       <c r="Q5" s="413" t="s">
@@ -43236,49 +43054,9 @@
       <c r="AD5" s="86">
         <v>0.20454360227175514</v>
       </c>
-      <c r="AE5" s="491"/>
-      <c r="AF5" s="491"/>
-      <c r="AG5" s="491"/>
-      <c r="AH5" s="491"/>
-      <c r="AI5" s="491"/>
-      <c r="AJ5" s="491"/>
-      <c r="AK5" s="491"/>
-      <c r="AL5" s="491"/>
-      <c r="AM5" s="491"/>
-      <c r="AN5" s="491"/>
-      <c r="AO5" s="491"/>
-      <c r="AP5" s="491"/>
-      <c r="AQ5" s="491"/>
-      <c r="AR5" s="491"/>
-      <c r="AS5" s="491"/>
-      <c r="AT5" s="491"/>
-      <c r="AU5" s="491"/>
-      <c r="AV5" s="491"/>
-      <c r="AW5" s="491"/>
-      <c r="AX5" s="491"/>
-      <c r="AY5" s="491"/>
-      <c r="AZ5" s="491"/>
-      <c r="BA5" s="491"/>
-      <c r="BB5" s="491"/>
-      <c r="BC5" s="491"/>
-      <c r="BD5" s="491"/>
-      <c r="BE5" s="491"/>
-      <c r="BF5" s="491"/>
-      <c r="BG5" s="491"/>
-      <c r="BH5" s="491"/>
-      <c r="BI5" s="491"/>
-      <c r="BJ5" s="491"/>
-      <c r="BK5" s="491"/>
-      <c r="BL5" s="491"/>
-      <c r="BM5" s="491"/>
-      <c r="BN5" s="491"/>
-      <c r="BO5" s="491"/>
-      <c r="BP5" s="491"/>
-      <c r="BQ5" s="491"/>
-      <c r="BR5" s="491"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A6" s="505" t="s">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" s="444" t="s">
         <v>78</v>
       </c>
       <c r="B6" s="239">
@@ -43329,7 +43107,7 @@
         <f t="shared" si="3"/>
         <v>0.49854710443643002</v>
       </c>
-      <c r="N6" s="530">
+      <c r="N6" s="462">
         <v>-0.31661374974045781</v>
       </c>
       <c r="Q6" s="414" t="s">
@@ -43366,7 +43144,7 @@
         <v>1.7951717616012994</v>
       </c>
       <c r="Z6" s="408">
-        <f t="shared" ref="Z6:Z11" si="6">X6/Y6</f>
+        <f t="shared" ref="Z6:Z10" si="6">X6/Y6</f>
         <v>0.45151086317595629</v>
       </c>
       <c r="AA6" s="412">
@@ -43383,49 +43161,9 @@
       <c r="AD6" s="220">
         <v>-0.31661374974045781</v>
       </c>
-      <c r="AE6" s="491"/>
-      <c r="AF6" s="491"/>
-      <c r="AG6" s="491"/>
-      <c r="AH6" s="491"/>
-      <c r="AI6" s="491"/>
-      <c r="AJ6" s="491"/>
-      <c r="AK6" s="491"/>
-      <c r="AL6" s="491"/>
-      <c r="AM6" s="491"/>
-      <c r="AN6" s="491"/>
-      <c r="AO6" s="491"/>
-      <c r="AP6" s="491"/>
-      <c r="AQ6" s="491"/>
-      <c r="AR6" s="491"/>
-      <c r="AS6" s="491"/>
-      <c r="AT6" s="491"/>
-      <c r="AU6" s="491"/>
-      <c r="AV6" s="491"/>
-      <c r="AW6" s="491"/>
-      <c r="AX6" s="491"/>
-      <c r="AY6" s="491"/>
-      <c r="AZ6" s="491"/>
-      <c r="BA6" s="491"/>
-      <c r="BB6" s="491"/>
-      <c r="BC6" s="491"/>
-      <c r="BD6" s="491"/>
-      <c r="BE6" s="491"/>
-      <c r="BF6" s="491"/>
-      <c r="BG6" s="491"/>
-      <c r="BH6" s="491"/>
-      <c r="BI6" s="491"/>
-      <c r="BJ6" s="491"/>
-      <c r="BK6" s="491"/>
-      <c r="BL6" s="491"/>
-      <c r="BM6" s="491"/>
-      <c r="BN6" s="491"/>
-      <c r="BO6" s="491"/>
-      <c r="BP6" s="491"/>
-      <c r="BQ6" s="491"/>
-      <c r="BR6" s="491"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A7" s="506" t="s">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" s="445" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="239">
@@ -43476,7 +43214,7 @@
         <f t="shared" si="3"/>
         <v>0.9246065038279212</v>
       </c>
-      <c r="N7" s="531">
+      <c r="N7" s="463">
         <v>-0.11017208412824342</v>
       </c>
       <c r="Q7" s="415" t="s">
@@ -43530,49 +43268,9 @@
       <c r="AD7" s="222">
         <v>-0.11017208412824342</v>
       </c>
-      <c r="AE7" s="491"/>
-      <c r="AF7" s="491"/>
-      <c r="AG7" s="491"/>
-      <c r="AH7" s="491"/>
-      <c r="AI7" s="491"/>
-      <c r="AJ7" s="491"/>
-      <c r="AK7" s="491"/>
-      <c r="AL7" s="491"/>
-      <c r="AM7" s="491"/>
-      <c r="AN7" s="491"/>
-      <c r="AO7" s="491"/>
-      <c r="AP7" s="491"/>
-      <c r="AQ7" s="491"/>
-      <c r="AR7" s="491"/>
-      <c r="AS7" s="491"/>
-      <c r="AT7" s="491"/>
-      <c r="AU7" s="491"/>
-      <c r="AV7" s="491"/>
-      <c r="AW7" s="491"/>
-      <c r="AX7" s="491"/>
-      <c r="AY7" s="491"/>
-      <c r="AZ7" s="491"/>
-      <c r="BA7" s="491"/>
-      <c r="BB7" s="491"/>
-      <c r="BC7" s="491"/>
-      <c r="BD7" s="491"/>
-      <c r="BE7" s="491"/>
-      <c r="BF7" s="491"/>
-      <c r="BG7" s="491"/>
-      <c r="BH7" s="491"/>
-      <c r="BI7" s="491"/>
-      <c r="BJ7" s="491"/>
-      <c r="BK7" s="491"/>
-      <c r="BL7" s="491"/>
-      <c r="BM7" s="491"/>
-      <c r="BN7" s="491"/>
-      <c r="BO7" s="491"/>
-      <c r="BP7" s="491"/>
-      <c r="BQ7" s="491"/>
-      <c r="BR7" s="491"/>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A8" s="507" t="s">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" s="446" t="s">
         <v>80</v>
       </c>
       <c r="B8" s="239">
@@ -43623,7 +43321,7 @@
         <f t="shared" si="3"/>
         <v>-0.5464768427525909</v>
       </c>
-      <c r="N8" s="532">
+      <c r="N8" s="464">
         <v>6.0405779541984679E-2</v>
       </c>
       <c r="Q8" s="416" t="s">
@@ -43677,49 +43375,9 @@
       <c r="AD8" s="87">
         <v>6.0405779541984679E-2</v>
       </c>
-      <c r="AE8" s="491"/>
-      <c r="AF8" s="491"/>
-      <c r="AG8" s="491"/>
-      <c r="AH8" s="491"/>
-      <c r="AI8" s="491"/>
-      <c r="AJ8" s="491"/>
-      <c r="AK8" s="491"/>
-      <c r="AL8" s="491"/>
-      <c r="AM8" s="491"/>
-      <c r="AN8" s="491"/>
-      <c r="AO8" s="491"/>
-      <c r="AP8" s="491"/>
-      <c r="AQ8" s="491"/>
-      <c r="AR8" s="491"/>
-      <c r="AS8" s="491"/>
-      <c r="AT8" s="491"/>
-      <c r="AU8" s="491"/>
-      <c r="AV8" s="491"/>
-      <c r="AW8" s="491"/>
-      <c r="AX8" s="491"/>
-      <c r="AY8" s="491"/>
-      <c r="AZ8" s="491"/>
-      <c r="BA8" s="491"/>
-      <c r="BB8" s="491"/>
-      <c r="BC8" s="491"/>
-      <c r="BD8" s="491"/>
-      <c r="BE8" s="491"/>
-      <c r="BF8" s="491"/>
-      <c r="BG8" s="491"/>
-      <c r="BH8" s="491"/>
-      <c r="BI8" s="491"/>
-      <c r="BJ8" s="491"/>
-      <c r="BK8" s="491"/>
-      <c r="BL8" s="491"/>
-      <c r="BM8" s="491"/>
-      <c r="BN8" s="491"/>
-      <c r="BO8" s="491"/>
-      <c r="BP8" s="491"/>
-      <c r="BQ8" s="491"/>
-      <c r="BR8" s="491"/>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A9" s="507" t="s">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9" s="446" t="s">
         <v>81</v>
       </c>
       <c r="B9" s="239">
@@ -43770,7 +43428,7 @@
         <f t="shared" si="3"/>
         <v>-0.50628641399623708</v>
       </c>
-      <c r="N9" s="532">
+      <c r="N9" s="464">
         <v>6.0405779541984679E-2</v>
       </c>
       <c r="Q9" s="417" t="s">
@@ -43824,49 +43482,9 @@
       <c r="AD9" s="225">
         <v>-3.4732918409770948E-2</v>
       </c>
-      <c r="AE9" s="491"/>
-      <c r="AF9" s="491"/>
-      <c r="AG9" s="491"/>
-      <c r="AH9" s="491"/>
-      <c r="AI9" s="491"/>
-      <c r="AJ9" s="491"/>
-      <c r="AK9" s="491"/>
-      <c r="AL9" s="491"/>
-      <c r="AM9" s="491"/>
-      <c r="AN9" s="491"/>
-      <c r="AO9" s="491"/>
-      <c r="AP9" s="491"/>
-      <c r="AQ9" s="491"/>
-      <c r="AR9" s="491"/>
-      <c r="AS9" s="491"/>
-      <c r="AT9" s="491"/>
-      <c r="AU9" s="491"/>
-      <c r="AV9" s="491"/>
-      <c r="AW9" s="491"/>
-      <c r="AX9" s="491"/>
-      <c r="AY9" s="491"/>
-      <c r="AZ9" s="491"/>
-      <c r="BA9" s="491"/>
-      <c r="BB9" s="491"/>
-      <c r="BC9" s="491"/>
-      <c r="BD9" s="491"/>
-      <c r="BE9" s="491"/>
-      <c r="BF9" s="491"/>
-      <c r="BG9" s="491"/>
-      <c r="BH9" s="491"/>
-      <c r="BI9" s="491"/>
-      <c r="BJ9" s="491"/>
-      <c r="BK9" s="491"/>
-      <c r="BL9" s="491"/>
-      <c r="BM9" s="491"/>
-      <c r="BN9" s="491"/>
-      <c r="BO9" s="491"/>
-      <c r="BP9" s="491"/>
-      <c r="BQ9" s="491"/>
-      <c r="BR9" s="491"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A10" s="508" t="s">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" s="447" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="239">
@@ -43917,7 +43535,7 @@
         <f t="shared" si="3"/>
         <v>-0.21932285347228794</v>
       </c>
-      <c r="N10" s="533">
+      <c r="N10" s="465">
         <v>-3.4732918409770948E-2</v>
       </c>
       <c r="Q10" s="418" t="s">
@@ -43971,49 +43589,9 @@
       <c r="AD10" s="220">
         <v>-0.16746416727938898</v>
       </c>
-      <c r="AE10" s="491"/>
-      <c r="AF10" s="491"/>
-      <c r="AG10" s="491"/>
-      <c r="AH10" s="491"/>
-      <c r="AI10" s="491"/>
-      <c r="AJ10" s="491"/>
-      <c r="AK10" s="491"/>
-      <c r="AL10" s="491"/>
-      <c r="AM10" s="491"/>
-      <c r="AN10" s="491"/>
-      <c r="AO10" s="491"/>
-      <c r="AP10" s="491"/>
-      <c r="AQ10" s="491"/>
-      <c r="AR10" s="491"/>
-      <c r="AS10" s="491"/>
-      <c r="AT10" s="491"/>
-      <c r="AU10" s="491"/>
-      <c r="AV10" s="491"/>
-      <c r="AW10" s="491"/>
-      <c r="AX10" s="491"/>
-      <c r="AY10" s="491"/>
-      <c r="AZ10" s="491"/>
-      <c r="BA10" s="491"/>
-      <c r="BB10" s="491"/>
-      <c r="BC10" s="491"/>
-      <c r="BD10" s="491"/>
-      <c r="BE10" s="491"/>
-      <c r="BF10" s="491"/>
-      <c r="BG10" s="491"/>
-      <c r="BH10" s="491"/>
-      <c r="BI10" s="491"/>
-      <c r="BJ10" s="491"/>
-      <c r="BK10" s="491"/>
-      <c r="BL10" s="491"/>
-      <c r="BM10" s="491"/>
-      <c r="BN10" s="491"/>
-      <c r="BO10" s="491"/>
-      <c r="BP10" s="491"/>
-      <c r="BQ10" s="491"/>
-      <c r="BR10" s="491"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A11" s="508" t="s">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11" s="447" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="239">
@@ -44064,7 +43642,7 @@
         <f t="shared" si="3"/>
         <v>0.38197141359573233</v>
       </c>
-      <c r="N11" s="533">
+      <c r="N11" s="465">
         <v>-3.4732918409770948E-2</v>
       </c>
       <c r="Q11" s="419" t="s">
@@ -44118,49 +43696,9 @@
       <c r="AD11" s="227">
         <v>-3.3378369109007613E-2</v>
       </c>
-      <c r="AE11" s="491"/>
-      <c r="AF11" s="491"/>
-      <c r="AG11" s="491"/>
-      <c r="AH11" s="491"/>
-      <c r="AI11" s="491"/>
-      <c r="AJ11" s="491"/>
-      <c r="AK11" s="491"/>
-      <c r="AL11" s="491"/>
-      <c r="AM11" s="491"/>
-      <c r="AN11" s="491"/>
-      <c r="AO11" s="491"/>
-      <c r="AP11" s="491"/>
-      <c r="AQ11" s="491"/>
-      <c r="AR11" s="491"/>
-      <c r="AS11" s="491"/>
-      <c r="AT11" s="491"/>
-      <c r="AU11" s="491"/>
-      <c r="AV11" s="491"/>
-      <c r="AW11" s="491"/>
-      <c r="AX11" s="491"/>
-      <c r="AY11" s="491"/>
-      <c r="AZ11" s="491"/>
-      <c r="BA11" s="491"/>
-      <c r="BB11" s="491"/>
-      <c r="BC11" s="491"/>
-      <c r="BD11" s="491"/>
-      <c r="BE11" s="491"/>
-      <c r="BF11" s="491"/>
-      <c r="BG11" s="491"/>
-      <c r="BH11" s="491"/>
-      <c r="BI11" s="491"/>
-      <c r="BJ11" s="491"/>
-      <c r="BK11" s="491"/>
-      <c r="BL11" s="491"/>
-      <c r="BM11" s="491"/>
-      <c r="BN11" s="491"/>
-      <c r="BO11" s="491"/>
-      <c r="BP11" s="491"/>
-      <c r="BQ11" s="491"/>
-      <c r="BR11" s="491"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A12" s="509" t="s">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A12" s="448" t="s">
         <v>84</v>
       </c>
       <c r="B12" s="239">
@@ -44211,52 +43749,33 @@
         <f t="shared" si="3"/>
         <v>1.0775013302402989</v>
       </c>
-      <c r="N12" s="530">
+      <c r="N12" s="462">
         <v>-0.16746416727938898</v>
       </c>
-      <c r="AE12" s="495"/>
-      <c r="AF12" s="495"/>
-      <c r="AG12" s="495"/>
-      <c r="AH12" s="491"/>
-      <c r="AI12" s="491"/>
-      <c r="AJ12" s="491"/>
-      <c r="AK12" s="495"/>
-      <c r="AL12" s="495"/>
-      <c r="AM12" s="495"/>
-      <c r="AN12" s="495"/>
-      <c r="AO12" s="495"/>
-      <c r="AP12" s="495"/>
-      <c r="AQ12" s="491"/>
-      <c r="AR12" s="491"/>
-      <c r="AS12" s="491"/>
-      <c r="AT12" s="495"/>
-      <c r="AU12" s="495"/>
-      <c r="AV12" s="495"/>
-      <c r="AW12" s="495"/>
-      <c r="AX12" s="495"/>
-      <c r="AY12" s="495"/>
-      <c r="AZ12" s="491"/>
-      <c r="BA12" s="491"/>
-      <c r="BB12" s="491"/>
-      <c r="BC12" s="495"/>
-      <c r="BD12" s="495"/>
-      <c r="BE12" s="495"/>
-      <c r="BF12" s="495"/>
-      <c r="BG12" s="495"/>
-      <c r="BH12" s="495"/>
-      <c r="BI12" s="491"/>
-      <c r="BJ12" s="491"/>
-      <c r="BK12" s="491"/>
-      <c r="BL12" s="491"/>
-      <c r="BM12" s="491"/>
-      <c r="BN12" s="491"/>
-      <c r="BO12" s="491"/>
-      <c r="BP12" s="491"/>
-      <c r="BQ12" s="491"/>
-      <c r="BR12" s="491"/>
+      <c r="AE12" s="435"/>
+      <c r="AF12" s="435"/>
+      <c r="AG12" s="435"/>
+      <c r="AK12" s="435"/>
+      <c r="AL12" s="435"/>
+      <c r="AM12" s="435"/>
+      <c r="AN12" s="435"/>
+      <c r="AO12" s="435"/>
+      <c r="AP12" s="435"/>
+      <c r="AT12" s="435"/>
+      <c r="AU12" s="435"/>
+      <c r="AV12" s="435"/>
+      <c r="AW12" s="435"/>
+      <c r="AX12" s="435"/>
+      <c r="AY12" s="435"/>
+      <c r="BC12" s="435"/>
+      <c r="BD12" s="435"/>
+      <c r="BE12" s="435"/>
+      <c r="BF12" s="435"/>
+      <c r="BG12" s="435"/>
+      <c r="BH12" s="435"/>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A13" s="509" t="s">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A13" s="448" t="s">
         <v>85</v>
       </c>
       <c r="B13" s="239">
@@ -44307,75 +43826,35 @@
         <f t="shared" si="3"/>
         <v>0.16781718326223696</v>
       </c>
-      <c r="N13" s="530">
+      <c r="N13" s="462">
         <v>-0.16746416727938898</v>
       </c>
-      <c r="Q13" s="464" t="s">
+      <c r="Q13" s="482" t="s">
         <v>142</v>
       </c>
-      <c r="R13" s="479"/>
-      <c r="S13" s="479"/>
-      <c r="T13" s="479"/>
-      <c r="U13" s="479"/>
-      <c r="V13" s="479"/>
-      <c r="W13" s="479"/>
-      <c r="X13" s="479"/>
-      <c r="Y13" s="479"/>
-      <c r="Z13" s="479"/>
-      <c r="AA13" s="479"/>
-      <c r="AB13" s="479"/>
-      <c r="AC13" s="479"/>
-      <c r="AD13" s="464"/>
-      <c r="AE13" s="491"/>
-      <c r="AF13" s="491"/>
-      <c r="AG13" s="491"/>
-      <c r="AH13" s="491"/>
-      <c r="AI13" s="491"/>
-      <c r="AJ13" s="491"/>
-      <c r="AK13" s="491"/>
-      <c r="AL13" s="491"/>
-      <c r="AM13" s="491"/>
-      <c r="AN13" s="491"/>
-      <c r="AO13" s="491"/>
-      <c r="AP13" s="491"/>
-      <c r="AQ13" s="491"/>
-      <c r="AR13" s="491"/>
-      <c r="AS13" s="491"/>
-      <c r="AT13" s="491"/>
-      <c r="AU13" s="491"/>
-      <c r="AV13" s="491"/>
-      <c r="AW13" s="491"/>
-      <c r="AX13" s="491"/>
-      <c r="AY13" s="491"/>
-      <c r="AZ13" s="491"/>
-      <c r="BA13" s="491"/>
-      <c r="BB13" s="491"/>
-      <c r="BC13" s="491"/>
-      <c r="BD13" s="491"/>
-      <c r="BE13" s="491"/>
-      <c r="BF13" s="491"/>
-      <c r="BG13" s="491"/>
-      <c r="BH13" s="491"/>
-      <c r="BI13" s="491"/>
-      <c r="BJ13" s="491"/>
-      <c r="BK13" s="491"/>
-      <c r="BL13" s="491"/>
-      <c r="BM13" s="491"/>
-      <c r="BN13" s="491"/>
-      <c r="BO13" s="491"/>
-      <c r="BP13" s="491"/>
-      <c r="BQ13" s="491"/>
-      <c r="BR13" s="491"/>
+      <c r="R13" s="526"/>
+      <c r="S13" s="526"/>
+      <c r="T13" s="526"/>
+      <c r="U13" s="526"/>
+      <c r="V13" s="526"/>
+      <c r="W13" s="526"/>
+      <c r="X13" s="526"/>
+      <c r="Y13" s="526"/>
+      <c r="Z13" s="526"/>
+      <c r="AA13" s="526"/>
+      <c r="AB13" s="526"/>
+      <c r="AC13" s="526"/>
+      <c r="AD13" s="482"/>
     </row>
-    <row r="14" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="510" t="s">
+    <row r="14" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="449" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="535">
+      <c r="B14" s="467">
         <f>'Spring Weights'!AJ43</f>
         <v>-3.2297000000000011</v>
       </c>
-      <c r="C14" s="536">
+      <c r="C14" s="468">
         <f>'Spring Weights'!AD15</f>
         <v>21.040900000000001</v>
       </c>
@@ -44383,11 +43862,11 @@
         <f>B14/C14</f>
         <v>-0.15349628580526503</v>
       </c>
-      <c r="E14" s="537">
+      <c r="E14" s="469">
         <f>'Spring Weights'!AK43</f>
         <v>-0.43830000000000169</v>
       </c>
-      <c r="F14" s="538">
+      <c r="F14" s="470">
         <f>'Spring Weights'!AE15</f>
         <v>13.398000000000001</v>
       </c>
@@ -44395,11 +43874,11 @@
         <f t="shared" si="1"/>
         <v>-3.2713837886251804E-2</v>
       </c>
-      <c r="H14" s="537">
+      <c r="H14" s="469">
         <f>'Spring Weights'!AL43</f>
         <v>-0.23345240457375938</v>
       </c>
-      <c r="I14" s="539">
+      <c r="I14" s="471">
         <f>'Spring Weights'!AH15</f>
         <v>1.4828472986928873</v>
       </c>
@@ -44407,11 +43886,11 @@
         <f t="shared" si="2"/>
         <v>-0.15743522935877818</v>
       </c>
-      <c r="K14" s="535">
+      <c r="K14" s="467">
         <f>'Spring Weights'!AM43</f>
         <v>-2.1770204424107042E-2</v>
       </c>
-      <c r="L14" s="540">
+      <c r="L14" s="472">
         <f>'Spring Weights'!AI15</f>
         <v>0.10207224320241665</v>
       </c>
@@ -44419,84 +43898,38 @@
         <f t="shared" si="3"/>
         <v>-0.21328231594690392</v>
       </c>
-      <c r="N14" s="534">
+      <c r="N14" s="466">
         <v>-3.3378369109007613E-2</v>
       </c>
       <c r="Q14" s="228"/>
-      <c r="R14" s="464" t="s">
+      <c r="R14" s="482" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="464"/>
-      <c r="T14" s="464"/>
-      <c r="U14" s="464" t="s">
+      <c r="S14" s="482"/>
+      <c r="T14" s="482"/>
+      <c r="U14" s="482" t="s">
         <v>102</v>
       </c>
-      <c r="V14" s="464"/>
-      <c r="W14" s="464"/>
-      <c r="X14" s="464" t="s">
+      <c r="V14" s="482"/>
+      <c r="W14" s="482"/>
+      <c r="X14" s="482" t="s">
         <v>103</v>
       </c>
-      <c r="Y14" s="464"/>
-      <c r="Z14" s="464"/>
-      <c r="AA14" s="464" t="s">
+      <c r="Y14" s="482"/>
+      <c r="Z14" s="482"/>
+      <c r="AA14" s="482" t="s">
         <v>72</v>
       </c>
-      <c r="AB14" s="464"/>
-      <c r="AC14" s="464"/>
+      <c r="AB14" s="482"/>
+      <c r="AC14" s="482"/>
       <c r="AD14" s="244"/>
-      <c r="AJ14" s="491"/>
-      <c r="AK14" s="491"/>
-      <c r="AL14" s="491"/>
-      <c r="AM14" s="491"/>
-      <c r="AN14" s="491"/>
-      <c r="AO14" s="491"/>
-      <c r="AP14" s="491"/>
-      <c r="AQ14" s="491"/>
-      <c r="AR14" s="491"/>
-      <c r="AS14" s="491"/>
-      <c r="AT14" s="491"/>
-      <c r="AU14" s="491"/>
-      <c r="AV14" s="491"/>
-      <c r="AW14" s="491"/>
-      <c r="AX14" s="491"/>
-      <c r="AY14" s="491"/>
-      <c r="AZ14" s="491"/>
-      <c r="BA14" s="491"/>
-      <c r="BB14" s="491"/>
-      <c r="BC14" s="491"/>
-      <c r="BD14" s="491"/>
-      <c r="BE14" s="491"/>
-      <c r="BF14" s="491"/>
-      <c r="BG14" s="491"/>
-      <c r="BH14" s="491"/>
-      <c r="BI14" s="491"/>
-      <c r="BJ14" s="491"/>
-      <c r="BK14" s="491"/>
-      <c r="BL14" s="491"/>
-      <c r="BM14" s="491"/>
-      <c r="BN14" s="491"/>
-      <c r="BO14" s="491"/>
-      <c r="BP14" s="491"/>
-      <c r="BQ14" s="491"/>
-      <c r="BR14" s="491"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A15" s="511"/>
-      <c r="B15" s="488"/>
-      <c r="C15" s="488"/>
-      <c r="D15" s="488"/>
-      <c r="E15" s="488"/>
-      <c r="F15" s="488">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A15" s="450"/>
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="488"/>
-      <c r="H15" s="488"/>
-      <c r="I15" s="488"/>
-      <c r="J15" s="488"/>
-      <c r="K15" s="488"/>
-      <c r="L15" s="488"/>
-      <c r="M15" s="488"/>
-      <c r="N15" s="512"/>
+      <c r="N15" s="451"/>
       <c r="Q15" s="229" t="s">
         <v>73</v>
       </c>
@@ -44539,59 +43972,24 @@
       <c r="AD15" s="245" t="s">
         <v>27</v>
       </c>
-      <c r="AJ15" s="491"/>
-      <c r="AK15" s="491"/>
-      <c r="AL15" s="491"/>
-      <c r="AM15" s="491"/>
-      <c r="AN15" s="491"/>
-      <c r="AO15" s="491"/>
-      <c r="AP15" s="491"/>
-      <c r="AQ15" s="491"/>
-      <c r="AR15" s="491"/>
-      <c r="AS15" s="491"/>
-      <c r="AT15" s="491"/>
-      <c r="AU15" s="491"/>
-      <c r="AV15" s="491"/>
-      <c r="AW15" s="491"/>
-      <c r="AX15" s="491"/>
-      <c r="AY15" s="491"/>
-      <c r="AZ15" s="491"/>
-      <c r="BA15" s="491"/>
-      <c r="BB15" s="491"/>
-      <c r="BC15" s="491"/>
-      <c r="BD15" s="491"/>
-      <c r="BE15" s="491"/>
-      <c r="BF15" s="491"/>
-      <c r="BG15" s="491"/>
-      <c r="BH15" s="491"/>
-      <c r="BI15" s="491"/>
-      <c r="BJ15" s="491"/>
-      <c r="BK15" s="491"/>
-      <c r="BL15" s="491"/>
-      <c r="BM15" s="491"/>
-      <c r="BN15" s="491"/>
-      <c r="BO15" s="491"/>
-      <c r="BP15" s="491"/>
-      <c r="BQ15" s="491"/>
-      <c r="BR15" s="491"/>
     </row>
-    <row r="16" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="513" t="s">
+    <row r="16" spans="1:60" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="525" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="479"/>
-      <c r="C16" s="479"/>
-      <c r="D16" s="479"/>
-      <c r="E16" s="479"/>
-      <c r="F16" s="479"/>
-      <c r="G16" s="479"/>
-      <c r="H16" s="479"/>
-      <c r="I16" s="479"/>
-      <c r="J16" s="479"/>
-      <c r="K16" s="479"/>
-      <c r="L16" s="479"/>
-      <c r="M16" s="479"/>
-      <c r="N16" s="514"/>
+      <c r="B16" s="526"/>
+      <c r="C16" s="526"/>
+      <c r="D16" s="526"/>
+      <c r="E16" s="526"/>
+      <c r="F16" s="526"/>
+      <c r="G16" s="526"/>
+      <c r="H16" s="526"/>
+      <c r="I16" s="526"/>
+      <c r="J16" s="526"/>
+      <c r="K16" s="526"/>
+      <c r="L16" s="526"/>
+      <c r="M16" s="526"/>
+      <c r="N16" s="527"/>
       <c r="Q16" s="413" t="s">
         <v>106</v>
       </c>
@@ -44646,65 +44044,30 @@
       <c r="AD16" s="86">
         <v>-0.25646381521666273</v>
       </c>
-      <c r="AJ16" s="491"/>
-      <c r="AK16" s="491"/>
-      <c r="AL16" s="491"/>
-      <c r="AM16" s="491"/>
-      <c r="AN16" s="491"/>
-      <c r="AO16" s="491"/>
-      <c r="AP16" s="491"/>
-      <c r="AQ16" s="491"/>
-      <c r="AR16" s="491"/>
-      <c r="AS16" s="491"/>
-      <c r="AT16" s="491"/>
-      <c r="AU16" s="491"/>
-      <c r="AV16" s="491"/>
-      <c r="AW16" s="491"/>
-      <c r="AX16" s="491"/>
-      <c r="AY16" s="491"/>
-      <c r="AZ16" s="491"/>
-      <c r="BA16" s="491"/>
-      <c r="BB16" s="491"/>
-      <c r="BC16" s="491"/>
-      <c r="BD16" s="491"/>
-      <c r="BE16" s="491"/>
-      <c r="BF16" s="491"/>
-      <c r="BG16" s="491"/>
-      <c r="BH16" s="491"/>
-      <c r="BI16" s="491"/>
-      <c r="BJ16" s="491"/>
-      <c r="BK16" s="491"/>
-      <c r="BL16" s="491"/>
-      <c r="BM16" s="491"/>
-      <c r="BN16" s="491"/>
-      <c r="BO16" s="491"/>
-      <c r="BP16" s="491"/>
-      <c r="BQ16" s="491"/>
-      <c r="BR16" s="491"/>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A17" s="500"/>
-      <c r="B17" s="481" t="s">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A17" s="439"/>
+      <c r="B17" s="521" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="482"/>
-      <c r="D17" s="483"/>
-      <c r="E17" s="481" t="s">
+      <c r="C17" s="522"/>
+      <c r="D17" s="523"/>
+      <c r="E17" s="521" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="482"/>
-      <c r="G17" s="483"/>
-      <c r="H17" s="481" t="s">
+      <c r="F17" s="522"/>
+      <c r="G17" s="523"/>
+      <c r="H17" s="521" t="s">
         <v>103</v>
       </c>
-      <c r="I17" s="482"/>
-      <c r="J17" s="483"/>
-      <c r="K17" s="481" t="s">
+      <c r="I17" s="522"/>
+      <c r="J17" s="523"/>
+      <c r="K17" s="521" t="s">
         <v>72</v>
       </c>
-      <c r="L17" s="482"/>
-      <c r="M17" s="483"/>
-      <c r="N17" s="501"/>
+      <c r="L17" s="522"/>
+      <c r="M17" s="523"/>
+      <c r="N17" s="440"/>
       <c r="Q17" s="414" t="s">
         <v>107</v>
       </c>
@@ -44747,44 +44110,37 @@
       <c r="AD17" s="405">
         <v>-0.32648441197031308</v>
       </c>
-      <c r="AJ17" s="495"/>
-      <c r="AK17" s="495"/>
-      <c r="AL17" s="495"/>
-      <c r="AM17" s="495"/>
-      <c r="AN17" s="495"/>
-      <c r="AO17" s="495"/>
-      <c r="AP17" s="495"/>
-      <c r="AQ17" s="495"/>
-      <c r="AR17" s="495"/>
-      <c r="AS17" s="495"/>
-      <c r="AT17" s="495"/>
-      <c r="AU17" s="495"/>
-      <c r="AV17" s="495"/>
-      <c r="AW17" s="495"/>
-      <c r="AX17" s="495"/>
-      <c r="AY17" s="495"/>
-      <c r="AZ17" s="495"/>
-      <c r="BA17" s="495"/>
-      <c r="BB17" s="495"/>
-      <c r="BC17" s="495"/>
-      <c r="BD17" s="495"/>
-      <c r="BE17" s="495"/>
-      <c r="BF17" s="495"/>
-      <c r="BG17" s="495"/>
-      <c r="BH17" s="495"/>
-      <c r="BI17" s="495"/>
-      <c r="BJ17" s="495"/>
-      <c r="BK17" s="495"/>
-      <c r="BL17" s="491"/>
-      <c r="BM17" s="491"/>
-      <c r="BN17" s="491"/>
-      <c r="BO17" s="491"/>
-      <c r="BP17" s="491"/>
-      <c r="BQ17" s="491"/>
-      <c r="BR17" s="491"/>
+      <c r="AJ17" s="435"/>
+      <c r="AK17" s="435"/>
+      <c r="AL17" s="435"/>
+      <c r="AM17" s="435"/>
+      <c r="AN17" s="435"/>
+      <c r="AO17" s="435"/>
+      <c r="AP17" s="435"/>
+      <c r="AQ17" s="435"/>
+      <c r="AR17" s="435"/>
+      <c r="AS17" s="435"/>
+      <c r="AT17" s="435"/>
+      <c r="AU17" s="435"/>
+      <c r="AV17" s="435"/>
+      <c r="AW17" s="435"/>
+      <c r="AX17" s="435"/>
+      <c r="AY17" s="435"/>
+      <c r="AZ17" s="435"/>
+      <c r="BA17" s="435"/>
+      <c r="BB17" s="435"/>
+      <c r="BC17" s="435"/>
+      <c r="BD17" s="435"/>
+      <c r="BE17" s="435"/>
+      <c r="BF17" s="435"/>
+      <c r="BG17" s="435"/>
+      <c r="BH17" s="435"/>
+      <c r="BI17" s="435"/>
+      <c r="BJ17" s="435"/>
+      <c r="BK17" s="435"/>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A18" s="502" t="s">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A18" s="441" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="237" t="s">
@@ -44823,7 +44179,7 @@
       <c r="M18" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="N18" s="503" t="s">
+      <c r="N18" s="442" t="s">
         <v>27</v>
       </c>
       <c r="Q18" s="416" t="s">
@@ -44838,7 +44194,7 @@
         <v>6.3520000000000003</v>
       </c>
       <c r="T18" s="408">
-        <f t="shared" ref="T17:T21" si="8">R18/S18</f>
+        <f t="shared" ref="T18:T21" si="8">R18/S18</f>
         <v>-0.50792663727959697</v>
       </c>
       <c r="U18" s="412">
@@ -44850,7 +44206,7 @@
         <v>9.2189999999999994</v>
       </c>
       <c r="W18" s="408">
-        <f t="shared" ref="W17:W21" si="9">U18/V18</f>
+        <f t="shared" ref="W18:W21" si="9">U18/V18</f>
         <v>-0.2269118125610152</v>
       </c>
       <c r="X18" s="412">
@@ -44862,7 +44218,7 @@
         <v>6.0716580287003303</v>
       </c>
       <c r="Z18" s="408">
-        <f t="shared" ref="Z17:Z21" si="10">X18/Y18</f>
+        <f t="shared" ref="Z18:Z21" si="10">X18/Y18</f>
         <v>-6.5698704229748175E-2</v>
       </c>
       <c r="AA18" s="412">
@@ -44874,50 +44230,15 @@
         <v>0.49624659678622718</v>
       </c>
       <c r="AC18" s="408">
-        <f t="shared" ref="AC17:AC21" si="11">AA18/AB18</f>
+        <f t="shared" ref="AC18:AC21" si="11">AA18/AB18</f>
         <v>-0.16404825886244201</v>
       </c>
       <c r="AD18" s="87">
         <v>8.8871890830739209E-2</v>
       </c>
-      <c r="AJ18" s="491"/>
-      <c r="AK18" s="491"/>
-      <c r="AL18" s="491"/>
-      <c r="AM18" s="491"/>
-      <c r="AN18" s="491"/>
-      <c r="AO18" s="491"/>
-      <c r="AP18" s="491"/>
-      <c r="AQ18" s="491"/>
-      <c r="AR18" s="491"/>
-      <c r="AS18" s="491"/>
-      <c r="AT18" s="491"/>
-      <c r="AU18" s="491"/>
-      <c r="AV18" s="491"/>
-      <c r="AW18" s="491"/>
-      <c r="AX18" s="491"/>
-      <c r="AY18" s="491"/>
-      <c r="AZ18" s="491"/>
-      <c r="BA18" s="491"/>
-      <c r="BB18" s="491"/>
-      <c r="BC18" s="491"/>
-      <c r="BD18" s="491"/>
-      <c r="BE18" s="491"/>
-      <c r="BF18" s="491"/>
-      <c r="BG18" s="491"/>
-      <c r="BH18" s="491"/>
-      <c r="BI18" s="491"/>
-      <c r="BJ18" s="491"/>
-      <c r="BK18" s="491"/>
-      <c r="BL18" s="491"/>
-      <c r="BM18" s="491"/>
-      <c r="BN18" s="491"/>
-      <c r="BO18" s="491"/>
-      <c r="BP18" s="491"/>
-      <c r="BQ18" s="491"/>
-      <c r="BR18" s="491"/>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A19" s="504" t="s">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A19" s="443" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="239">
@@ -44968,7 +44289,7 @@
         <f>K19/L19</f>
         <v>0.18061966240201743</v>
       </c>
-      <c r="N19" s="529">
+      <c r="N19" s="461">
         <v>-0.25646381521666273</v>
       </c>
       <c r="Q19" s="417" t="s">
@@ -45025,44 +44346,12 @@
       <c r="AD19" s="225">
         <v>-5.8003155872635853E-2</v>
       </c>
-      <c r="AJ19" s="491"/>
-      <c r="AK19" s="491"/>
-      <c r="AL19" s="491"/>
-      <c r="AM19" s="491"/>
-      <c r="AN19" s="491"/>
-      <c r="AO19" s="497"/>
-      <c r="AP19" s="491"/>
-      <c r="AQ19" s="491"/>
-      <c r="AR19" s="491"/>
-      <c r="AS19" s="491"/>
-      <c r="AT19" s="491"/>
-      <c r="AU19" s="491"/>
-      <c r="AV19" s="491"/>
-      <c r="AW19" s="491"/>
-      <c r="AX19" s="497"/>
-      <c r="AY19" s="491"/>
-      <c r="AZ19" s="491"/>
-      <c r="BA19" s="491"/>
-      <c r="BB19" s="491"/>
-      <c r="BC19" s="491"/>
-      <c r="BD19" s="491"/>
-      <c r="BE19" s="491"/>
-      <c r="BF19" s="491"/>
-      <c r="BG19" s="497"/>
-      <c r="BH19" s="491"/>
-      <c r="BI19" s="491"/>
-      <c r="BJ19" s="491"/>
-      <c r="BK19" s="491"/>
-      <c r="BL19" s="491"/>
-      <c r="BM19" s="491"/>
-      <c r="BN19" s="491"/>
-      <c r="BO19" s="491"/>
-      <c r="BP19" s="491"/>
-      <c r="BQ19" s="491"/>
-      <c r="BR19" s="491"/>
+      <c r="AO19" s="437"/>
+      <c r="AX19" s="437"/>
+      <c r="BG19" s="437"/>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A20" s="504" t="s">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A20" s="443" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="239">
@@ -45113,7 +44402,7 @@
         <f t="shared" ref="M20:M26" si="15">K20/L20</f>
         <v>0.45650263746076064</v>
       </c>
-      <c r="N20" s="529">
+      <c r="N20" s="461">
         <v>-0.25646381521666273</v>
       </c>
       <c r="Q20" s="418" t="s">
@@ -45170,44 +44459,9 @@
       <c r="AD20" s="220">
         <v>-0.12379754395977956</v>
       </c>
-      <c r="AJ20" s="491"/>
-      <c r="AK20" s="491"/>
-      <c r="AL20" s="491"/>
-      <c r="AM20" s="491"/>
-      <c r="AN20" s="491"/>
-      <c r="AO20" s="491"/>
-      <c r="AP20" s="491"/>
-      <c r="AQ20" s="491"/>
-      <c r="AR20" s="491"/>
-      <c r="AS20" s="491"/>
-      <c r="AT20" s="491"/>
-      <c r="AU20" s="491"/>
-      <c r="AV20" s="491"/>
-      <c r="AW20" s="491"/>
-      <c r="AX20" s="491"/>
-      <c r="AY20" s="491"/>
-      <c r="AZ20" s="491"/>
-      <c r="BA20" s="491"/>
-      <c r="BB20" s="491"/>
-      <c r="BC20" s="491"/>
-      <c r="BD20" s="491"/>
-      <c r="BE20" s="491"/>
-      <c r="BF20" s="491"/>
-      <c r="BG20" s="491"/>
-      <c r="BH20" s="491"/>
-      <c r="BI20" s="491"/>
-      <c r="BJ20" s="491"/>
-      <c r="BK20" s="491"/>
-      <c r="BL20" s="491"/>
-      <c r="BM20" s="491"/>
-      <c r="BN20" s="491"/>
-      <c r="BO20" s="491"/>
-      <c r="BP20" s="491"/>
-      <c r="BQ20" s="491"/>
-      <c r="BR20" s="491"/>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A21" s="507" t="s">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A21" s="446" t="s">
         <v>80</v>
       </c>
       <c r="B21" s="239">
@@ -45258,7 +44512,7 @@
         <f>K21/L21</f>
         <v>-0.2142122573951242</v>
       </c>
-      <c r="N21" s="532">
+      <c r="N21" s="464">
         <v>8.8871890830739209E-2</v>
       </c>
       <c r="Q21" s="419" t="s">
@@ -45315,44 +44569,9 @@
       <c r="AD21" s="227">
         <v>-5.2460135362221633E-2</v>
       </c>
-      <c r="AJ21" s="491"/>
-      <c r="AK21" s="491"/>
-      <c r="AL21" s="491"/>
-      <c r="AM21" s="491"/>
-      <c r="AN21" s="491"/>
-      <c r="AO21" s="491"/>
-      <c r="AP21" s="491"/>
-      <c r="AQ21" s="491"/>
-      <c r="AR21" s="491"/>
-      <c r="AS21" s="491"/>
-      <c r="AT21" s="491"/>
-      <c r="AU21" s="491"/>
-      <c r="AV21" s="491"/>
-      <c r="AW21" s="491"/>
-      <c r="AX21" s="491"/>
-      <c r="AY21" s="491"/>
-      <c r="AZ21" s="491"/>
-      <c r="BA21" s="491"/>
-      <c r="BB21" s="491"/>
-      <c r="BC21" s="491"/>
-      <c r="BD21" s="491"/>
-      <c r="BE21" s="491"/>
-      <c r="BF21" s="491"/>
-      <c r="BG21" s="491"/>
-      <c r="BH21" s="491"/>
-      <c r="BI21" s="491"/>
-      <c r="BJ21" s="491"/>
-      <c r="BK21" s="491"/>
-      <c r="BL21" s="491"/>
-      <c r="BM21" s="491"/>
-      <c r="BN21" s="491"/>
-      <c r="BO21" s="491"/>
-      <c r="BP21" s="491"/>
-      <c r="BQ21" s="491"/>
-      <c r="BR21" s="491"/>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A22" s="507" t="s">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A22" s="446" t="s">
         <v>81</v>
       </c>
       <c r="B22" s="239">
@@ -45403,47 +44622,12 @@
         <f t="shared" si="15"/>
         <v>-0.12091619396052283</v>
       </c>
-      <c r="N22" s="532">
+      <c r="N22" s="464">
         <v>8.8871890830739209E-2</v>
       </c>
-      <c r="AJ22" s="491"/>
-      <c r="AK22" s="491"/>
-      <c r="AL22" s="491"/>
-      <c r="AM22" s="491"/>
-      <c r="AN22" s="491"/>
-      <c r="AO22" s="491"/>
-      <c r="AP22" s="491"/>
-      <c r="AQ22" s="491"/>
-      <c r="AR22" s="491"/>
-      <c r="AS22" s="491"/>
-      <c r="AT22" s="491"/>
-      <c r="AU22" s="491"/>
-      <c r="AV22" s="491"/>
-      <c r="AW22" s="491"/>
-      <c r="AX22" s="491"/>
-      <c r="AY22" s="491"/>
-      <c r="AZ22" s="491"/>
-      <c r="BA22" s="491"/>
-      <c r="BB22" s="491"/>
-      <c r="BC22" s="491"/>
-      <c r="BD22" s="491"/>
-      <c r="BE22" s="491"/>
-      <c r="BF22" s="491"/>
-      <c r="BG22" s="491"/>
-      <c r="BH22" s="491"/>
-      <c r="BI22" s="491"/>
-      <c r="BJ22" s="491"/>
-      <c r="BK22" s="491"/>
-      <c r="BL22" s="491"/>
-      <c r="BM22" s="491"/>
-      <c r="BN22" s="491"/>
-      <c r="BO22" s="491"/>
-      <c r="BP22" s="491"/>
-      <c r="BQ22" s="491"/>
-      <c r="BR22" s="491"/>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A23" s="508" t="s">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A23" s="447" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="239">
@@ -45494,47 +44678,18 @@
         <f t="shared" si="15"/>
         <v>0.19235164956740658</v>
       </c>
-      <c r="N23" s="533">
+      <c r="N23" s="465">
         <v>-5.8003155872635853E-2</v>
       </c>
-      <c r="AJ23" s="491"/>
-      <c r="AK23" s="494"/>
-      <c r="AL23" s="494"/>
-      <c r="AM23" s="491"/>
-      <c r="AN23" s="491"/>
-      <c r="AO23" s="491"/>
-      <c r="AP23" s="491"/>
-      <c r="AQ23" s="491"/>
-      <c r="AR23" s="491"/>
-      <c r="AS23" s="491"/>
-      <c r="AT23" s="494"/>
-      <c r="AU23" s="494"/>
-      <c r="AV23" s="491"/>
-      <c r="AW23" s="491"/>
-      <c r="AX23" s="491"/>
-      <c r="AY23" s="491"/>
-      <c r="AZ23" s="491"/>
-      <c r="BA23" s="491"/>
-      <c r="BB23" s="491"/>
-      <c r="BC23" s="494"/>
-      <c r="BD23" s="494"/>
-      <c r="BE23" s="491"/>
-      <c r="BF23" s="491"/>
-      <c r="BG23" s="491"/>
-      <c r="BH23" s="491"/>
-      <c r="BI23" s="491"/>
-      <c r="BJ23" s="491"/>
-      <c r="BK23" s="491"/>
-      <c r="BL23" s="491"/>
-      <c r="BM23" s="491"/>
-      <c r="BN23" s="491"/>
-      <c r="BO23" s="491"/>
-      <c r="BP23" s="491"/>
-      <c r="BQ23" s="491"/>
-      <c r="BR23" s="491"/>
+      <c r="AK23" s="434"/>
+      <c r="AL23" s="434"/>
+      <c r="AT23" s="434"/>
+      <c r="AU23" s="434"/>
+      <c r="BC23" s="434"/>
+      <c r="BD23" s="434"/>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A24" s="509" t="s">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A24" s="448" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="239">
@@ -45585,47 +44740,12 @@
         <f t="shared" si="15"/>
         <v>6.9338931211544927E-2</v>
       </c>
-      <c r="N24" s="530">
+      <c r="N24" s="462">
         <v>-0.12379754395977956</v>
       </c>
-      <c r="AJ24" s="491"/>
-      <c r="AK24" s="491"/>
-      <c r="AL24" s="491"/>
-      <c r="AM24" s="491"/>
-      <c r="AN24" s="491"/>
-      <c r="AO24" s="491"/>
-      <c r="AP24" s="491"/>
-      <c r="AQ24" s="491"/>
-      <c r="AR24" s="491"/>
-      <c r="AS24" s="491"/>
-      <c r="AT24" s="491"/>
-      <c r="AU24" s="491"/>
-      <c r="AV24" s="491"/>
-      <c r="AW24" s="491"/>
-      <c r="AX24" s="491"/>
-      <c r="AY24" s="491"/>
-      <c r="AZ24" s="491"/>
-      <c r="BA24" s="491"/>
-      <c r="BB24" s="491"/>
-      <c r="BC24" s="491"/>
-      <c r="BD24" s="491"/>
-      <c r="BE24" s="491"/>
-      <c r="BF24" s="491"/>
-      <c r="BG24" s="491"/>
-      <c r="BH24" s="491"/>
-      <c r="BI24" s="491"/>
-      <c r="BJ24" s="491"/>
-      <c r="BK24" s="491"/>
-      <c r="BL24" s="491"/>
-      <c r="BM24" s="491"/>
-      <c r="BN24" s="491"/>
-      <c r="BO24" s="491"/>
-      <c r="BP24" s="491"/>
-      <c r="BQ24" s="491"/>
-      <c r="BR24" s="491"/>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A25" s="509" t="s">
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A25" s="448" t="s">
         <v>85</v>
       </c>
       <c r="B25" s="239">
@@ -45676,54 +44796,19 @@
         <f t="shared" si="15"/>
         <v>0.30506992688237528</v>
       </c>
-      <c r="N25" s="530">
+      <c r="N25" s="462">
         <v>-0.12379754395977956</v>
       </c>
-      <c r="AJ25" s="491"/>
-      <c r="AK25" s="491"/>
-      <c r="AL25" s="491"/>
-      <c r="AM25" s="491"/>
-      <c r="AN25" s="491"/>
-      <c r="AO25" s="491"/>
-      <c r="AP25" s="491"/>
-      <c r="AQ25" s="491"/>
-      <c r="AR25" s="491"/>
-      <c r="AS25" s="491"/>
-      <c r="AT25" s="491"/>
-      <c r="AU25" s="491"/>
-      <c r="AV25" s="491"/>
-      <c r="AW25" s="491"/>
-      <c r="AX25" s="491"/>
-      <c r="AY25" s="491"/>
-      <c r="AZ25" s="491"/>
-      <c r="BA25" s="491"/>
-      <c r="BB25" s="491"/>
-      <c r="BC25" s="491"/>
-      <c r="BD25" s="491"/>
-      <c r="BE25" s="491"/>
-      <c r="BF25" s="491"/>
-      <c r="BG25" s="491"/>
-      <c r="BH25" s="491"/>
-      <c r="BI25" s="491"/>
-      <c r="BJ25" s="491"/>
-      <c r="BK25" s="491"/>
-      <c r="BL25" s="491"/>
-      <c r="BM25" s="491"/>
-      <c r="BN25" s="491"/>
-      <c r="BO25" s="491"/>
-      <c r="BP25" s="491"/>
-      <c r="BQ25" s="491"/>
-      <c r="BR25" s="491"/>
     </row>
-    <row r="26" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="510" t="s">
+    <row r="26" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="449" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="535">
+      <c r="B26" s="467">
         <f>'Summer Weights'!AK41</f>
         <v>-0.69299999999999962</v>
       </c>
-      <c r="C26" s="541">
+      <c r="C26" s="473">
         <f>'Summer Weights'!AD14</f>
         <v>2.1473999999999998</v>
       </c>
@@ -45731,11 +44816,11 @@
         <f>B26/C26</f>
         <v>-0.32271584241408202</v>
       </c>
-      <c r="E26" s="537">
+      <c r="E26" s="469">
         <f>'Summer Weights'!AL41</f>
         <v>0.58270000000000088</v>
       </c>
-      <c r="F26" s="538">
+      <c r="F26" s="470">
         <f>'Summer Weights'!AE14</f>
         <v>9.2515999999999998</v>
       </c>
@@ -45743,11 +44828,11 @@
         <f t="shared" si="13"/>
         <v>6.2983700116736666E-2</v>
       </c>
-      <c r="H26" s="537">
+      <c r="H26" s="469">
         <f>'Summer Weights'!AM41</f>
         <v>2.7966349436854614</v>
       </c>
-      <c r="I26" s="538">
+      <c r="I26" s="470">
         <f>'Summer Weights'!AH14</f>
         <v>4.0606493176648994</v>
       </c>
@@ -45755,11 +44840,11 @@
         <f t="shared" si="14"/>
         <v>0.68871619411195129</v>
       </c>
-      <c r="K26" s="535">
+      <c r="K26" s="467">
         <f>'Summer Weights'!AN41</f>
         <v>0.20807480090515129</v>
       </c>
-      <c r="L26" s="538">
+      <c r="L26" s="470">
         <f>'Summer Weights'!AI14</f>
         <v>0.28163472327520855</v>
       </c>
@@ -45767,261 +44852,62 @@
         <f t="shared" si="15"/>
         <v>0.73881089123312471</v>
       </c>
-      <c r="N26" s="534">
+      <c r="N26" s="466">
         <v>-5.2460135362221633E-2</v>
       </c>
-      <c r="AJ26" s="491"/>
-      <c r="AK26" s="491"/>
-      <c r="AL26" s="491"/>
-      <c r="AM26" s="491"/>
-      <c r="AN26" s="491"/>
-      <c r="AO26" s="491"/>
-      <c r="AP26" s="491"/>
-      <c r="AQ26" s="491"/>
-      <c r="AR26" s="491"/>
-      <c r="AS26" s="491"/>
-      <c r="AT26" s="491"/>
-      <c r="AU26" s="491"/>
-      <c r="AV26" s="491"/>
-      <c r="AW26" s="491"/>
-      <c r="AX26" s="491"/>
-      <c r="AY26" s="491"/>
-      <c r="AZ26" s="491"/>
-      <c r="BA26" s="491"/>
-      <c r="BB26" s="491"/>
-      <c r="BC26" s="491"/>
-      <c r="BD26" s="491"/>
-      <c r="BE26" s="491"/>
-      <c r="BF26" s="491"/>
-      <c r="BG26" s="491"/>
-      <c r="BH26" s="491"/>
-      <c r="BI26" s="491"/>
-      <c r="BJ26" s="491"/>
-      <c r="BK26" s="491"/>
-      <c r="BL26" s="491"/>
-      <c r="BM26" s="491"/>
-      <c r="BN26" s="491"/>
-      <c r="BO26" s="491"/>
-      <c r="BP26" s="491"/>
-      <c r="BQ26" s="491"/>
-      <c r="BR26" s="491"/>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A27" s="511"/>
-      <c r="B27" s="488"/>
-      <c r="C27" s="488"/>
-      <c r="D27" s="488"/>
-      <c r="E27" s="488"/>
-      <c r="F27" s="488"/>
-      <c r="G27" s="488"/>
-      <c r="H27" s="488"/>
-      <c r="I27" s="488"/>
-      <c r="J27" s="488"/>
-      <c r="K27" s="488"/>
-      <c r="L27" s="488"/>
-      <c r="M27" s="488"/>
-      <c r="N27" s="512"/>
-      <c r="AJ27" s="491"/>
-      <c r="AK27" s="491"/>
-      <c r="AL27" s="491"/>
-      <c r="AM27" s="491"/>
-      <c r="AN27" s="491"/>
-      <c r="AO27" s="491"/>
-      <c r="AP27" s="491"/>
-      <c r="AQ27" s="491"/>
-      <c r="AR27" s="491"/>
-      <c r="AS27" s="491"/>
-      <c r="AT27" s="491"/>
-      <c r="AU27" s="491"/>
-      <c r="AV27" s="491"/>
-      <c r="AW27" s="491"/>
-      <c r="AX27" s="491"/>
-      <c r="AY27" s="491"/>
-      <c r="AZ27" s="491"/>
-      <c r="BA27" s="491"/>
-      <c r="BB27" s="491"/>
-      <c r="BC27" s="491"/>
-      <c r="BD27" s="491"/>
-      <c r="BE27" s="491"/>
-      <c r="BF27" s="491"/>
-      <c r="BG27" s="491"/>
-      <c r="BH27" s="491"/>
-      <c r="BI27" s="491"/>
-      <c r="BJ27" s="491"/>
-      <c r="BK27" s="491"/>
-      <c r="BL27" s="491"/>
-      <c r="BM27" s="491"/>
-      <c r="BN27" s="491"/>
-      <c r="BO27" s="491"/>
-      <c r="BP27" s="491"/>
-      <c r="BQ27" s="491"/>
-      <c r="BR27" s="491"/>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A27" s="450"/>
+      <c r="N27" s="451"/>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A28" s="511"/>
-      <c r="B28" s="488"/>
-      <c r="C28" s="488"/>
-      <c r="D28" s="488"/>
-      <c r="E28" s="488"/>
-      <c r="F28" s="488"/>
-      <c r="G28" s="488"/>
-      <c r="H28" s="488"/>
-      <c r="I28" s="488"/>
-      <c r="J28" s="488"/>
-      <c r="K28" s="488"/>
-      <c r="L28" s="488"/>
-      <c r="M28" s="488"/>
-      <c r="N28" s="512"/>
-      <c r="AJ28" s="491"/>
-      <c r="AK28" s="491"/>
-      <c r="AL28" s="491"/>
-      <c r="AM28" s="491"/>
-      <c r="AN28" s="491"/>
-      <c r="AO28" s="491"/>
-      <c r="AP28" s="491"/>
-      <c r="AQ28" s="491"/>
-      <c r="AR28" s="491"/>
-      <c r="AS28" s="491"/>
-      <c r="AT28" s="491"/>
-      <c r="AU28" s="491"/>
-      <c r="AV28" s="491"/>
-      <c r="AW28" s="491"/>
-      <c r="AX28" s="491"/>
-      <c r="AY28" s="491"/>
-      <c r="AZ28" s="491"/>
-      <c r="BA28" s="491"/>
-      <c r="BB28" s="491"/>
-      <c r="BC28" s="491"/>
-      <c r="BD28" s="491"/>
-      <c r="BE28" s="491"/>
-      <c r="BF28" s="491"/>
-      <c r="BG28" s="491"/>
-      <c r="BH28" s="491"/>
-      <c r="BI28" s="491"/>
-      <c r="BJ28" s="491"/>
-      <c r="BK28" s="491"/>
-      <c r="BL28" s="491"/>
-      <c r="BM28" s="491"/>
-      <c r="BN28" s="491"/>
-      <c r="BO28" s="491"/>
-      <c r="BP28" s="491"/>
-      <c r="BQ28" s="491"/>
-      <c r="BR28" s="491"/>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A28" s="450"/>
+      <c r="N28" s="451"/>
     </row>
-    <row r="29" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="513" t="s">
+    <row r="29" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="525" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="479"/>
-      <c r="C29" s="479"/>
-      <c r="D29" s="479"/>
-      <c r="E29" s="479"/>
-      <c r="F29" s="479"/>
-      <c r="G29" s="479"/>
-      <c r="H29" s="479"/>
-      <c r="I29" s="479"/>
-      <c r="J29" s="479"/>
-      <c r="K29" s="479"/>
-      <c r="L29" s="479"/>
-      <c r="M29" s="479"/>
-      <c r="N29" s="514"/>
-      <c r="AJ29" s="491"/>
-      <c r="AK29" s="491"/>
-      <c r="AL29" s="491"/>
-      <c r="AM29" s="491"/>
-      <c r="AN29" s="491"/>
-      <c r="AO29" s="491"/>
-      <c r="AP29" s="491"/>
-      <c r="AQ29" s="491"/>
-      <c r="AR29" s="491"/>
-      <c r="AS29" s="491"/>
-      <c r="AT29" s="491"/>
-      <c r="AU29" s="491"/>
-      <c r="AV29" s="491"/>
-      <c r="AW29" s="491"/>
-      <c r="AX29" s="491"/>
-      <c r="AY29" s="491"/>
-      <c r="AZ29" s="491"/>
-      <c r="BA29" s="491"/>
-      <c r="BB29" s="491"/>
-      <c r="BC29" s="491"/>
-      <c r="BD29" s="491"/>
-      <c r="BE29" s="491"/>
-      <c r="BF29" s="491"/>
-      <c r="BG29" s="491"/>
-      <c r="BH29" s="491"/>
-      <c r="BI29" s="491"/>
-      <c r="BJ29" s="491"/>
-      <c r="BK29" s="491"/>
-      <c r="BL29" s="491"/>
-      <c r="BM29" s="491"/>
-      <c r="BN29" s="491"/>
-      <c r="BO29" s="491"/>
-      <c r="BP29" s="491"/>
-      <c r="BQ29" s="491"/>
-      <c r="BR29" s="491"/>
+      <c r="B29" s="526"/>
+      <c r="C29" s="526"/>
+      <c r="D29" s="526"/>
+      <c r="E29" s="526"/>
+      <c r="F29" s="526"/>
+      <c r="G29" s="526"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="526"/>
+      <c r="J29" s="526"/>
+      <c r="K29" s="526"/>
+      <c r="L29" s="526"/>
+      <c r="M29" s="526"/>
+      <c r="N29" s="527"/>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A30" s="500"/>
-      <c r="B30" s="481" t="s">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A30" s="439"/>
+      <c r="B30" s="521" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="482"/>
-      <c r="D30" s="483"/>
-      <c r="E30" s="481" t="s">
+      <c r="C30" s="522"/>
+      <c r="D30" s="523"/>
+      <c r="E30" s="521" t="s">
         <v>102</v>
       </c>
-      <c r="F30" s="482"/>
-      <c r="G30" s="483"/>
-      <c r="H30" s="481" t="s">
+      <c r="F30" s="522"/>
+      <c r="G30" s="523"/>
+      <c r="H30" s="521" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="482"/>
-      <c r="J30" s="483"/>
-      <c r="K30" s="481" t="s">
+      <c r="I30" s="522"/>
+      <c r="J30" s="523"/>
+      <c r="K30" s="521" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="482"/>
-      <c r="M30" s="483"/>
-      <c r="N30" s="501"/>
-      <c r="AJ30" s="491"/>
-      <c r="AK30" s="491"/>
-      <c r="AL30" s="491"/>
-      <c r="AM30" s="491"/>
-      <c r="AN30" s="491"/>
-      <c r="AO30" s="491"/>
-      <c r="AP30" s="491"/>
-      <c r="AQ30" s="491"/>
-      <c r="AR30" s="491"/>
-      <c r="AS30" s="491"/>
-      <c r="AT30" s="491"/>
-      <c r="AU30" s="491"/>
-      <c r="AV30" s="491"/>
-      <c r="AW30" s="491"/>
-      <c r="AX30" s="491"/>
-      <c r="AY30" s="491"/>
-      <c r="AZ30" s="491"/>
-      <c r="BA30" s="491"/>
-      <c r="BB30" s="491"/>
-      <c r="BC30" s="491"/>
-      <c r="BD30" s="491"/>
-      <c r="BE30" s="491"/>
-      <c r="BF30" s="491"/>
-      <c r="BG30" s="491"/>
-      <c r="BH30" s="491"/>
-      <c r="BI30" s="491"/>
-      <c r="BJ30" s="491"/>
-      <c r="BK30" s="491"/>
-      <c r="BL30" s="491"/>
-      <c r="BM30" s="491"/>
-      <c r="BN30" s="491"/>
-      <c r="BO30" s="491"/>
-      <c r="BP30" s="491"/>
-      <c r="BQ30" s="491"/>
-      <c r="BR30" s="491"/>
+      <c r="L30" s="522"/>
+      <c r="M30" s="523"/>
+      <c r="N30" s="440"/>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A31" s="502" t="s">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A31" s="441" t="s">
         <v>73</v>
       </c>
       <c r="B31" s="237" t="s">
@@ -46060,47 +44946,30 @@
       <c r="M31" s="238" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="503" t="s">
+      <c r="N31" s="442" t="s">
         <v>27</v>
       </c>
-      <c r="AJ31" s="491"/>
-      <c r="AK31" s="495"/>
-      <c r="AL31" s="495"/>
-      <c r="AM31" s="495"/>
-      <c r="AN31" s="495"/>
-      <c r="AO31" s="495"/>
-      <c r="AP31" s="495"/>
-      <c r="AQ31" s="491"/>
-      <c r="AR31" s="491"/>
-      <c r="AS31" s="491"/>
-      <c r="AT31" s="495"/>
-      <c r="AU31" s="495"/>
-      <c r="AV31" s="495"/>
-      <c r="AW31" s="495"/>
-      <c r="AX31" s="495"/>
-      <c r="AY31" s="495"/>
-      <c r="AZ31" s="491"/>
-      <c r="BA31" s="491"/>
-      <c r="BB31" s="491"/>
-      <c r="BC31" s="495"/>
-      <c r="BD31" s="495"/>
-      <c r="BE31" s="495"/>
-      <c r="BF31" s="495"/>
-      <c r="BG31" s="495"/>
-      <c r="BH31" s="495"/>
-      <c r="BI31" s="491"/>
-      <c r="BJ31" s="491"/>
-      <c r="BK31" s="491"/>
-      <c r="BL31" s="491"/>
-      <c r="BM31" s="491"/>
-      <c r="BN31" s="491"/>
-      <c r="BO31" s="491"/>
-      <c r="BP31" s="491"/>
-      <c r="BQ31" s="491"/>
-      <c r="BR31" s="491"/>
+      <c r="AK31" s="435"/>
+      <c r="AL31" s="435"/>
+      <c r="AM31" s="435"/>
+      <c r="AN31" s="435"/>
+      <c r="AO31" s="435"/>
+      <c r="AP31" s="435"/>
+      <c r="AT31" s="435"/>
+      <c r="AU31" s="435"/>
+      <c r="AV31" s="435"/>
+      <c r="AW31" s="435"/>
+      <c r="AX31" s="435"/>
+      <c r="AY31" s="435"/>
+      <c r="BC31" s="435"/>
+      <c r="BD31" s="435"/>
+      <c r="BE31" s="435"/>
+      <c r="BF31" s="435"/>
+      <c r="BG31" s="435"/>
+      <c r="BH31" s="435"/>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A32" s="504" t="s">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A32" s="443" t="s">
         <v>76</v>
       </c>
       <c r="B32" s="239">
@@ -46139,47 +45008,12 @@
       <c r="M32" s="240">
         <v>0.18061966240201743</v>
       </c>
-      <c r="N32" s="529">
+      <c r="N32" s="461">
         <v>-0.25646381521666273</v>
       </c>
-      <c r="AJ32" s="491"/>
-      <c r="AK32" s="491"/>
-      <c r="AL32" s="491"/>
-      <c r="AM32" s="491"/>
-      <c r="AN32" s="491"/>
-      <c r="AO32" s="491"/>
-      <c r="AP32" s="491"/>
-      <c r="AQ32" s="491"/>
-      <c r="AR32" s="491"/>
-      <c r="AS32" s="491"/>
-      <c r="AT32" s="491"/>
-      <c r="AU32" s="491"/>
-      <c r="AV32" s="491"/>
-      <c r="AW32" s="491"/>
-      <c r="AX32" s="491"/>
-      <c r="AY32" s="491"/>
-      <c r="AZ32" s="491"/>
-      <c r="BA32" s="491"/>
-      <c r="BB32" s="491"/>
-      <c r="BC32" s="491"/>
-      <c r="BD32" s="491"/>
-      <c r="BE32" s="491"/>
-      <c r="BF32" s="491"/>
-      <c r="BG32" s="491"/>
-      <c r="BH32" s="491"/>
-      <c r="BI32" s="491"/>
-      <c r="BJ32" s="491"/>
-      <c r="BK32" s="491"/>
-      <c r="BL32" s="491"/>
-      <c r="BM32" s="491"/>
-      <c r="BN32" s="491"/>
-      <c r="BO32" s="491"/>
-      <c r="BP32" s="491"/>
-      <c r="BQ32" s="491"/>
-      <c r="BR32" s="491"/>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A33" s="505" t="s">
+    <row r="33" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A33" s="444" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="239">
@@ -46218,47 +45052,12 @@
       <c r="M33" s="240">
         <v>0.45650263746076064</v>
       </c>
-      <c r="N33" s="533">
+      <c r="N33" s="465">
         <v>-0.25646381521666273</v>
       </c>
-      <c r="AJ33" s="491"/>
-      <c r="AK33" s="491"/>
-      <c r="AL33" s="491"/>
-      <c r="AM33" s="491"/>
-      <c r="AN33" s="491"/>
-      <c r="AO33" s="491"/>
-      <c r="AP33" s="491"/>
-      <c r="AQ33" s="491"/>
-      <c r="AR33" s="491"/>
-      <c r="AS33" s="491"/>
-      <c r="AT33" s="491"/>
-      <c r="AU33" s="491"/>
-      <c r="AV33" s="491"/>
-      <c r="AW33" s="491"/>
-      <c r="AX33" s="491"/>
-      <c r="AY33" s="491"/>
-      <c r="AZ33" s="491"/>
-      <c r="BA33" s="491"/>
-      <c r="BB33" s="491"/>
-      <c r="BC33" s="491"/>
-      <c r="BD33" s="491"/>
-      <c r="BE33" s="491"/>
-      <c r="BF33" s="491"/>
-      <c r="BG33" s="491"/>
-      <c r="BH33" s="491"/>
-      <c r="BI33" s="491"/>
-      <c r="BJ33" s="491"/>
-      <c r="BK33" s="491"/>
-      <c r="BL33" s="491"/>
-      <c r="BM33" s="491"/>
-      <c r="BN33" s="491"/>
-      <c r="BO33" s="491"/>
-      <c r="BP33" s="491"/>
-      <c r="BQ33" s="491"/>
-      <c r="BR33" s="491"/>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A34" s="507" t="s">
+    <row r="34" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A34" s="446" t="s">
         <v>80</v>
       </c>
       <c r="B34" s="239">
@@ -46305,55 +45104,12 @@
         <f t="shared" ref="M34:M38" si="23">K34/L34</f>
         <v>-0.2142122573951242</v>
       </c>
-      <c r="N34" s="532">
+      <c r="N34" s="464">
         <v>8.8871890830739209E-2</v>
       </c>
-      <c r="AB34" s="491"/>
-      <c r="AC34" s="491"/>
-      <c r="AD34" s="491"/>
-      <c r="AE34" s="491"/>
-      <c r="AF34" s="491"/>
-      <c r="AG34" s="491"/>
-      <c r="AH34" s="491"/>
-      <c r="AI34" s="491"/>
-      <c r="AJ34" s="491"/>
-      <c r="AK34" s="491"/>
-      <c r="AL34" s="491"/>
-      <c r="AM34" s="491"/>
-      <c r="AN34" s="491"/>
-      <c r="AO34" s="491"/>
-      <c r="AP34" s="491"/>
-      <c r="AQ34" s="491"/>
-      <c r="AR34" s="491"/>
-      <c r="AS34" s="491"/>
-      <c r="AT34" s="491"/>
-      <c r="AU34" s="491"/>
-      <c r="AV34" s="491"/>
-      <c r="AW34" s="491"/>
-      <c r="AX34" s="491"/>
-      <c r="AY34" s="491"/>
-      <c r="AZ34" s="491"/>
-      <c r="BA34" s="491"/>
-      <c r="BB34" s="491"/>
-      <c r="BC34" s="491"/>
-      <c r="BD34" s="491"/>
-      <c r="BE34" s="491"/>
-      <c r="BF34" s="491"/>
-      <c r="BG34" s="491"/>
-      <c r="BH34" s="491"/>
-      <c r="BI34" s="491"/>
-      <c r="BJ34" s="491"/>
-      <c r="BK34" s="491"/>
-      <c r="BL34" s="491"/>
-      <c r="BM34" s="491"/>
-      <c r="BN34" s="491"/>
-      <c r="BO34" s="491"/>
-      <c r="BP34" s="491"/>
-      <c r="BQ34" s="491"/>
-      <c r="BR34" s="491"/>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A35" s="507" t="s">
+    <row r="35" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A35" s="446" t="s">
         <v>81</v>
       </c>
       <c r="B35" s="239">
@@ -46400,55 +45156,12 @@
         <f t="shared" si="23"/>
         <v>-0.12091619396052281</v>
       </c>
-      <c r="N35" s="532">
+      <c r="N35" s="464">
         <v>8.8871890830739209E-2</v>
       </c>
-      <c r="AB35" s="491"/>
-      <c r="AC35" s="491"/>
-      <c r="AD35" s="491"/>
-      <c r="AE35" s="491"/>
-      <c r="AF35" s="491"/>
-      <c r="AG35" s="491"/>
-      <c r="AH35" s="491"/>
-      <c r="AI35" s="491"/>
-      <c r="AJ35" s="491"/>
-      <c r="AK35" s="491"/>
-      <c r="AL35" s="491"/>
-      <c r="AM35" s="491"/>
-      <c r="AN35" s="491"/>
-      <c r="AO35" s="491"/>
-      <c r="AP35" s="491"/>
-      <c r="AQ35" s="491"/>
-      <c r="AR35" s="491"/>
-      <c r="AS35" s="491"/>
-      <c r="AT35" s="491"/>
-      <c r="AU35" s="491"/>
-      <c r="AV35" s="491"/>
-      <c r="AW35" s="491"/>
-      <c r="AX35" s="491"/>
-      <c r="AY35" s="491"/>
-      <c r="AZ35" s="491"/>
-      <c r="BA35" s="491"/>
-      <c r="BB35" s="491"/>
-      <c r="BC35" s="491"/>
-      <c r="BD35" s="491"/>
-      <c r="BE35" s="491"/>
-      <c r="BF35" s="491"/>
-      <c r="BG35" s="491"/>
-      <c r="BH35" s="491"/>
-      <c r="BI35" s="491"/>
-      <c r="BJ35" s="491"/>
-      <c r="BK35" s="491"/>
-      <c r="BL35" s="491"/>
-      <c r="BM35" s="491"/>
-      <c r="BN35" s="491"/>
-      <c r="BO35" s="491"/>
-      <c r="BP35" s="491"/>
-      <c r="BQ35" s="491"/>
-      <c r="BR35" s="491"/>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A36" s="508" t="s">
+    <row r="36" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A36" s="447" t="s">
         <v>83</v>
       </c>
       <c r="B36" s="239">
@@ -46495,55 +45208,48 @@
         <f t="shared" si="23"/>
         <v>0.19235164956740658</v>
       </c>
-      <c r="N36" s="533">
+      <c r="N36" s="465">
         <v>-5.8003155872635853E-2</v>
       </c>
-      <c r="AB36" s="495"/>
-      <c r="AC36" s="495"/>
-      <c r="AD36" s="495"/>
-      <c r="AE36" s="495"/>
-      <c r="AF36" s="495"/>
-      <c r="AG36" s="495"/>
-      <c r="AH36" s="495"/>
-      <c r="AI36" s="495"/>
-      <c r="AJ36" s="495"/>
-      <c r="AK36" s="495"/>
-      <c r="AL36" s="495"/>
-      <c r="AM36" s="495"/>
-      <c r="AN36" s="495"/>
-      <c r="AO36" s="495"/>
-      <c r="AP36" s="495"/>
-      <c r="AQ36" s="495"/>
-      <c r="AR36" s="495"/>
-      <c r="AS36" s="495"/>
-      <c r="AT36" s="495"/>
-      <c r="AU36" s="495"/>
-      <c r="AV36" s="495"/>
-      <c r="AW36" s="495"/>
-      <c r="AX36" s="495"/>
-      <c r="AY36" s="495"/>
-      <c r="AZ36" s="495"/>
-      <c r="BA36" s="495"/>
-      <c r="BB36" s="495"/>
-      <c r="BC36" s="495"/>
-      <c r="BD36" s="495"/>
-      <c r="BE36" s="495"/>
-      <c r="BF36" s="495"/>
-      <c r="BG36" s="495"/>
-      <c r="BH36" s="495"/>
-      <c r="BI36" s="495"/>
-      <c r="BJ36" s="495"/>
-      <c r="BK36" s="495"/>
-      <c r="BL36" s="491"/>
-      <c r="BM36" s="491"/>
-      <c r="BN36" s="491"/>
-      <c r="BO36" s="491"/>
-      <c r="BP36" s="491"/>
-      <c r="BQ36" s="491"/>
-      <c r="BR36" s="491"/>
+      <c r="AB36" s="435"/>
+      <c r="AC36" s="435"/>
+      <c r="AD36" s="435"/>
+      <c r="AE36" s="435"/>
+      <c r="AF36" s="435"/>
+      <c r="AG36" s="435"/>
+      <c r="AH36" s="435"/>
+      <c r="AI36" s="435"/>
+      <c r="AJ36" s="435"/>
+      <c r="AK36" s="435"/>
+      <c r="AL36" s="435"/>
+      <c r="AM36" s="435"/>
+      <c r="AN36" s="435"/>
+      <c r="AO36" s="435"/>
+      <c r="AP36" s="435"/>
+      <c r="AQ36" s="435"/>
+      <c r="AR36" s="435"/>
+      <c r="AS36" s="435"/>
+      <c r="AT36" s="435"/>
+      <c r="AU36" s="435"/>
+      <c r="AV36" s="435"/>
+      <c r="AW36" s="435"/>
+      <c r="AX36" s="435"/>
+      <c r="AY36" s="435"/>
+      <c r="AZ36" s="435"/>
+      <c r="BA36" s="435"/>
+      <c r="BB36" s="435"/>
+      <c r="BC36" s="435"/>
+      <c r="BD36" s="435"/>
+      <c r="BE36" s="435"/>
+      <c r="BF36" s="435"/>
+      <c r="BG36" s="435"/>
+      <c r="BH36" s="435"/>
+      <c r="BI36" s="435"/>
+      <c r="BJ36" s="435"/>
+      <c r="BK36" s="435"/>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A37" s="509" t="s">
+    <row r="37" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A37" s="448" t="s">
         <v>84</v>
       </c>
       <c r="B37" s="239">
@@ -46590,44 +45296,12 @@
         <f t="shared" si="23"/>
         <v>6.9338931211544927E-2</v>
       </c>
-      <c r="N37" s="530">
+      <c r="N37" s="462">
         <v>-0.12379754395977956</v>
       </c>
-      <c r="AM37" s="491"/>
-      <c r="AN37" s="491"/>
-      <c r="AO37" s="491"/>
-      <c r="AP37" s="491"/>
-      <c r="AQ37" s="491"/>
-      <c r="AR37" s="491"/>
-      <c r="AS37" s="491"/>
-      <c r="AT37" s="491"/>
-      <c r="AU37" s="491"/>
-      <c r="AV37" s="491"/>
-      <c r="AW37" s="491"/>
-      <c r="AX37" s="491"/>
-      <c r="AY37" s="491"/>
-      <c r="AZ37" s="491"/>
-      <c r="BA37" s="491"/>
-      <c r="BB37" s="491"/>
-      <c r="BC37" s="491"/>
-      <c r="BD37" s="491"/>
-      <c r="BE37" s="491"/>
-      <c r="BF37" s="491"/>
-      <c r="BG37" s="491"/>
-      <c r="BH37" s="491"/>
-      <c r="BI37" s="491"/>
-      <c r="BJ37" s="491"/>
-      <c r="BK37" s="491"/>
-      <c r="BL37" s="491"/>
-      <c r="BM37" s="491"/>
-      <c r="BN37" s="491"/>
-      <c r="BO37" s="491"/>
-      <c r="BP37" s="491"/>
-      <c r="BQ37" s="491"/>
-      <c r="BR37" s="491"/>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A38" s="509" t="s">
+    <row r="38" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A38" s="448" t="s">
         <v>85</v>
       </c>
       <c r="B38" s="239">
@@ -46674,50 +45348,21 @@
         <f t="shared" si="23"/>
         <v>0.30506992688237528</v>
       </c>
-      <c r="N38" s="530">
+      <c r="N38" s="462">
         <v>-0.12379754395977956</v>
       </c>
-      <c r="AM38" s="491"/>
-      <c r="AN38" s="491"/>
-      <c r="AO38" s="497"/>
-      <c r="AP38" s="491"/>
-      <c r="AQ38" s="491"/>
-      <c r="AR38" s="491"/>
-      <c r="AS38" s="491"/>
-      <c r="AT38" s="491"/>
-      <c r="AU38" s="491"/>
-      <c r="AV38" s="491"/>
-      <c r="AW38" s="491"/>
-      <c r="AX38" s="497"/>
-      <c r="AY38" s="491"/>
-      <c r="AZ38" s="491"/>
-      <c r="BA38" s="491"/>
-      <c r="BB38" s="491"/>
-      <c r="BC38" s="491"/>
-      <c r="BD38" s="491"/>
-      <c r="BE38" s="491"/>
-      <c r="BF38" s="491"/>
-      <c r="BG38" s="497"/>
-      <c r="BH38" s="491"/>
-      <c r="BI38" s="491"/>
-      <c r="BJ38" s="491"/>
-      <c r="BK38" s="491"/>
-      <c r="BL38" s="491"/>
-      <c r="BM38" s="491"/>
-      <c r="BN38" s="491"/>
-      <c r="BO38" s="491"/>
-      <c r="BP38" s="491"/>
-      <c r="BQ38" s="491"/>
-      <c r="BR38" s="491"/>
+      <c r="AO38" s="437"/>
+      <c r="AX38" s="437"/>
+      <c r="BG38" s="437"/>
     </row>
-    <row r="39" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="510" t="s">
+    <row r="39" spans="1:63" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="449" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="535">
+      <c r="B39" s="467">
         <v>-0.69299999999999962</v>
       </c>
-      <c r="C39" s="541">
+      <c r="C39" s="473">
         <f t="shared" si="16"/>
         <v>2.1473999999999998</v>
       </c>
@@ -46725,10 +45370,10 @@
         <f t="shared" si="17"/>
         <v>-0.32271584241408202</v>
       </c>
-      <c r="E39" s="537">
+      <c r="E39" s="469">
         <v>-0.90590974459061657</v>
       </c>
-      <c r="F39" s="538">
+      <c r="F39" s="470">
         <f t="shared" si="18"/>
         <v>9.2515999999999998</v>
       </c>
@@ -46736,10 +45381,10 @@
         <f t="shared" si="19"/>
         <v>-9.7919251220396103E-2</v>
       </c>
-      <c r="H39" s="537">
+      <c r="H39" s="469">
         <v>2.7966349436854614</v>
       </c>
-      <c r="I39" s="539">
+      <c r="I39" s="471">
         <f t="shared" si="20"/>
         <v>4.0606493176648994</v>
       </c>
@@ -46747,10 +45392,10 @@
         <f t="shared" si="21"/>
         <v>0.68871619411195129</v>
       </c>
-      <c r="K39" s="535">
+      <c r="K39" s="467">
         <v>0.20807480090515129</v>
       </c>
-      <c r="L39" s="539">
+      <c r="L39" s="471">
         <f t="shared" si="22"/>
         <v>0.28163472327520855</v>
       </c>
@@ -46758,44 +45403,12 @@
         <f>K39/L39</f>
         <v>0.73881089123312471</v>
       </c>
-      <c r="N39" s="534">
+      <c r="N39" s="466">
         <v>-5.2460135362221633E-2</v>
       </c>
-      <c r="AM39" s="491"/>
-      <c r="AN39" s="491"/>
-      <c r="AO39" s="491"/>
-      <c r="AP39" s="491"/>
-      <c r="AQ39" s="491"/>
-      <c r="AR39" s="491"/>
-      <c r="AS39" s="491"/>
-      <c r="AT39" s="491"/>
-      <c r="AU39" s="491"/>
-      <c r="AV39" s="491"/>
-      <c r="AW39" s="491"/>
-      <c r="AX39" s="491"/>
-      <c r="AY39" s="491"/>
-      <c r="AZ39" s="491"/>
-      <c r="BA39" s="491"/>
-      <c r="BB39" s="491"/>
-      <c r="BC39" s="491"/>
-      <c r="BD39" s="491"/>
-      <c r="BE39" s="491"/>
-      <c r="BF39" s="491"/>
-      <c r="BG39" s="491"/>
-      <c r="BH39" s="491"/>
-      <c r="BI39" s="491"/>
-      <c r="BJ39" s="491"/>
-      <c r="BK39" s="491"/>
-      <c r="BL39" s="491"/>
-      <c r="BM39" s="491"/>
-      <c r="BN39" s="491"/>
-      <c r="BO39" s="491"/>
-      <c r="BP39" s="491"/>
-      <c r="BQ39" s="491"/>
-      <c r="BR39" s="491"/>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A40" s="515"/>
+    <row r="40" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A40" s="452"/>
       <c r="B40" s="421"/>
       <c r="C40" s="421"/>
       <c r="D40" s="421"/>
@@ -46808,94 +45421,19 @@
       <c r="K40" s="421"/>
       <c r="L40" s="421"/>
       <c r="M40" s="421"/>
-      <c r="N40" s="516"/>
-      <c r="AM40" s="491"/>
-      <c r="AN40" s="491"/>
-      <c r="AO40" s="491"/>
-      <c r="AP40" s="491"/>
-      <c r="AQ40" s="491"/>
-      <c r="AR40" s="491"/>
-      <c r="AS40" s="491"/>
-      <c r="AT40" s="491"/>
-      <c r="AU40" s="491"/>
-      <c r="AV40" s="491"/>
-      <c r="AW40" s="491"/>
-      <c r="AX40" s="491"/>
-      <c r="AY40" s="491"/>
-      <c r="AZ40" s="491"/>
-      <c r="BA40" s="491"/>
-      <c r="BB40" s="491"/>
-      <c r="BC40" s="491"/>
-      <c r="BD40" s="491"/>
-      <c r="BE40" s="491"/>
-      <c r="BF40" s="491"/>
-      <c r="BG40" s="491"/>
-      <c r="BH40" s="491"/>
-      <c r="BI40" s="491"/>
-      <c r="BJ40" s="491"/>
-      <c r="BK40" s="491"/>
-      <c r="BL40" s="491"/>
-      <c r="BM40" s="491"/>
-      <c r="BN40" s="491"/>
-      <c r="BO40" s="491"/>
-      <c r="BP40" s="491"/>
-      <c r="BQ40" s="491"/>
-      <c r="BR40" s="491"/>
+      <c r="N40" s="453"/>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A41" s="511" t="s">
+    <row r="41" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A41" s="450" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="488" t="s">
+      <c r="B41" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="488"/>
-      <c r="D41" s="488"/>
-      <c r="E41" s="488"/>
-      <c r="F41" s="488"/>
-      <c r="G41" s="488"/>
-      <c r="H41" s="488"/>
-      <c r="I41" s="488"/>
-      <c r="J41" s="488"/>
-      <c r="K41" s="488"/>
-      <c r="L41" s="488"/>
-      <c r="M41" s="488"/>
-      <c r="N41" s="512"/>
-      <c r="AM41" s="491"/>
-      <c r="AN41" s="491"/>
-      <c r="AO41" s="491"/>
-      <c r="AP41" s="491"/>
-      <c r="AQ41" s="491"/>
-      <c r="AR41" s="491"/>
-      <c r="AS41" s="491"/>
-      <c r="AT41" s="491"/>
-      <c r="AU41" s="491"/>
-      <c r="AV41" s="491"/>
-      <c r="AW41" s="491"/>
-      <c r="AX41" s="491"/>
-      <c r="AY41" s="491"/>
-      <c r="AZ41" s="491"/>
-      <c r="BA41" s="491"/>
-      <c r="BB41" s="491"/>
-      <c r="BC41" s="491"/>
-      <c r="BD41" s="491"/>
-      <c r="BE41" s="491"/>
-      <c r="BF41" s="491"/>
-      <c r="BG41" s="491"/>
-      <c r="BH41" s="491"/>
-      <c r="BI41" s="491"/>
-      <c r="BJ41" s="491"/>
-      <c r="BK41" s="491"/>
-      <c r="BL41" s="491"/>
-      <c r="BM41" s="491"/>
-      <c r="BN41" s="491"/>
-      <c r="BO41" s="491"/>
-      <c r="BP41" s="491"/>
-      <c r="BQ41" s="491"/>
-      <c r="BR41" s="491"/>
+      <c r="N41" s="451"/>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A42" s="502" t="s">
+    <row r="42" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A42" s="441" t="s">
         <v>73</v>
       </c>
       <c r="B42" s="215" t="s">
@@ -46910,50 +45448,14 @@
       <c r="E42" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="488"/>
-      <c r="G42" s="488"/>
-      <c r="H42" s="488"/>
-      <c r="I42" s="488"/>
-      <c r="J42" s="488"/>
-      <c r="K42" s="488"/>
-      <c r="L42" s="488"/>
-      <c r="M42" s="488"/>
-      <c r="N42" s="512"/>
-      <c r="AM42" s="491"/>
-      <c r="AN42" s="491"/>
-      <c r="AO42" s="491"/>
-      <c r="AP42" s="491"/>
-      <c r="AQ42" s="491"/>
-      <c r="AR42" s="491"/>
-      <c r="AS42" s="491"/>
-      <c r="AT42" s="494"/>
-      <c r="AU42" s="494"/>
-      <c r="AV42" s="491"/>
-      <c r="AW42" s="491"/>
-      <c r="AX42" s="491"/>
-      <c r="AY42" s="491"/>
-      <c r="AZ42" s="491"/>
-      <c r="BA42" s="491"/>
-      <c r="BB42" s="491"/>
-      <c r="BC42" s="494"/>
-      <c r="BD42" s="494"/>
-      <c r="BE42" s="491"/>
-      <c r="BF42" s="491"/>
-      <c r="BG42" s="491"/>
-      <c r="BH42" s="491"/>
-      <c r="BI42" s="491"/>
-      <c r="BJ42" s="491"/>
-      <c r="BK42" s="491"/>
-      <c r="BL42" s="491"/>
-      <c r="BM42" s="491"/>
-      <c r="BN42" s="491"/>
-      <c r="BO42" s="491"/>
-      <c r="BP42" s="491"/>
-      <c r="BQ42" s="491"/>
-      <c r="BR42" s="491"/>
+      <c r="N42" s="451"/>
+      <c r="AT42" s="434"/>
+      <c r="AU42" s="434"/>
+      <c r="BC42" s="434"/>
+      <c r="BD42" s="434"/>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A43" s="504" t="s">
+    <row r="43" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A43" s="443" t="s">
         <v>76</v>
       </c>
       <c r="B43" s="86">
@@ -46971,56 +45473,19 @@
       <c r="E43" s="86">
         <v>0.20454360227175514</v>
       </c>
-      <c r="F43" s="488"/>
-      <c r="G43" s="518" t="s">
+      <c r="G43" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="H43" s="523" t="s">
+      <c r="H43" s="433" t="s">
         <v>117</v>
       </c>
-      <c r="I43" s="523" t="s">
+      <c r="I43" s="433" t="s">
         <v>118</v>
       </c>
-      <c r="J43" s="488"/>
-      <c r="K43" s="488"/>
-      <c r="L43" s="488"/>
-      <c r="M43" s="488"/>
-      <c r="N43" s="512"/>
-      <c r="AM43" s="491"/>
-      <c r="AN43" s="491"/>
-      <c r="AO43" s="491"/>
-      <c r="AP43" s="491"/>
-      <c r="AQ43" s="491"/>
-      <c r="AR43" s="491"/>
-      <c r="AS43" s="491"/>
-      <c r="AT43" s="491"/>
-      <c r="AU43" s="491"/>
-      <c r="AV43" s="491"/>
-      <c r="AW43" s="491"/>
-      <c r="AX43" s="491"/>
-      <c r="AY43" s="491"/>
-      <c r="AZ43" s="491"/>
-      <c r="BA43" s="491"/>
-      <c r="BB43" s="491"/>
-      <c r="BC43" s="491"/>
-      <c r="BD43" s="491"/>
-      <c r="BE43" s="491"/>
-      <c r="BF43" s="491"/>
-      <c r="BG43" s="491"/>
-      <c r="BH43" s="491"/>
-      <c r="BI43" s="491"/>
-      <c r="BJ43" s="491"/>
-      <c r="BK43" s="491"/>
-      <c r="BL43" s="491"/>
-      <c r="BM43" s="491"/>
-      <c r="BN43" s="491"/>
-      <c r="BO43" s="491"/>
-      <c r="BP43" s="491"/>
-      <c r="BQ43" s="491"/>
-      <c r="BR43" s="491"/>
+      <c r="N43" s="451"/>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A44" s="504" t="s">
+    <row r="44" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A44" s="443" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="86">
@@ -47038,56 +45503,19 @@
       <c r="E44" s="86">
         <v>0.20454360227175514</v>
       </c>
-      <c r="F44" s="488"/>
-      <c r="G44" s="518" t="s">
+      <c r="G44" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="H44" s="523" t="s">
+      <c r="H44" s="433" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="523" t="s">
+      <c r="I44" s="433" t="s">
         <v>116</v>
       </c>
-      <c r="J44" s="488"/>
-      <c r="K44" s="488"/>
-      <c r="L44" s="488"/>
-      <c r="M44" s="488"/>
-      <c r="N44" s="512"/>
-      <c r="AM44" s="491"/>
-      <c r="AN44" s="491"/>
-      <c r="AO44" s="491"/>
-      <c r="AP44" s="491"/>
-      <c r="AQ44" s="491"/>
-      <c r="AR44" s="491"/>
-      <c r="AS44" s="491"/>
-      <c r="AT44" s="491"/>
-      <c r="AU44" s="491"/>
-      <c r="AV44" s="491"/>
-      <c r="AW44" s="491"/>
-      <c r="AX44" s="491"/>
-      <c r="AY44" s="491"/>
-      <c r="AZ44" s="491"/>
-      <c r="BA44" s="491"/>
-      <c r="BB44" s="491"/>
-      <c r="BC44" s="491"/>
-      <c r="BD44" s="491"/>
-      <c r="BE44" s="491"/>
-      <c r="BF44" s="491"/>
-      <c r="BG44" s="491"/>
-      <c r="BH44" s="491"/>
-      <c r="BI44" s="491"/>
-      <c r="BJ44" s="491"/>
-      <c r="BK44" s="491"/>
-      <c r="BL44" s="491"/>
-      <c r="BM44" s="491"/>
-      <c r="BN44" s="491"/>
-      <c r="BO44" s="491"/>
-      <c r="BP44" s="491"/>
-      <c r="BQ44" s="491"/>
-      <c r="BR44" s="491"/>
+      <c r="N44" s="451"/>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A45" s="505" t="s">
+    <row r="45" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A45" s="444" t="s">
         <v>78</v>
       </c>
       <c r="B45" s="86">
@@ -47105,57 +45533,20 @@
       <c r="E45" s="220">
         <v>-0.31661374974045781</v>
       </c>
-      <c r="F45" s="488"/>
-      <c r="G45" s="518" t="s">
+      <c r="G45" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="H45" s="524">
+      <c r="H45" s="456">
         <v>2.3674028040712401E-6</v>
       </c>
-      <c r="I45" s="525">
+      <c r="I45" s="457">
         <f>H45*86400</f>
         <v>0.20454360227175514</v>
       </c>
-      <c r="J45" s="488"/>
-      <c r="K45" s="488"/>
-      <c r="L45" s="488"/>
-      <c r="M45" s="488"/>
-      <c r="N45" s="512"/>
-      <c r="AM45" s="491"/>
-      <c r="AN45" s="491"/>
-      <c r="AO45" s="491"/>
-      <c r="AP45" s="491"/>
-      <c r="AQ45" s="491"/>
-      <c r="AR45" s="491"/>
-      <c r="AS45" s="491"/>
-      <c r="AT45" s="491"/>
-      <c r="AU45" s="491"/>
-      <c r="AV45" s="491"/>
-      <c r="AW45" s="491"/>
-      <c r="AX45" s="491"/>
-      <c r="AY45" s="491"/>
-      <c r="AZ45" s="491"/>
-      <c r="BA45" s="491"/>
-      <c r="BB45" s="491"/>
-      <c r="BC45" s="491"/>
-      <c r="BD45" s="491"/>
-      <c r="BE45" s="491"/>
-      <c r="BF45" s="491"/>
-      <c r="BG45" s="491"/>
-      <c r="BH45" s="491"/>
-      <c r="BI45" s="491"/>
-      <c r="BJ45" s="491"/>
-      <c r="BK45" s="491"/>
-      <c r="BL45" s="491"/>
-      <c r="BM45" s="491"/>
-      <c r="BN45" s="491"/>
-      <c r="BO45" s="491"/>
-      <c r="BP45" s="491"/>
-      <c r="BQ45" s="491"/>
-      <c r="BR45" s="491"/>
+      <c r="N45" s="451"/>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A46" s="506" t="s">
+    <row r="46" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A46" s="445" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="86">
@@ -47173,57 +45564,20 @@
       <c r="E46" s="222">
         <v>-0.11017208412824342</v>
       </c>
-      <c r="F46" s="488"/>
-      <c r="G46" s="518" t="s">
+      <c r="G46" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="H46" s="524">
+      <c r="H46" s="456">
         <v>-3.6645109923664098E-6</v>
       </c>
-      <c r="I46" s="525">
+      <c r="I46" s="457">
         <f t="shared" ref="I46:I51" si="25">H46*86400</f>
         <v>-0.31661374974045781</v>
       </c>
-      <c r="J46" s="488"/>
-      <c r="K46" s="488"/>
-      <c r="L46" s="488"/>
-      <c r="M46" s="488"/>
-      <c r="N46" s="512"/>
-      <c r="AM46" s="491"/>
-      <c r="AN46" s="491"/>
-      <c r="AO46" s="491"/>
-      <c r="AP46" s="491"/>
-      <c r="AQ46" s="491"/>
-      <c r="AR46" s="491"/>
-      <c r="AS46" s="491"/>
-      <c r="AT46" s="491"/>
-      <c r="AU46" s="491"/>
-      <c r="AV46" s="491"/>
-      <c r="AW46" s="491"/>
-      <c r="AX46" s="491"/>
-      <c r="AY46" s="491"/>
-      <c r="AZ46" s="491"/>
-      <c r="BA46" s="491"/>
-      <c r="BB46" s="491"/>
-      <c r="BC46" s="491"/>
-      <c r="BD46" s="491"/>
-      <c r="BE46" s="491"/>
-      <c r="BF46" s="491"/>
-      <c r="BG46" s="491"/>
-      <c r="BH46" s="491"/>
-      <c r="BI46" s="491"/>
-      <c r="BJ46" s="491"/>
-      <c r="BK46" s="491"/>
-      <c r="BL46" s="491"/>
-      <c r="BM46" s="491"/>
-      <c r="BN46" s="491"/>
-      <c r="BO46" s="491"/>
-      <c r="BP46" s="491"/>
-      <c r="BQ46" s="491"/>
-      <c r="BR46" s="491"/>
+      <c r="N46" s="451"/>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A47" s="507" t="s">
+    <row r="47" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A47" s="446" t="s">
         <v>80</v>
       </c>
       <c r="B47" s="86">
@@ -47241,57 +45595,20 @@
       <c r="E47" s="87">
         <v>6.0405779541984679E-2</v>
       </c>
-      <c r="F47" s="488"/>
-      <c r="G47" s="518" t="s">
+      <c r="G47" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="H47" s="524">
+      <c r="H47" s="456">
         <v>-1.27513986259541E-6</v>
       </c>
-      <c r="I47" s="525">
+      <c r="I47" s="457">
         <f t="shared" si="25"/>
         <v>-0.11017208412824342</v>
       </c>
-      <c r="J47" s="488"/>
-      <c r="K47" s="488"/>
-      <c r="L47" s="488"/>
-      <c r="M47" s="488"/>
-      <c r="N47" s="512"/>
-      <c r="AM47" s="491"/>
-      <c r="AN47" s="491"/>
-      <c r="AO47" s="491"/>
-      <c r="AP47" s="491"/>
-      <c r="AQ47" s="491"/>
-      <c r="AR47" s="491"/>
-      <c r="AS47" s="491"/>
-      <c r="AT47" s="491"/>
-      <c r="AU47" s="491"/>
-      <c r="AV47" s="491"/>
-      <c r="AW47" s="491"/>
-      <c r="AX47" s="491"/>
-      <c r="AY47" s="491"/>
-      <c r="AZ47" s="491"/>
-      <c r="BA47" s="491"/>
-      <c r="BB47" s="491"/>
-      <c r="BC47" s="491"/>
-      <c r="BD47" s="491"/>
-      <c r="BE47" s="491"/>
-      <c r="BF47" s="491"/>
-      <c r="BG47" s="491"/>
-      <c r="BH47" s="491"/>
-      <c r="BI47" s="491"/>
-      <c r="BJ47" s="491"/>
-      <c r="BK47" s="491"/>
-      <c r="BL47" s="491"/>
-      <c r="BM47" s="491"/>
-      <c r="BN47" s="491"/>
-      <c r="BO47" s="491"/>
-      <c r="BP47" s="491"/>
-      <c r="BQ47" s="491"/>
-      <c r="BR47" s="491"/>
+      <c r="N47" s="451"/>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A48" s="507" t="s">
+    <row r="48" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A48" s="446" t="s">
         <v>81</v>
       </c>
       <c r="B48" s="86">
@@ -47309,57 +45626,20 @@
       <c r="E48" s="87">
         <v>6.0405779541984679E-2</v>
       </c>
-      <c r="F48" s="488"/>
-      <c r="G48" s="518" t="s">
+      <c r="G48" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="H48" s="524">
+      <c r="H48" s="456">
         <v>6.9914096692111896E-7</v>
       </c>
-      <c r="I48" s="525">
+      <c r="I48" s="457">
         <f t="shared" si="25"/>
         <v>6.0405779541984679E-2</v>
       </c>
-      <c r="J48" s="488"/>
-      <c r="K48" s="488"/>
-      <c r="L48" s="488"/>
-      <c r="M48" s="488"/>
-      <c r="N48" s="512"/>
-      <c r="AM48" s="491"/>
-      <c r="AN48" s="491"/>
-      <c r="AO48" s="491"/>
-      <c r="AP48" s="491"/>
-      <c r="AQ48" s="491"/>
-      <c r="AR48" s="491"/>
-      <c r="AS48" s="491"/>
-      <c r="AT48" s="491"/>
-      <c r="AU48" s="491"/>
-      <c r="AV48" s="491"/>
-      <c r="AW48" s="491"/>
-      <c r="AX48" s="491"/>
-      <c r="AY48" s="491"/>
-      <c r="AZ48" s="491"/>
-      <c r="BA48" s="491"/>
-      <c r="BB48" s="491"/>
-      <c r="BC48" s="491"/>
-      <c r="BD48" s="491"/>
-      <c r="BE48" s="491"/>
-      <c r="BF48" s="491"/>
-      <c r="BG48" s="491"/>
-      <c r="BH48" s="491"/>
-      <c r="BI48" s="491"/>
-      <c r="BJ48" s="491"/>
-      <c r="BK48" s="491"/>
-      <c r="BL48" s="491"/>
-      <c r="BM48" s="491"/>
-      <c r="BN48" s="491"/>
-      <c r="BO48" s="491"/>
-      <c r="BP48" s="491"/>
-      <c r="BQ48" s="491"/>
-      <c r="BR48" s="491"/>
+      <c r="N48" s="451"/>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A49" s="508" t="s">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A49" s="447" t="s">
         <v>82</v>
       </c>
       <c r="B49" s="86">
@@ -47377,57 +45657,20 @@
       <c r="E49" s="225">
         <v>-3.4732918409770948E-2</v>
       </c>
-      <c r="F49" s="488"/>
-      <c r="G49" s="518" t="s">
+      <c r="G49" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="H49" s="524">
+      <c r="H49" s="456">
         <v>-4.0200137048346001E-7</v>
       </c>
-      <c r="I49" s="525">
+      <c r="I49" s="457">
         <f t="shared" si="25"/>
         <v>-3.4732918409770948E-2</v>
       </c>
-      <c r="J49" s="488"/>
-      <c r="K49" s="488"/>
-      <c r="L49" s="488"/>
-      <c r="M49" s="488"/>
-      <c r="N49" s="512"/>
-      <c r="AM49" s="491"/>
-      <c r="AN49" s="491"/>
-      <c r="AO49" s="491"/>
-      <c r="AP49" s="491"/>
-      <c r="AQ49" s="491"/>
-      <c r="AR49" s="491"/>
-      <c r="AS49" s="491"/>
-      <c r="AT49" s="491"/>
-      <c r="AU49" s="491"/>
-      <c r="AV49" s="491"/>
-      <c r="AW49" s="491"/>
-      <c r="AX49" s="491"/>
-      <c r="AY49" s="491"/>
-      <c r="AZ49" s="491"/>
-      <c r="BA49" s="491"/>
-      <c r="BB49" s="491"/>
-      <c r="BC49" s="491"/>
-      <c r="BD49" s="491"/>
-      <c r="BE49" s="491"/>
-      <c r="BF49" s="491"/>
-      <c r="BG49" s="491"/>
-      <c r="BH49" s="491"/>
-      <c r="BI49" s="491"/>
-      <c r="BJ49" s="491"/>
-      <c r="BK49" s="491"/>
-      <c r="BL49" s="491"/>
-      <c r="BM49" s="491"/>
-      <c r="BN49" s="491"/>
-      <c r="BO49" s="491"/>
-      <c r="BP49" s="491"/>
-      <c r="BQ49" s="491"/>
-      <c r="BR49" s="491"/>
+      <c r="N49" s="451"/>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A50" s="508" t="s">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A50" s="447" t="s">
         <v>83</v>
       </c>
       <c r="B50" s="86">
@@ -47445,57 +45688,36 @@
       <c r="E50" s="225">
         <v>-3.4732918409770948E-2</v>
       </c>
-      <c r="F50" s="488"/>
-      <c r="G50" s="518" t="s">
+      <c r="G50" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="H50" s="524">
+      <c r="H50" s="456">
         <v>-1.93824267684478E-6</v>
       </c>
-      <c r="I50" s="525">
+      <c r="I50" s="457">
         <f t="shared" si="25"/>
         <v>-0.16746416727938898</v>
       </c>
-      <c r="J50" s="488"/>
-      <c r="K50" s="488"/>
-      <c r="L50" s="488"/>
-      <c r="M50" s="488"/>
-      <c r="N50" s="512"/>
-      <c r="AM50" s="495"/>
-      <c r="AN50" s="495"/>
-      <c r="AO50" s="495"/>
-      <c r="AP50" s="495"/>
-      <c r="AQ50" s="491"/>
-      <c r="AR50" s="491"/>
-      <c r="AS50" s="491"/>
-      <c r="AT50" s="495"/>
-      <c r="AU50" s="495"/>
-      <c r="AV50" s="495"/>
-      <c r="AW50" s="495"/>
-      <c r="AX50" s="495"/>
-      <c r="AY50" s="495"/>
-      <c r="AZ50" s="491"/>
-      <c r="BA50" s="491"/>
-      <c r="BB50" s="491"/>
-      <c r="BC50" s="495"/>
-      <c r="BD50" s="495"/>
-      <c r="BE50" s="495"/>
-      <c r="BF50" s="495"/>
-      <c r="BG50" s="495"/>
-      <c r="BH50" s="495"/>
-      <c r="BI50" s="491"/>
-      <c r="BJ50" s="491"/>
-      <c r="BK50" s="491"/>
-      <c r="BL50" s="491"/>
-      <c r="BM50" s="491"/>
-      <c r="BN50" s="491"/>
-      <c r="BO50" s="491"/>
-      <c r="BP50" s="491"/>
-      <c r="BQ50" s="491"/>
-      <c r="BR50" s="491"/>
+      <c r="N50" s="451"/>
+      <c r="AM50" s="435"/>
+      <c r="AN50" s="435"/>
+      <c r="AO50" s="435"/>
+      <c r="AP50" s="435"/>
+      <c r="AT50" s="435"/>
+      <c r="AU50" s="435"/>
+      <c r="AV50" s="435"/>
+      <c r="AW50" s="435"/>
+      <c r="AX50" s="435"/>
+      <c r="AY50" s="435"/>
+      <c r="BC50" s="435"/>
+      <c r="BD50" s="435"/>
+      <c r="BE50" s="435"/>
+      <c r="BF50" s="435"/>
+      <c r="BG50" s="435"/>
+      <c r="BH50" s="435"/>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A51" s="509" t="s">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A51" s="448" t="s">
         <v>84</v>
       </c>
       <c r="B51" s="86">
@@ -47513,57 +45735,20 @@
       <c r="E51" s="220">
         <v>-0.16746416727938898</v>
       </c>
-      <c r="F51" s="488"/>
-      <c r="G51" s="518" t="s">
+      <c r="G51" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="H51" s="524">
+      <c r="H51" s="456">
         <v>-3.8632371653943999E-7</v>
       </c>
-      <c r="I51" s="525">
+      <c r="I51" s="457">
         <f t="shared" si="25"/>
         <v>-3.3378369109007613E-2</v>
       </c>
-      <c r="J51" s="488"/>
-      <c r="K51" s="488"/>
-      <c r="L51" s="488"/>
-      <c r="M51" s="488"/>
-      <c r="N51" s="512"/>
-      <c r="AM51" s="491"/>
-      <c r="AN51" s="491"/>
-      <c r="AO51" s="491"/>
-      <c r="AP51" s="491"/>
-      <c r="AQ51" s="491"/>
-      <c r="AR51" s="491"/>
-      <c r="AS51" s="491"/>
-      <c r="AT51" s="491"/>
-      <c r="AU51" s="491"/>
-      <c r="AV51" s="491"/>
-      <c r="AW51" s="491"/>
-      <c r="AX51" s="491"/>
-      <c r="AY51" s="491"/>
-      <c r="AZ51" s="491"/>
-      <c r="BA51" s="491"/>
-      <c r="BB51" s="491"/>
-      <c r="BC51" s="491"/>
-      <c r="BD51" s="491"/>
-      <c r="BE51" s="491"/>
-      <c r="BF51" s="491"/>
-      <c r="BG51" s="491"/>
-      <c r="BH51" s="491"/>
-      <c r="BI51" s="491"/>
-      <c r="BJ51" s="491"/>
-      <c r="BK51" s="491"/>
-      <c r="BL51" s="491"/>
-      <c r="BM51" s="491"/>
-      <c r="BN51" s="491"/>
-      <c r="BO51" s="491"/>
-      <c r="BP51" s="491"/>
-      <c r="BQ51" s="491"/>
-      <c r="BR51" s="491"/>
+      <c r="N51" s="451"/>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A52" s="509" t="s">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A52" s="448" t="s">
         <v>85</v>
       </c>
       <c r="B52" s="86">
@@ -47581,50 +45766,13 @@
       <c r="E52" s="220">
         <v>-0.16746416727938898</v>
       </c>
-      <c r="F52" s="488"/>
-      <c r="G52" s="518"/>
-      <c r="H52" s="523"/>
-      <c r="I52" s="517"/>
-      <c r="J52" s="488"/>
-      <c r="K52" s="488"/>
-      <c r="L52" s="488"/>
-      <c r="M52" s="488"/>
-      <c r="N52" s="512"/>
-      <c r="AM52" s="491"/>
-      <c r="AN52" s="491"/>
-      <c r="AO52" s="491"/>
-      <c r="AP52" s="491"/>
-      <c r="AQ52" s="491"/>
-      <c r="AR52" s="491"/>
-      <c r="AS52" s="491"/>
-      <c r="AT52" s="491"/>
-      <c r="AU52" s="491"/>
-      <c r="AV52" s="491"/>
-      <c r="AW52" s="491"/>
-      <c r="AX52" s="491"/>
-      <c r="AY52" s="491"/>
-      <c r="AZ52" s="491"/>
-      <c r="BA52" s="491"/>
-      <c r="BB52" s="491"/>
-      <c r="BC52" s="491"/>
-      <c r="BD52" s="491"/>
-      <c r="BE52" s="491"/>
-      <c r="BF52" s="491"/>
-      <c r="BG52" s="491"/>
-      <c r="BH52" s="491"/>
-      <c r="BI52" s="491"/>
-      <c r="BJ52" s="491"/>
-      <c r="BK52" s="491"/>
-      <c r="BL52" s="491"/>
-      <c r="BM52" s="491"/>
-      <c r="BN52" s="491"/>
-      <c r="BO52" s="491"/>
-      <c r="BP52" s="491"/>
-      <c r="BQ52" s="491"/>
-      <c r="BR52" s="491"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="433"/>
+      <c r="I52" s="437"/>
+      <c r="N52" s="451"/>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A53" s="510" t="s">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A53" s="449" t="s">
         <v>86</v>
       </c>
       <c r="B53" s="86">
@@ -47642,169 +45790,76 @@
       <c r="E53" s="227">
         <v>-3.3378369109007613E-2</v>
       </c>
-      <c r="F53" s="488"/>
-      <c r="G53" s="518" t="s">
+      <c r="G53" s="83" t="s">
         <v>114</v>
       </c>
-      <c r="H53" s="523" t="s">
+      <c r="H53" s="433" t="s">
         <v>117</v>
       </c>
-      <c r="I53" s="523" t="s">
+      <c r="I53" s="433" t="s">
         <v>118</v>
       </c>
-      <c r="J53" s="488"/>
-      <c r="K53" s="488"/>
-      <c r="L53" s="488"/>
-      <c r="M53" s="488"/>
-      <c r="N53" s="512"/>
-      <c r="AM53" s="491"/>
-      <c r="AN53" s="491"/>
-      <c r="AO53" s="491"/>
-      <c r="AP53" s="491"/>
-      <c r="AQ53" s="491"/>
-      <c r="AR53" s="491"/>
-      <c r="AS53" s="491"/>
-      <c r="AT53" s="491"/>
-      <c r="AU53" s="491"/>
-      <c r="AV53" s="491"/>
-      <c r="AW53" s="491"/>
-      <c r="AX53" s="491"/>
-      <c r="AY53" s="491"/>
-      <c r="AZ53" s="491"/>
-      <c r="BA53" s="491"/>
-      <c r="BB53" s="491"/>
-      <c r="BC53" s="491"/>
-      <c r="BD53" s="491"/>
-      <c r="BE53" s="491"/>
-      <c r="BF53" s="491"/>
-      <c r="BG53" s="491"/>
-      <c r="BH53" s="491"/>
-      <c r="BI53" s="491"/>
-      <c r="BJ53" s="491"/>
-      <c r="BK53" s="491"/>
-      <c r="BL53" s="491"/>
-      <c r="BM53" s="491"/>
-      <c r="BN53" s="491"/>
-      <c r="BO53" s="491"/>
-      <c r="BP53" s="491"/>
-      <c r="BQ53" s="491"/>
-      <c r="BR53" s="491"/>
+      <c r="N53" s="451"/>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A54" s="511"/>
-      <c r="B54" s="488"/>
-      <c r="C54" s="488"/>
-      <c r="D54" s="488"/>
-      <c r="E54" s="488"/>
-      <c r="F54" s="488"/>
-      <c r="G54" s="518" t="s">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A54" s="450"/>
+      <c r="G54" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="H54" s="523" t="s">
+      <c r="H54" s="433" t="s">
         <v>116</v>
       </c>
-      <c r="I54" s="523" t="s">
+      <c r="I54" s="433" t="s">
         <v>116</v>
       </c>
-      <c r="J54" s="488"/>
-      <c r="K54" s="488"/>
-      <c r="L54" s="488"/>
-      <c r="M54" s="488"/>
-      <c r="N54" s="512"/>
-      <c r="AM54" s="491"/>
-      <c r="AN54" s="491"/>
-      <c r="AO54" s="491"/>
-      <c r="AP54" s="491"/>
-      <c r="AQ54" s="491"/>
-      <c r="AR54" s="491"/>
-      <c r="AS54" s="491"/>
-      <c r="AT54" s="491"/>
-      <c r="AU54" s="491"/>
-      <c r="AV54" s="491"/>
-      <c r="AW54" s="491"/>
-      <c r="AX54" s="491"/>
-      <c r="AY54" s="491"/>
-      <c r="AZ54" s="491"/>
-      <c r="BA54" s="491"/>
-      <c r="BB54" s="491"/>
-      <c r="BC54" s="491"/>
-      <c r="BD54" s="491"/>
-      <c r="BE54" s="491"/>
-      <c r="BF54" s="491"/>
-      <c r="BG54" s="491"/>
-      <c r="BH54" s="491"/>
-      <c r="BI54" s="491"/>
-      <c r="BJ54" s="491"/>
-      <c r="BK54" s="491"/>
-      <c r="BL54" s="491"/>
-      <c r="BM54" s="491"/>
-      <c r="BN54" s="491"/>
-      <c r="BO54" s="491"/>
-      <c r="BP54" s="491"/>
-      <c r="BQ54" s="491"/>
-      <c r="BR54" s="491"/>
+      <c r="N54" s="451"/>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A55" s="511" t="s">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A55" s="450" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="488" t="s">
+      <c r="B55" t="s">
         <v>124</v>
       </c>
-      <c r="C55" s="488"/>
-      <c r="D55" s="488"/>
-      <c r="E55" s="488"/>
-      <c r="F55" s="488"/>
-      <c r="G55" s="518" t="s">
+      <c r="G55" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="H55" s="524">
+      <c r="H55" s="456">
         <v>-2.9683311946372999E-6</v>
       </c>
-      <c r="I55" s="525">
+      <c r="I55" s="457">
         <f t="shared" ref="I55:I61" si="26">H55*86400</f>
         <v>-0.25646381521666273</v>
       </c>
-      <c r="J55" s="488"/>
-      <c r="K55" s="488"/>
-      <c r="L55" s="488"/>
-      <c r="M55" s="488"/>
-      <c r="N55" s="512"/>
-      <c r="AM55" s="495"/>
-      <c r="AN55" s="495"/>
-      <c r="AO55" s="495"/>
-      <c r="AP55" s="495"/>
-      <c r="AQ55" s="495"/>
-      <c r="AR55" s="495"/>
-      <c r="AS55" s="495"/>
-      <c r="AT55" s="495"/>
-      <c r="AU55" s="495"/>
-      <c r="AV55" s="495"/>
-      <c r="AW55" s="495"/>
-      <c r="AX55" s="495"/>
-      <c r="AY55" s="495"/>
-      <c r="AZ55" s="495"/>
-      <c r="BA55" s="495"/>
-      <c r="BB55" s="495"/>
-      <c r="BC55" s="495"/>
-      <c r="BD55" s="495"/>
-      <c r="BE55" s="495"/>
-      <c r="BF55" s="495"/>
-      <c r="BG55" s="495"/>
-      <c r="BH55" s="495"/>
-      <c r="BI55" s="495"/>
-      <c r="BJ55" s="495"/>
-      <c r="BK55" s="495"/>
-      <c r="BL55" s="491"/>
-      <c r="BM55" s="491"/>
-      <c r="BN55" s="491"/>
-      <c r="BO55" s="491"/>
-      <c r="BP55" s="491"/>
-      <c r="BQ55" s="491"/>
-      <c r="BR55" s="491"/>
+      <c r="N55" s="451"/>
+      <c r="AM55" s="435"/>
+      <c r="AN55" s="435"/>
+      <c r="AO55" s="435"/>
+      <c r="AP55" s="435"/>
+      <c r="AQ55" s="435"/>
+      <c r="AR55" s="435"/>
+      <c r="AS55" s="435"/>
+      <c r="AT55" s="435"/>
+      <c r="AU55" s="435"/>
+      <c r="AV55" s="435"/>
+      <c r="AW55" s="435"/>
+      <c r="AX55" s="435"/>
+      <c r="AY55" s="435"/>
+      <c r="AZ55" s="435"/>
+      <c r="BA55" s="435"/>
+      <c r="BB55" s="435"/>
+      <c r="BC55" s="435"/>
+      <c r="BD55" s="435"/>
+      <c r="BE55" s="435"/>
+      <c r="BF55" s="435"/>
+      <c r="BG55" s="435"/>
+      <c r="BH55" s="435"/>
+      <c r="BI55" s="435"/>
+      <c r="BJ55" s="435"/>
+      <c r="BK55" s="435"/>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A56" s="502" t="s">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A56" s="441" t="s">
         <v>73</v>
       </c>
       <c r="B56" s="215" t="s">
@@ -47819,57 +45874,20 @@
       <c r="E56" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="488"/>
-      <c r="G56" s="518" t="s">
+      <c r="G56" s="83" t="s">
         <v>107</v>
       </c>
-      <c r="H56" s="524">
+      <c r="H56" s="456">
         <v>-3.7787547681749199E-6</v>
       </c>
-      <c r="I56" s="525">
+      <c r="I56" s="457">
         <f t="shared" si="26"/>
         <v>-0.32648441197031308</v>
       </c>
-      <c r="J56" s="488"/>
-      <c r="K56" s="488"/>
-      <c r="L56" s="488"/>
-      <c r="M56" s="488"/>
-      <c r="N56" s="512"/>
-      <c r="AM56" s="491"/>
-      <c r="AN56" s="491"/>
-      <c r="AO56" s="491"/>
-      <c r="AP56" s="491"/>
-      <c r="AQ56" s="491"/>
-      <c r="AR56" s="491"/>
-      <c r="AS56" s="491"/>
-      <c r="AT56" s="491"/>
-      <c r="AU56" s="491"/>
-      <c r="AV56" s="491"/>
-      <c r="AW56" s="491"/>
-      <c r="AX56" s="491"/>
-      <c r="AY56" s="491"/>
-      <c r="AZ56" s="491"/>
-      <c r="BA56" s="491"/>
-      <c r="BB56" s="491"/>
-      <c r="BC56" s="491"/>
-      <c r="BD56" s="491"/>
-      <c r="BE56" s="491"/>
-      <c r="BF56" s="491"/>
-      <c r="BG56" s="491"/>
-      <c r="BH56" s="491"/>
-      <c r="BI56" s="491"/>
-      <c r="BJ56" s="491"/>
-      <c r="BK56" s="491"/>
-      <c r="BL56" s="491"/>
-      <c r="BM56" s="491"/>
-      <c r="BN56" s="491"/>
-      <c r="BO56" s="491"/>
-      <c r="BP56" s="491"/>
-      <c r="BQ56" s="491"/>
-      <c r="BR56" s="491"/>
+      <c r="N56" s="451"/>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A57" s="504" t="s">
+    <row r="57" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A57" s="443" t="s">
         <v>76</v>
       </c>
       <c r="B57" s="86">
@@ -47887,68 +45905,24 @@
       <c r="E57" s="86">
         <v>-0.25646381521666273</v>
       </c>
-      <c r="F57" s="488"/>
-      <c r="G57" s="518" t="s">
+      <c r="G57" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="H57" s="524">
+      <c r="H57" s="456">
         <v>-3.46758151783576E-6</v>
       </c>
-      <c r="I57" s="525">
+      <c r="I57" s="457">
         <f t="shared" si="26"/>
         <v>-0.29959904314100966</v>
       </c>
-      <c r="J57" s="488"/>
-      <c r="K57" s="488"/>
-      <c r="L57" s="488"/>
-      <c r="M57" s="488"/>
-      <c r="N57" s="512"/>
-      <c r="AB57" s="491"/>
-      <c r="AC57" s="491"/>
-      <c r="AD57" s="491"/>
-      <c r="AE57" s="491"/>
-      <c r="AF57" s="497"/>
-      <c r="AG57" s="491"/>
-      <c r="AH57" s="491"/>
-      <c r="AI57" s="491"/>
-      <c r="AJ57" s="491"/>
-      <c r="AK57" s="491"/>
-      <c r="AL57" s="491"/>
-      <c r="AM57" s="491"/>
-      <c r="AN57" s="491"/>
-      <c r="AO57" s="497"/>
-      <c r="AP57" s="491"/>
-      <c r="AQ57" s="491"/>
-      <c r="AR57" s="491"/>
-      <c r="AS57" s="491"/>
-      <c r="AT57" s="491"/>
-      <c r="AU57" s="491"/>
-      <c r="AV57" s="491"/>
-      <c r="AW57" s="491"/>
-      <c r="AX57" s="497"/>
-      <c r="AY57" s="491"/>
-      <c r="AZ57" s="491"/>
-      <c r="BA57" s="491"/>
-      <c r="BB57" s="491"/>
-      <c r="BC57" s="491"/>
-      <c r="BD57" s="491"/>
-      <c r="BE57" s="491"/>
-      <c r="BF57" s="491"/>
-      <c r="BG57" s="497"/>
-      <c r="BH57" s="491"/>
-      <c r="BI57" s="491"/>
-      <c r="BJ57" s="491"/>
-      <c r="BK57" s="491"/>
-      <c r="BL57" s="491"/>
-      <c r="BM57" s="491"/>
-      <c r="BN57" s="491"/>
-      <c r="BO57" s="491"/>
-      <c r="BP57" s="491"/>
-      <c r="BQ57" s="491"/>
-      <c r="BR57" s="491"/>
+      <c r="N57" s="451"/>
+      <c r="AF57" s="437"/>
+      <c r="AO57" s="437"/>
+      <c r="AX57" s="437"/>
+      <c r="BG57" s="437"/>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A58" s="504" t="s">
+    <row r="58" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A58" s="443" t="s">
         <v>77</v>
       </c>
       <c r="B58" s="86">
@@ -47966,22 +45940,17 @@
       <c r="E58" s="86">
         <v>-0.25646381521666273</v>
       </c>
-      <c r="F58" s="488"/>
-      <c r="G58" s="518" t="s">
+      <c r="G58" s="83" t="s">
         <v>109</v>
       </c>
-      <c r="H58" s="524">
+      <c r="H58" s="456">
         <v>1.0286098475780001E-6</v>
       </c>
-      <c r="I58" s="525">
+      <c r="I58" s="457">
         <f t="shared" si="26"/>
         <v>8.8871890830739209E-2</v>
       </c>
-      <c r="J58" s="488"/>
-      <c r="K58" s="488"/>
-      <c r="L58" s="488"/>
-      <c r="M58" s="488"/>
-      <c r="N58" s="512"/>
+      <c r="N58" s="451"/>
       <c r="W58" s="215" t="s">
         <v>75</v>
       </c>
@@ -47994,55 +45963,12 @@
       <c r="Z58" s="215" t="s">
         <v>75</v>
       </c>
-      <c r="AA58" s="498" t="s">
+      <c r="AA58" s="438" t="s">
         <v>27</v>
       </c>
-      <c r="AB58" s="491"/>
-      <c r="AC58" s="491"/>
-      <c r="AD58" s="491"/>
-      <c r="AE58" s="491"/>
-      <c r="AF58" s="491"/>
-      <c r="AG58" s="491"/>
-      <c r="AH58" s="491"/>
-      <c r="AI58" s="491"/>
-      <c r="AJ58" s="491"/>
-      <c r="AK58" s="491"/>
-      <c r="AL58" s="491"/>
-      <c r="AM58" s="491"/>
-      <c r="AN58" s="491"/>
-      <c r="AO58" s="491"/>
-      <c r="AP58" s="491"/>
-      <c r="AQ58" s="491"/>
-      <c r="AR58" s="491"/>
-      <c r="AS58" s="491"/>
-      <c r="AT58" s="491"/>
-      <c r="AU58" s="491"/>
-      <c r="AV58" s="491"/>
-      <c r="AW58" s="491"/>
-      <c r="AX58" s="491"/>
-      <c r="AY58" s="491"/>
-      <c r="AZ58" s="491"/>
-      <c r="BA58" s="491"/>
-      <c r="BB58" s="491"/>
-      <c r="BC58" s="491"/>
-      <c r="BD58" s="491"/>
-      <c r="BE58" s="491"/>
-      <c r="BF58" s="491"/>
-      <c r="BG58" s="491"/>
-      <c r="BH58" s="491"/>
-      <c r="BI58" s="491"/>
-      <c r="BJ58" s="491"/>
-      <c r="BK58" s="491"/>
-      <c r="BL58" s="491"/>
-      <c r="BM58" s="491"/>
-      <c r="BN58" s="491"/>
-      <c r="BO58" s="491"/>
-      <c r="BP58" s="491"/>
-      <c r="BQ58" s="491"/>
-      <c r="BR58" s="491"/>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A59" s="505" t="s">
+    <row r="59" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A59" s="444" t="s">
         <v>78</v>
       </c>
       <c r="B59" s="86">
@@ -48060,22 +45986,17 @@
       <c r="E59" s="405">
         <v>-0.32648441197031308</v>
       </c>
-      <c r="F59" s="488"/>
-      <c r="G59" s="518" t="s">
+      <c r="G59" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="H59" s="524">
+      <c r="H59" s="456">
         <v>-6.7133282259995204E-7</v>
       </c>
-      <c r="I59" s="525">
+      <c r="I59" s="457">
         <f t="shared" si="26"/>
         <v>-5.8003155872635853E-2</v>
       </c>
-      <c r="J59" s="488"/>
-      <c r="K59" s="488"/>
-      <c r="L59" s="488"/>
-      <c r="M59" s="488"/>
-      <c r="N59" s="512"/>
+      <c r="N59" s="451"/>
       <c r="W59" s="408">
         <v>0.23956872370266469</v>
       </c>
@@ -48092,8 +46013,8 @@
         <v>-0.25646381521666273</v>
       </c>
     </row>
-    <row r="60" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A60" s="507" t="s">
+    <row r="60" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A60" s="446" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="86">
@@ -48111,22 +46032,17 @@
       <c r="E60" s="87">
         <v>8.8871890830739209E-2</v>
       </c>
-      <c r="F60" s="488"/>
-      <c r="G60" s="518" t="s">
+      <c r="G60" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="H60" s="524">
+      <c r="H60" s="456">
         <v>-1.43284194397893E-6</v>
       </c>
-      <c r="I60" s="525">
+      <c r="I60" s="457">
         <f t="shared" si="26"/>
         <v>-0.12379754395977956</v>
       </c>
-      <c r="J60" s="488"/>
-      <c r="K60" s="488"/>
-      <c r="L60" s="488"/>
-      <c r="M60" s="488"/>
-      <c r="N60" s="512"/>
+      <c r="N60" s="451"/>
       <c r="W60" s="408">
         <v>-0.50792663727959697</v>
       </c>
@@ -48143,8 +46059,8 @@
         <v>8.8871890830739209E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A61" s="507" t="s">
+    <row r="61" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A61" s="446" t="s">
         <v>81</v>
       </c>
       <c r="B61" s="86">
@@ -48162,22 +46078,17 @@
       <c r="E61" s="87">
         <v>8.8871890830739209E-2</v>
       </c>
-      <c r="F61" s="488"/>
-      <c r="G61" s="518" t="s">
+      <c r="G61" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="H61" s="524">
+      <c r="H61" s="456">
         <v>-6.0717749261830596E-7</v>
       </c>
-      <c r="I61" s="525">
+      <c r="I61" s="457">
         <f t="shared" si="26"/>
         <v>-5.2460135362221633E-2</v>
       </c>
-      <c r="J61" s="488"/>
-      <c r="K61" s="488"/>
-      <c r="L61" s="488"/>
-      <c r="M61" s="488"/>
-      <c r="N61" s="512"/>
+      <c r="N61" s="451"/>
       <c r="W61" s="408">
         <v>-0.65919936583432415</v>
       </c>
@@ -48194,8 +46105,8 @@
         <v>-5.8003155872635853E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A62" s="508" t="s">
+    <row r="62" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A62" s="447" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="86">
@@ -48213,15 +46124,9 @@
       <c r="E62" s="225">
         <v>-5.8003155872635853E-2</v>
       </c>
-      <c r="F62" s="491"/>
-      <c r="G62" s="488"/>
-      <c r="H62" s="487"/>
-      <c r="I62" s="487"/>
-      <c r="J62" s="488"/>
-      <c r="K62" s="488"/>
-      <c r="L62" s="488"/>
-      <c r="M62" s="488"/>
-      <c r="N62" s="512"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="N62" s="451"/>
       <c r="W62" s="408">
         <v>-0.63842268578288142</v>
       </c>
@@ -48238,8 +46143,8 @@
         <v>-0.12379754395977956</v>
       </c>
     </row>
-    <row r="63" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A63" s="509" t="s">
+    <row r="63" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A63" s="448" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="86">
@@ -48257,15 +46162,9 @@
       <c r="E63" s="220">
         <v>-0.12379754395977956</v>
       </c>
-      <c r="F63" s="497"/>
-      <c r="G63" s="488"/>
-      <c r="H63" s="488"/>
-      <c r="I63" s="488"/>
-      <c r="J63" s="517"/>
-      <c r="K63" s="488"/>
-      <c r="L63" s="488"/>
-      <c r="M63" s="488"/>
-      <c r="N63" s="512"/>
+      <c r="F63" s="437"/>
+      <c r="J63" s="437"/>
+      <c r="N63" s="451"/>
       <c r="W63" s="408">
         <v>0.13633877646691175</v>
       </c>
@@ -48281,23 +46180,9 @@
       <c r="AA63" s="227">
         <v>-5.2460135362221633E-2</v>
       </c>
-      <c r="AF63" s="491"/>
-      <c r="AG63" s="491"/>
-      <c r="AH63" s="491"/>
-      <c r="AI63" s="491"/>
-      <c r="AJ63" s="491"/>
-      <c r="AK63" s="491"/>
-      <c r="AL63" s="491"/>
-      <c r="AM63" s="491"/>
-      <c r="AN63" s="491"/>
-      <c r="AO63" s="491"/>
-      <c r="AP63" s="491"/>
-      <c r="AQ63" s="491"/>
-      <c r="AR63" s="491"/>
-      <c r="AS63" s="491"/>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A64" s="509" t="s">
+    <row r="64" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A64" s="448" t="s">
         <v>85</v>
       </c>
       <c r="B64" s="86">
@@ -48315,32 +46200,10 @@
       <c r="E64" s="220">
         <v>-0.12379754395977956</v>
       </c>
-      <c r="F64" s="491"/>
-      <c r="G64" s="488"/>
-      <c r="H64" s="488"/>
-      <c r="I64" s="488"/>
-      <c r="J64" s="488"/>
-      <c r="K64" s="488"/>
-      <c r="L64" s="488"/>
-      <c r="M64" s="488"/>
-      <c r="N64" s="512"/>
-      <c r="AF64" s="491"/>
-      <c r="AG64" s="491"/>
-      <c r="AH64" s="491"/>
-      <c r="AI64" s="491"/>
-      <c r="AJ64" s="491"/>
-      <c r="AK64" s="491"/>
-      <c r="AL64" s="491"/>
-      <c r="AM64" s="491"/>
-      <c r="AN64" s="491"/>
-      <c r="AO64" s="491"/>
-      <c r="AP64" s="491"/>
-      <c r="AQ64" s="491"/>
-      <c r="AR64" s="491"/>
-      <c r="AS64" s="491"/>
+      <c r="N64" s="451"/>
     </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A65" s="510" t="s">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A65" s="449" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="86">
@@ -48358,20 +46221,12 @@
       <c r="E65" s="227">
         <v>-5.2460135362221633E-2</v>
       </c>
-      <c r="F65" s="491"/>
-      <c r="G65" s="488"/>
-      <c r="H65" s="488"/>
-      <c r="I65" s="488"/>
-      <c r="J65" s="488"/>
-      <c r="K65" s="488"/>
-      <c r="L65" s="488"/>
-      <c r="M65" s="488"/>
-      <c r="N65" s="512"/>
-      <c r="W65" s="480" t="s">
+      <c r="N65" s="451"/>
+      <c r="W65" s="528" t="s">
         <v>139</v>
       </c>
-      <c r="X65" s="480"/>
-      <c r="Y65" s="480"/>
+      <c r="X65" s="528"/>
+      <c r="Y65" s="528"/>
       <c r="Z65" s="56"/>
       <c r="AA65" s="215" t="s">
         <v>131</v>
@@ -48379,28 +46234,14 @@
       <c r="AB65" s="215"/>
       <c r="AC65" s="56"/>
       <c r="AD65" s="56"/>
-      <c r="AF65" s="491"/>
-      <c r="AG65" s="491"/>
-      <c r="AH65" s="491"/>
-      <c r="AI65" s="491"/>
-      <c r="AJ65" s="491"/>
-      <c r="AK65" s="491"/>
-      <c r="AL65" s="491"/>
-      <c r="AM65" s="491"/>
-      <c r="AN65" s="491"/>
-      <c r="AO65" s="491"/>
-      <c r="AP65" s="491"/>
-      <c r="AQ65" s="491"/>
-      <c r="AR65" s="491"/>
-      <c r="AS65" s="491"/>
     </row>
-    <row r="66" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="526"/>
+    <row r="66" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="458"/>
       <c r="B66" s="420"/>
       <c r="C66" s="420"/>
       <c r="D66" s="420"/>
       <c r="E66" s="420"/>
-      <c r="F66" s="527"/>
+      <c r="F66" s="459"/>
       <c r="G66" s="420"/>
       <c r="H66" s="420"/>
       <c r="I66" s="420"/>
@@ -48408,7 +46249,7 @@
       <c r="K66" s="420"/>
       <c r="L66" s="420"/>
       <c r="M66" s="420"/>
-      <c r="N66" s="528"/>
+      <c r="N66" s="460"/>
       <c r="W66" s="215" t="s">
         <v>73</v>
       </c>
@@ -48434,23 +46275,9 @@
         <v>129</v>
       </c>
       <c r="AE66" s="410"/>
-      <c r="AF66" s="491"/>
-      <c r="AG66" s="491"/>
-      <c r="AH66" s="491"/>
-      <c r="AI66" s="491"/>
-      <c r="AJ66" s="491"/>
-      <c r="AK66" s="491"/>
-      <c r="AL66" s="491"/>
-      <c r="AM66" s="491"/>
-      <c r="AN66" s="491"/>
-      <c r="AO66" s="491"/>
-      <c r="AP66" s="491"/>
-      <c r="AQ66" s="491"/>
-      <c r="AR66" s="491"/>
-      <c r="AS66" s="491"/>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F67" s="519"/>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F67" s="454"/>
       <c r="W67" s="59" t="s">
         <v>106</v>
       </c>
@@ -48480,23 +46307,11 @@
         <v>0.20454360227175514</v>
       </c>
       <c r="AE67" s="404"/>
-      <c r="AF67" s="491"/>
-      <c r="AG67" s="494"/>
-      <c r="AH67" s="494"/>
-      <c r="AI67" s="491"/>
-      <c r="AJ67" s="491"/>
-      <c r="AK67" s="491"/>
-      <c r="AL67" s="491"/>
-      <c r="AM67" s="491"/>
-      <c r="AN67" s="491"/>
-      <c r="AO67" s="491"/>
-      <c r="AP67" s="491"/>
-      <c r="AQ67" s="491"/>
-      <c r="AR67" s="491"/>
-      <c r="AS67" s="491"/>
+      <c r="AG67" s="434"/>
+      <c r="AH67" s="434"/>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F68" s="519"/>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F68" s="454"/>
       <c r="W68" s="61" t="s">
         <v>107</v>
       </c>
@@ -48526,23 +46341,9 @@
         <v>-0.31661374974045781</v>
       </c>
       <c r="AE68" s="404"/>
-      <c r="AF68" s="491"/>
-      <c r="AG68" s="491"/>
-      <c r="AH68" s="491"/>
-      <c r="AI68" s="491"/>
-      <c r="AJ68" s="491"/>
-      <c r="AK68" s="491"/>
-      <c r="AL68" s="491"/>
-      <c r="AM68" s="491"/>
-      <c r="AN68" s="491"/>
-      <c r="AO68" s="491"/>
-      <c r="AP68" s="491"/>
-      <c r="AQ68" s="491"/>
-      <c r="AR68" s="491"/>
-      <c r="AS68" s="491"/>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F69" s="519"/>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F69" s="454"/>
       <c r="W69" s="63" t="s">
         <v>108</v>
       </c>
@@ -48572,23 +46373,9 @@
         <v>-0.11017208412824342</v>
       </c>
       <c r="AE69" s="404"/>
-      <c r="AF69" s="491"/>
-      <c r="AG69" s="491"/>
-      <c r="AH69" s="491"/>
-      <c r="AI69" s="491"/>
-      <c r="AJ69" s="491"/>
-      <c r="AK69" s="491"/>
-      <c r="AL69" s="491"/>
-      <c r="AM69" s="491"/>
-      <c r="AN69" s="491"/>
-      <c r="AO69" s="491"/>
-      <c r="AP69" s="491"/>
-      <c r="AQ69" s="491"/>
-      <c r="AR69" s="491"/>
-      <c r="AS69" s="491"/>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F70" s="519"/>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F70" s="454"/>
       <c r="W70" s="65" t="s">
         <v>109</v>
       </c>
@@ -48618,23 +46405,9 @@
         <v>6.0405779541984679E-2</v>
       </c>
       <c r="AE70" s="404"/>
-      <c r="AF70" s="491"/>
-      <c r="AG70" s="491"/>
-      <c r="AH70" s="491"/>
-      <c r="AI70" s="491"/>
-      <c r="AJ70" s="491"/>
-      <c r="AK70" s="491"/>
-      <c r="AL70" s="491"/>
-      <c r="AM70" s="491"/>
-      <c r="AN70" s="491"/>
-      <c r="AO70" s="491"/>
-      <c r="AP70" s="491"/>
-      <c r="AQ70" s="491"/>
-      <c r="AR70" s="491"/>
-      <c r="AS70" s="491"/>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F71" s="520"/>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F71" s="455"/>
       <c r="W71" s="67" t="s">
         <v>110</v>
       </c>
@@ -48664,23 +46437,9 @@
         <v>-3.4732918409770948E-2</v>
       </c>
       <c r="AE71" s="404"/>
-      <c r="AF71" s="491"/>
-      <c r="AG71" s="491"/>
-      <c r="AH71" s="491"/>
-      <c r="AI71" s="491"/>
-      <c r="AJ71" s="491"/>
-      <c r="AK71" s="491"/>
-      <c r="AL71" s="491"/>
-      <c r="AM71" s="491"/>
-      <c r="AN71" s="491"/>
-      <c r="AO71" s="491"/>
-      <c r="AP71" s="491"/>
-      <c r="AQ71" s="491"/>
-      <c r="AR71" s="491"/>
-      <c r="AS71" s="491"/>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F72" s="519"/>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F72" s="454"/>
       <c r="W72" s="69" t="s">
         <v>111</v>
       </c>
@@ -48710,23 +46469,9 @@
         <v>-0.16746416727938898</v>
       </c>
       <c r="AE72" s="404"/>
-      <c r="AF72" s="491"/>
-      <c r="AG72" s="491"/>
-      <c r="AH72" s="491"/>
-      <c r="AI72" s="491"/>
-      <c r="AJ72" s="491"/>
-      <c r="AK72" s="491"/>
-      <c r="AL72" s="491"/>
-      <c r="AM72" s="491"/>
-      <c r="AN72" s="491"/>
-      <c r="AO72" s="491"/>
-      <c r="AP72" s="491"/>
-      <c r="AQ72" s="491"/>
-      <c r="AR72" s="491"/>
-      <c r="AS72" s="491"/>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F73" s="519"/>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F73" s="454"/>
       <c r="W73" s="70" t="s">
         <v>112</v>
       </c>
@@ -48756,60 +46501,21 @@
         <v>-3.3378369109007613E-2</v>
       </c>
       <c r="AE73" s="404"/>
-      <c r="AF73" s="491"/>
-      <c r="AG73" s="491"/>
-      <c r="AH73" s="491"/>
-      <c r="AI73" s="491"/>
-      <c r="AJ73" s="491"/>
-      <c r="AK73" s="491"/>
-      <c r="AL73" s="491"/>
-      <c r="AM73" s="491"/>
-      <c r="AN73" s="491"/>
-      <c r="AO73" s="491"/>
-      <c r="AP73" s="491"/>
-      <c r="AQ73" s="491"/>
-      <c r="AR73" s="491"/>
-      <c r="AS73" s="491"/>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F74" s="519"/>
-      <c r="G74" s="491"/>
-      <c r="H74" s="491"/>
-      <c r="I74" s="491"/>
-      <c r="J74" s="491"/>
-      <c r="K74" s="491"/>
-      <c r="W74" s="480" t="s">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F74" s="454"/>
+      <c r="W74" s="528" t="s">
         <v>140</v>
       </c>
-      <c r="X74" s="480"/>
-      <c r="Y74" s="480"/>
+      <c r="X74" s="528"/>
+      <c r="Y74" s="528"/>
       <c r="Z74" s="56"/>
       <c r="AA74" s="56"/>
       <c r="AB74" s="56"/>
       <c r="AC74" s="56"/>
       <c r="AD74" s="56"/>
-      <c r="AF74" s="491"/>
-      <c r="AG74" s="491"/>
-      <c r="AH74" s="491"/>
-      <c r="AI74" s="491"/>
-      <c r="AJ74" s="491"/>
-      <c r="AK74" s="491"/>
-      <c r="AL74" s="491"/>
-      <c r="AM74" s="491"/>
-      <c r="AN74" s="491"/>
-      <c r="AO74" s="491"/>
-      <c r="AP74" s="491"/>
-      <c r="AQ74" s="491"/>
-      <c r="AR74" s="491"/>
-      <c r="AS74" s="491"/>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F75" s="491"/>
-      <c r="G75" s="491"/>
-      <c r="H75" s="491"/>
-      <c r="I75" s="491"/>
-      <c r="J75" s="491"/>
-      <c r="K75" s="491"/>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
       <c r="W75" s="215" t="s">
         <v>73</v>
       </c>
@@ -48834,28 +46540,14 @@
       <c r="AD75" s="215" t="s">
         <v>129</v>
       </c>
-      <c r="AF75" s="491"/>
-      <c r="AG75" s="495"/>
-      <c r="AH75" s="495"/>
-      <c r="AI75" s="495"/>
-      <c r="AJ75" s="495"/>
-      <c r="AK75" s="495"/>
-      <c r="AL75" s="495"/>
-      <c r="AM75" s="491"/>
-      <c r="AN75" s="491"/>
-      <c r="AO75" s="491"/>
-      <c r="AP75" s="491"/>
-      <c r="AQ75" s="491"/>
-      <c r="AR75" s="491"/>
-      <c r="AS75" s="491"/>
+      <c r="AG75" s="435"/>
+      <c r="AH75" s="435"/>
+      <c r="AI75" s="435"/>
+      <c r="AJ75" s="435"/>
+      <c r="AK75" s="435"/>
+      <c r="AL75" s="435"/>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F76" s="491"/>
-      <c r="G76" s="491"/>
-      <c r="H76" s="491"/>
-      <c r="I76" s="491"/>
-      <c r="J76" s="491"/>
-      <c r="K76" s="491"/>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
       <c r="W76" s="59" t="s">
         <v>106</v>
       </c>
@@ -48884,28 +46576,14 @@
       <c r="AD76" s="86">
         <v>-0.25646381521666273</v>
       </c>
-      <c r="AF76" s="491"/>
-      <c r="AG76" s="491"/>
-      <c r="AH76" s="491"/>
-      <c r="AI76" s="491"/>
-      <c r="AJ76" s="491"/>
-      <c r="AK76" s="491"/>
-      <c r="AL76" s="491"/>
-      <c r="AM76" s="491"/>
-      <c r="AN76" s="491"/>
-      <c r="AO76" s="491"/>
-      <c r="AP76" s="491"/>
-      <c r="AQ76" s="491"/>
-      <c r="AR76" s="491"/>
-      <c r="AS76" s="491"/>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F77" s="521"/>
-      <c r="G77" s="521"/>
-      <c r="H77" s="521"/>
-      <c r="I77" s="521"/>
-      <c r="J77" s="521"/>
-      <c r="K77" s="521"/>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="83"/>
       <c r="W77" s="61" t="s">
         <v>107</v>
       </c>
@@ -48934,28 +46612,10 @@
       <c r="AD77" s="405">
         <v>-0.32648441197031308</v>
       </c>
-      <c r="AF77" s="491"/>
-      <c r="AG77" s="491"/>
-      <c r="AH77" s="491"/>
-      <c r="AI77" s="491"/>
-      <c r="AJ77" s="491"/>
-      <c r="AK77" s="491"/>
-      <c r="AL77" s="491"/>
-      <c r="AM77" s="491"/>
-      <c r="AN77" s="491"/>
-      <c r="AO77" s="491"/>
-      <c r="AP77" s="491"/>
-      <c r="AQ77" s="491"/>
-      <c r="AR77" s="491"/>
-      <c r="AS77" s="491"/>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F78" s="520"/>
-      <c r="G78" s="521"/>
-      <c r="H78" s="491"/>
-      <c r="I78" s="491"/>
-      <c r="J78" s="491"/>
-      <c r="K78" s="491"/>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F78" s="455"/>
+      <c r="G78" s="83"/>
       <c r="W78" s="65" t="s">
         <v>109</v>
       </c>
@@ -48984,28 +46644,10 @@
       <c r="AD78" s="87">
         <v>8.8871890830739209E-2</v>
       </c>
-      <c r="AF78" s="491"/>
-      <c r="AG78" s="491"/>
-      <c r="AH78" s="491"/>
-      <c r="AI78" s="491"/>
-      <c r="AJ78" s="491"/>
-      <c r="AK78" s="491"/>
-      <c r="AL78" s="491"/>
-      <c r="AM78" s="491"/>
-      <c r="AN78" s="491"/>
-      <c r="AO78" s="491"/>
-      <c r="AP78" s="491"/>
-      <c r="AQ78" s="491"/>
-      <c r="AR78" s="491"/>
-      <c r="AS78" s="491"/>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F79" s="520"/>
-      <c r="G79" s="521"/>
-      <c r="H79" s="491"/>
-      <c r="I79" s="491"/>
-      <c r="J79" s="491"/>
-      <c r="K79" s="491"/>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F79" s="455"/>
+      <c r="G79" s="83"/>
       <c r="W79" s="67" t="s">
         <v>110</v>
       </c>
@@ -49034,28 +46676,10 @@
       <c r="AD79" s="225">
         <v>-5.8003155872635853E-2</v>
       </c>
-      <c r="AF79" s="491"/>
-      <c r="AG79" s="491"/>
-      <c r="AH79" s="491"/>
-      <c r="AI79" s="491"/>
-      <c r="AJ79" s="491"/>
-      <c r="AK79" s="491"/>
-      <c r="AL79" s="491"/>
-      <c r="AM79" s="491"/>
-      <c r="AN79" s="491"/>
-      <c r="AO79" s="491"/>
-      <c r="AP79" s="491"/>
-      <c r="AQ79" s="491"/>
-      <c r="AR79" s="491"/>
-      <c r="AS79" s="491"/>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="F80" s="520"/>
-      <c r="G80" s="521"/>
-      <c r="H80" s="491"/>
-      <c r="I80" s="491"/>
-      <c r="J80" s="491"/>
-      <c r="K80" s="491"/>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="F80" s="455"/>
+      <c r="G80" s="83"/>
       <c r="W80" s="69" t="s">
         <v>111</v>
       </c>
@@ -49084,28 +46708,19 @@
       <c r="AD80" s="220">
         <v>-0.12379754395977956</v>
       </c>
-      <c r="AF80" s="491"/>
-      <c r="AG80" s="495"/>
-      <c r="AH80" s="495"/>
-      <c r="AI80" s="495"/>
-      <c r="AJ80" s="495"/>
-      <c r="AK80" s="496"/>
-      <c r="AL80" s="495"/>
-      <c r="AM80" s="495"/>
-      <c r="AN80" s="495"/>
-      <c r="AO80" s="495"/>
-      <c r="AP80" s="491"/>
-      <c r="AQ80" s="491"/>
-      <c r="AR80" s="491"/>
-      <c r="AS80" s="491"/>
+      <c r="AG80" s="435"/>
+      <c r="AH80" s="435"/>
+      <c r="AI80" s="435"/>
+      <c r="AJ80" s="435"/>
+      <c r="AK80" s="436"/>
+      <c r="AL80" s="435"/>
+      <c r="AM80" s="435"/>
+      <c r="AN80" s="435"/>
+      <c r="AO80" s="435"/>
     </row>
-    <row r="81" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F81" s="520"/>
-      <c r="G81" s="521"/>
-      <c r="H81" s="491"/>
-      <c r="I81" s="491"/>
-      <c r="J81" s="491"/>
-      <c r="K81" s="491"/>
+    <row r="81" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F81" s="455"/>
+      <c r="G81" s="83"/>
       <c r="W81" s="70" t="s">
         <v>112</v>
       </c>
@@ -49134,1905 +46749,200 @@
       <c r="AD81" s="227">
         <v>-5.2460135362221633E-2</v>
       </c>
-      <c r="AF81" s="491"/>
-      <c r="AG81" s="491"/>
-      <c r="AH81" s="491"/>
-      <c r="AI81" s="491"/>
-      <c r="AJ81" s="491"/>
-      <c r="AK81" s="491"/>
-      <c r="AL81" s="491"/>
-      <c r="AM81" s="491"/>
-      <c r="AN81" s="491"/>
-      <c r="AO81" s="491"/>
-      <c r="AP81" s="491"/>
-      <c r="AQ81" s="491"/>
-      <c r="AR81" s="491"/>
-      <c r="AS81" s="491"/>
     </row>
-    <row r="82" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F82" s="520"/>
-      <c r="G82" s="521"/>
-      <c r="H82" s="491"/>
-      <c r="I82" s="491"/>
-      <c r="J82" s="491"/>
-      <c r="K82" s="491"/>
-      <c r="AF82" s="491"/>
-      <c r="AG82" s="491"/>
-      <c r="AH82" s="491"/>
-      <c r="AI82" s="491"/>
-      <c r="AJ82" s="491"/>
-      <c r="AK82" s="497"/>
-      <c r="AL82" s="491"/>
-      <c r="AM82" s="491"/>
-      <c r="AN82" s="491"/>
-      <c r="AO82" s="491"/>
-      <c r="AP82" s="491"/>
-      <c r="AQ82" s="491"/>
-      <c r="AR82" s="491"/>
-      <c r="AS82" s="491"/>
+    <row r="82" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F82" s="455"/>
+      <c r="G82" s="83"/>
+      <c r="AK82" s="437"/>
     </row>
-    <row r="83" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F83" s="520"/>
-      <c r="G83" s="521"/>
-      <c r="H83" s="491"/>
-      <c r="I83" s="491"/>
-      <c r="J83" s="491"/>
-      <c r="K83" s="491"/>
-      <c r="AF83" s="491"/>
-      <c r="AG83" s="491"/>
-      <c r="AH83" s="491"/>
-      <c r="AI83" s="491"/>
-      <c r="AJ83" s="491"/>
-      <c r="AK83" s="491"/>
-      <c r="AL83" s="491"/>
-      <c r="AM83" s="491"/>
-      <c r="AN83" s="491"/>
-      <c r="AO83" s="491"/>
-      <c r="AP83" s="491"/>
-      <c r="AQ83" s="491"/>
-      <c r="AR83" s="491"/>
-      <c r="AS83" s="491"/>
+    <row r="83" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F83" s="455"/>
+      <c r="G83" s="83"/>
     </row>
-    <row r="84" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F84" s="520"/>
-      <c r="G84" s="521"/>
-      <c r="H84" s="491"/>
-      <c r="I84" s="491"/>
-      <c r="J84" s="491"/>
-      <c r="K84" s="491"/>
-      <c r="AF84" s="491"/>
-      <c r="AG84" s="491"/>
-      <c r="AH84" s="491"/>
-      <c r="AI84" s="491"/>
-      <c r="AJ84" s="491"/>
-      <c r="AK84" s="491"/>
-      <c r="AL84" s="491"/>
-      <c r="AM84" s="491"/>
-      <c r="AN84" s="491"/>
-      <c r="AO84" s="491"/>
-      <c r="AP84" s="491"/>
-      <c r="AQ84" s="491"/>
-      <c r="AR84" s="491"/>
-      <c r="AS84" s="491"/>
+    <row r="84" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F84" s="455"/>
+      <c r="G84" s="83"/>
     </row>
-    <row r="85" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F85" s="520"/>
-      <c r="G85" s="521"/>
-      <c r="H85" s="491"/>
-      <c r="I85" s="491"/>
-      <c r="J85" s="491"/>
-      <c r="K85" s="491"/>
-      <c r="AF85" s="491"/>
-      <c r="AG85" s="491"/>
-      <c r="AH85" s="491"/>
-      <c r="AI85" s="491"/>
-      <c r="AJ85" s="491"/>
-      <c r="AK85" s="491"/>
-      <c r="AL85" s="491"/>
-      <c r="AM85" s="491"/>
-      <c r="AN85" s="491"/>
-      <c r="AO85" s="491"/>
-      <c r="AP85" s="491"/>
-      <c r="AQ85" s="491"/>
-      <c r="AR85" s="491"/>
-      <c r="AS85" s="491"/>
+    <row r="85" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F85" s="455"/>
+      <c r="G85" s="83"/>
     </row>
-    <row r="86" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F86" s="520"/>
-      <c r="G86" s="521"/>
-      <c r="H86" s="491"/>
-      <c r="I86" s="491"/>
-      <c r="J86" s="491"/>
-      <c r="K86" s="491"/>
-      <c r="AF86" s="491"/>
-      <c r="AG86" s="494"/>
-      <c r="AH86" s="494"/>
-      <c r="AI86" s="491"/>
-      <c r="AJ86" s="491"/>
-      <c r="AK86" s="491"/>
-      <c r="AL86" s="491"/>
-      <c r="AM86" s="491"/>
-      <c r="AN86" s="491"/>
-      <c r="AO86" s="491"/>
-      <c r="AP86" s="491"/>
-      <c r="AQ86" s="491"/>
-      <c r="AR86" s="491"/>
-      <c r="AS86" s="491"/>
+    <row r="86" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F86" s="455"/>
+      <c r="G86" s="83"/>
+      <c r="AG86" s="434"/>
+      <c r="AH86" s="434"/>
     </row>
-    <row r="87" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F87" s="520"/>
-      <c r="G87" s="521"/>
-      <c r="H87" s="491"/>
-      <c r="I87" s="491"/>
-      <c r="J87" s="491"/>
-      <c r="K87" s="491"/>
-      <c r="AF87" s="491"/>
-      <c r="AG87" s="491"/>
-      <c r="AH87" s="491"/>
-      <c r="AI87" s="491"/>
-      <c r="AJ87" s="491"/>
-      <c r="AK87" s="491"/>
-      <c r="AL87" s="491"/>
-      <c r="AM87" s="491"/>
-      <c r="AN87" s="491"/>
-      <c r="AO87" s="491"/>
-      <c r="AP87" s="491"/>
-      <c r="AQ87" s="491"/>
-      <c r="AR87" s="491"/>
-      <c r="AS87" s="491"/>
+    <row r="87" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F87" s="455"/>
+      <c r="G87" s="83"/>
     </row>
-    <row r="88" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F88" s="520"/>
-      <c r="G88" s="521"/>
-      <c r="H88" s="491"/>
-      <c r="I88" s="491"/>
-      <c r="J88" s="491"/>
-      <c r="K88" s="491"/>
-      <c r="AF88" s="491"/>
-      <c r="AG88" s="491"/>
-      <c r="AH88" s="491"/>
-      <c r="AI88" s="491"/>
-      <c r="AJ88" s="491"/>
-      <c r="AK88" s="491"/>
-      <c r="AL88" s="491"/>
-      <c r="AM88" s="491"/>
-      <c r="AN88" s="491"/>
-      <c r="AO88" s="491"/>
-      <c r="AP88" s="491"/>
-      <c r="AQ88" s="491"/>
-      <c r="AR88" s="491"/>
-      <c r="AS88" s="491"/>
+    <row r="88" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F88" s="455"/>
+      <c r="G88" s="83"/>
     </row>
-    <row r="89" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F89" s="491"/>
-      <c r="G89" s="491"/>
-      <c r="H89" s="491"/>
-      <c r="AF89" s="491"/>
-      <c r="AG89" s="491"/>
-      <c r="AH89" s="491"/>
-      <c r="AI89" s="491"/>
-      <c r="AJ89" s="491"/>
-      <c r="AK89" s="491"/>
-      <c r="AL89" s="491"/>
-      <c r="AM89" s="491"/>
-      <c r="AN89" s="491"/>
-      <c r="AO89" s="491"/>
-      <c r="AP89" s="491"/>
-      <c r="AQ89" s="491"/>
-      <c r="AR89" s="491"/>
-      <c r="AS89" s="491"/>
+    <row r="91" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F91" s="83"/>
+      <c r="G91" s="83"/>
     </row>
-    <row r="90" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F90" s="491"/>
-      <c r="G90" s="491"/>
-      <c r="H90" s="491"/>
-      <c r="AF90" s="491"/>
-      <c r="AG90" s="491"/>
-      <c r="AH90" s="491"/>
-      <c r="AI90" s="491"/>
-      <c r="AJ90" s="491"/>
-      <c r="AK90" s="491"/>
-      <c r="AL90" s="491"/>
-      <c r="AM90" s="491"/>
-      <c r="AN90" s="491"/>
-      <c r="AO90" s="491"/>
-      <c r="AP90" s="491"/>
-      <c r="AQ90" s="491"/>
-      <c r="AR90" s="491"/>
-      <c r="AS90" s="491"/>
+    <row r="92" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
     </row>
-    <row r="91" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F91" s="521"/>
-      <c r="G91" s="521"/>
-      <c r="H91" s="491"/>
-      <c r="AF91" s="491"/>
-      <c r="AG91" s="491"/>
-      <c r="AH91" s="491"/>
-      <c r="AI91" s="491"/>
-      <c r="AJ91" s="491"/>
-      <c r="AK91" s="491"/>
-      <c r="AL91" s="491"/>
-      <c r="AM91" s="491"/>
-      <c r="AN91" s="491"/>
-      <c r="AO91" s="491"/>
-      <c r="AP91" s="491"/>
-      <c r="AQ91" s="491"/>
-      <c r="AR91" s="491"/>
-      <c r="AS91" s="491"/>
+    <row r="93" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
     </row>
-    <row r="92" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F92" s="490"/>
-      <c r="G92" s="490"/>
-      <c r="H92" s="491"/>
-      <c r="AF92" s="491"/>
-      <c r="AG92" s="491"/>
-      <c r="AH92" s="491"/>
-      <c r="AI92" s="491"/>
-      <c r="AJ92" s="491"/>
-      <c r="AK92" s="491"/>
-      <c r="AL92" s="491"/>
-      <c r="AM92" s="491"/>
-      <c r="AN92" s="491"/>
-      <c r="AO92" s="491"/>
-      <c r="AP92" s="491"/>
-      <c r="AQ92" s="491"/>
-      <c r="AR92" s="491"/>
-      <c r="AS92" s="491"/>
+    <row r="94" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="AG94" s="435"/>
+      <c r="AH94" s="435"/>
+      <c r="AI94" s="435"/>
+      <c r="AJ94" s="435"/>
+      <c r="AK94" s="435"/>
+      <c r="AL94" s="435"/>
     </row>
-    <row r="93" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F93" s="490"/>
-      <c r="G93" s="490"/>
-      <c r="H93" s="491"/>
-      <c r="AF93" s="491"/>
-      <c r="AG93" s="491"/>
-      <c r="AH93" s="491"/>
-      <c r="AI93" s="491"/>
-      <c r="AJ93" s="491"/>
-      <c r="AK93" s="491"/>
-      <c r="AL93" s="491"/>
-      <c r="AM93" s="491"/>
-      <c r="AN93" s="491"/>
-      <c r="AO93" s="491"/>
-      <c r="AP93" s="491"/>
-      <c r="AQ93" s="491"/>
-      <c r="AR93" s="491"/>
-      <c r="AS93" s="491"/>
+    <row r="95" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
     </row>
-    <row r="94" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F94" s="490"/>
-      <c r="G94" s="490"/>
-      <c r="H94" s="491"/>
-      <c r="I94" s="488"/>
-      <c r="J94" s="488"/>
-      <c r="K94" s="488"/>
-      <c r="L94" s="488"/>
-      <c r="M94" s="488"/>
-      <c r="N94" s="488"/>
-      <c r="O94" s="488"/>
-      <c r="P94" s="488"/>
-      <c r="Q94" s="488"/>
-      <c r="R94" s="488"/>
-      <c r="S94" s="488"/>
-      <c r="T94" s="488"/>
-      <c r="U94" s="488"/>
-      <c r="V94" s="488"/>
-      <c r="W94" s="488"/>
-      <c r="X94" s="488"/>
-      <c r="Y94" s="488"/>
-      <c r="Z94" s="488"/>
-      <c r="AA94" s="488"/>
-      <c r="AB94" s="488"/>
-      <c r="AC94" s="488"/>
-      <c r="AF94" s="491"/>
-      <c r="AG94" s="495"/>
-      <c r="AH94" s="495"/>
-      <c r="AI94" s="495"/>
-      <c r="AJ94" s="495"/>
-      <c r="AK94" s="495"/>
-      <c r="AL94" s="495"/>
-      <c r="AM94" s="491"/>
-      <c r="AN94" s="491"/>
-      <c r="AO94" s="491"/>
-      <c r="AP94" s="491"/>
-      <c r="AQ94" s="491"/>
-      <c r="AR94" s="491"/>
-      <c r="AS94" s="491"/>
+    <row r="96" spans="6:38" x14ac:dyDescent="0.25">
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
     </row>
-    <row r="95" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F95" s="490"/>
-      <c r="G95" s="490"/>
-      <c r="H95" s="491"/>
-      <c r="I95" s="488"/>
-      <c r="J95" s="488"/>
-      <c r="K95" s="488"/>
-      <c r="L95" s="488"/>
-      <c r="M95" s="488"/>
-      <c r="N95" s="488"/>
-      <c r="O95" s="488"/>
-      <c r="P95" s="488"/>
-      <c r="Q95" s="488"/>
-      <c r="R95" s="488"/>
-      <c r="S95" s="488"/>
-      <c r="T95" s="488"/>
-      <c r="U95" s="488"/>
-      <c r="V95" s="488"/>
-      <c r="W95" s="488"/>
-      <c r="X95" s="488"/>
-      <c r="Y95" s="488"/>
-      <c r="Z95" s="488"/>
-      <c r="AA95" s="488"/>
-      <c r="AB95" s="488"/>
-      <c r="AC95" s="488"/>
-      <c r="AF95" s="491"/>
-      <c r="AG95" s="491"/>
-      <c r="AH95" s="491"/>
-      <c r="AI95" s="491"/>
-      <c r="AJ95" s="491"/>
-      <c r="AK95" s="491"/>
-      <c r="AL95" s="491"/>
-      <c r="AM95" s="491"/>
-      <c r="AN95" s="491"/>
-      <c r="AO95" s="491"/>
-      <c r="AP95" s="491"/>
-      <c r="AQ95" s="491"/>
-      <c r="AR95" s="491"/>
-      <c r="AS95" s="491"/>
+    <row r="97" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="I97" s="434"/>
+      <c r="J97" s="434"/>
     </row>
-    <row r="96" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F96" s="490"/>
-      <c r="G96" s="490"/>
-      <c r="H96" s="491"/>
-      <c r="I96" s="488"/>
-      <c r="J96" s="488"/>
-      <c r="K96" s="488"/>
-      <c r="L96" s="488"/>
-      <c r="M96" s="488"/>
-      <c r="N96" s="488"/>
-      <c r="O96" s="488"/>
-      <c r="P96" s="488"/>
-      <c r="Q96" s="488"/>
-      <c r="R96" s="488"/>
-      <c r="S96" s="488"/>
-      <c r="T96" s="488"/>
-      <c r="U96" s="488"/>
-      <c r="V96" s="488"/>
-      <c r="W96" s="488"/>
-      <c r="X96" s="488"/>
-      <c r="Y96" s="488"/>
-      <c r="Z96" s="488"/>
-      <c r="AA96" s="488"/>
-      <c r="AB96" s="488"/>
-      <c r="AC96" s="488"/>
-      <c r="AF96" s="491"/>
-      <c r="AG96" s="491"/>
-      <c r="AH96" s="491"/>
-      <c r="AI96" s="491"/>
-      <c r="AJ96" s="491"/>
-      <c r="AK96" s="491"/>
-      <c r="AL96" s="491"/>
-      <c r="AM96" s="491"/>
-      <c r="AN96" s="491"/>
-      <c r="AO96" s="491"/>
-      <c r="AP96" s="491"/>
-      <c r="AQ96" s="491"/>
-      <c r="AR96" s="491"/>
-      <c r="AS96" s="491"/>
+    <row r="98" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="R98" s="434"/>
+      <c r="S98" s="434"/>
     </row>
-    <row r="97" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F97" s="490"/>
-      <c r="G97" s="490"/>
-      <c r="H97" s="491"/>
-      <c r="I97" s="492"/>
-      <c r="J97" s="492"/>
-      <c r="K97" s="488"/>
-      <c r="L97" s="488"/>
-      <c r="M97" s="488"/>
-      <c r="N97" s="488"/>
-      <c r="O97" s="488"/>
-      <c r="P97" s="488"/>
-      <c r="Q97" s="488"/>
-      <c r="R97" s="488"/>
-      <c r="S97" s="488"/>
-      <c r="T97" s="488"/>
-      <c r="U97" s="488"/>
-      <c r="V97" s="488"/>
-      <c r="W97" s="488"/>
-      <c r="X97" s="488"/>
-      <c r="Y97" s="488"/>
-      <c r="Z97" s="488"/>
-      <c r="AA97" s="488"/>
-      <c r="AB97" s="488"/>
-      <c r="AC97" s="488"/>
-      <c r="AF97" s="491"/>
-      <c r="AG97" s="491"/>
-      <c r="AH97" s="491"/>
-      <c r="AI97" s="491"/>
-      <c r="AJ97" s="491"/>
-      <c r="AK97" s="491"/>
-      <c r="AL97" s="491"/>
-      <c r="AM97" s="491"/>
-      <c r="AN97" s="491"/>
-      <c r="AO97" s="491"/>
-      <c r="AP97" s="491"/>
-      <c r="AQ97" s="491"/>
-      <c r="AR97" s="491"/>
-      <c r="AS97" s="491"/>
+    <row r="99" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="AG99" s="435"/>
+      <c r="AH99" s="435"/>
+      <c r="AI99" s="435"/>
+      <c r="AJ99" s="435"/>
+      <c r="AK99" s="435"/>
+      <c r="AL99" s="435"/>
+      <c r="AM99" s="435"/>
+      <c r="AN99" s="435"/>
+      <c r="AO99" s="435"/>
     </row>
-    <row r="98" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F98" s="490"/>
-      <c r="G98" s="490"/>
-      <c r="H98" s="491"/>
-      <c r="I98" s="488"/>
-      <c r="J98" s="488"/>
-      <c r="K98" s="488"/>
-      <c r="L98" s="488"/>
-      <c r="M98" s="488"/>
-      <c r="N98" s="488"/>
-      <c r="O98" s="488"/>
-      <c r="P98" s="488"/>
-      <c r="Q98" s="488"/>
-      <c r="R98" s="492"/>
-      <c r="S98" s="492"/>
-      <c r="T98" s="488"/>
-      <c r="U98" s="488"/>
-      <c r="V98" s="488"/>
-      <c r="W98" s="488"/>
-      <c r="X98" s="488"/>
-      <c r="Y98" s="488"/>
-      <c r="Z98" s="488"/>
-      <c r="AA98" s="488"/>
-      <c r="AB98" s="488"/>
-      <c r="AC98" s="488"/>
-      <c r="AF98" s="491"/>
-      <c r="AG98" s="491"/>
-      <c r="AH98" s="491"/>
-      <c r="AI98" s="491"/>
-      <c r="AJ98" s="491"/>
-      <c r="AK98" s="491"/>
-      <c r="AL98" s="491"/>
-      <c r="AM98" s="491"/>
-      <c r="AN98" s="491"/>
-      <c r="AO98" s="491"/>
-      <c r="AP98" s="491"/>
-      <c r="AQ98" s="491"/>
-      <c r="AR98" s="491"/>
-      <c r="AS98" s="491"/>
+    <row r="100" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="AB100" s="433"/>
+      <c r="AC100" s="85"/>
+      <c r="AD100" s="85"/>
     </row>
-    <row r="99" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F99" s="490"/>
-      <c r="G99" s="490"/>
-      <c r="H99" s="491"/>
-      <c r="I99" s="488"/>
-      <c r="J99" s="488"/>
-      <c r="K99" s="488"/>
-      <c r="L99" s="488"/>
-      <c r="M99" s="488"/>
-      <c r="N99" s="488"/>
-      <c r="O99" s="488"/>
-      <c r="P99" s="488"/>
-      <c r="Q99" s="488"/>
-      <c r="R99" s="488"/>
-      <c r="S99" s="488"/>
-      <c r="T99" s="488"/>
-      <c r="U99" s="488"/>
-      <c r="V99" s="488"/>
-      <c r="W99" s="488"/>
-      <c r="X99" s="488"/>
-      <c r="Y99" s="488"/>
-      <c r="Z99" s="488"/>
-      <c r="AA99" s="488"/>
-      <c r="AB99" s="488"/>
-      <c r="AC99" s="488"/>
-      <c r="AF99" s="491"/>
-      <c r="AG99" s="495"/>
-      <c r="AH99" s="495"/>
-      <c r="AI99" s="495"/>
-      <c r="AJ99" s="495"/>
-      <c r="AK99" s="495"/>
-      <c r="AL99" s="495"/>
-      <c r="AM99" s="495"/>
-      <c r="AN99" s="495"/>
-      <c r="AO99" s="495"/>
-      <c r="AP99" s="491"/>
-      <c r="AQ99" s="491"/>
-      <c r="AR99" s="491"/>
-      <c r="AS99" s="491"/>
+    <row r="101" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="AB101" s="433"/>
+      <c r="AC101" s="85"/>
+      <c r="AD101" s="85"/>
+      <c r="AK101" s="437"/>
     </row>
-    <row r="100" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F100" s="491"/>
-      <c r="G100" s="491"/>
-      <c r="H100" s="491"/>
-      <c r="I100" s="488"/>
-      <c r="J100" s="488"/>
-      <c r="K100" s="488"/>
-      <c r="L100" s="488"/>
-      <c r="M100" s="488"/>
-      <c r="N100" s="488"/>
-      <c r="O100" s="488"/>
-      <c r="P100" s="488"/>
-      <c r="Q100" s="488"/>
-      <c r="R100" s="488"/>
-      <c r="S100" s="488"/>
-      <c r="T100" s="488"/>
-      <c r="U100" s="488"/>
-      <c r="V100" s="488"/>
-      <c r="W100" s="488"/>
-      <c r="X100" s="488"/>
-      <c r="Y100" s="488"/>
-      <c r="Z100" s="488"/>
-      <c r="AA100" s="488"/>
-      <c r="AB100" s="489"/>
-      <c r="AC100" s="490"/>
-      <c r="AD100" s="490"/>
-      <c r="AF100" s="491"/>
-      <c r="AG100" s="491"/>
-      <c r="AH100" s="491"/>
-      <c r="AI100" s="491"/>
-      <c r="AJ100" s="491"/>
-      <c r="AK100" s="491"/>
-      <c r="AL100" s="491"/>
-      <c r="AM100" s="491"/>
-      <c r="AN100" s="491"/>
-      <c r="AO100" s="491"/>
-      <c r="AP100" s="491"/>
-      <c r="AQ100" s="491"/>
-      <c r="AR100" s="491"/>
-      <c r="AS100" s="491"/>
+    <row r="102" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="AB102" s="433"/>
+      <c r="AC102" s="85"/>
+      <c r="AD102" s="85"/>
     </row>
-    <row r="101" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F101" s="491"/>
-      <c r="G101" s="491"/>
-      <c r="H101" s="491"/>
-      <c r="I101" s="488"/>
-      <c r="J101" s="488"/>
-      <c r="K101" s="488"/>
-      <c r="L101" s="488"/>
-      <c r="M101" s="488"/>
-      <c r="N101" s="488"/>
-      <c r="O101" s="488"/>
-      <c r="P101" s="488"/>
-      <c r="Q101" s="488"/>
-      <c r="R101" s="488"/>
-      <c r="S101" s="488"/>
-      <c r="T101" s="488"/>
-      <c r="U101" s="488"/>
-      <c r="V101" s="488"/>
-      <c r="W101" s="488"/>
-      <c r="X101" s="488"/>
-      <c r="Y101" s="488"/>
-      <c r="Z101" s="488"/>
-      <c r="AA101" s="488"/>
-      <c r="AB101" s="489"/>
-      <c r="AC101" s="490"/>
-      <c r="AD101" s="490"/>
-      <c r="AF101" s="491"/>
-      <c r="AG101" s="491"/>
-      <c r="AH101" s="491"/>
-      <c r="AI101" s="491"/>
-      <c r="AJ101" s="491"/>
-      <c r="AK101" s="497"/>
-      <c r="AL101" s="491"/>
-      <c r="AM101" s="491"/>
-      <c r="AN101" s="491"/>
-      <c r="AO101" s="491"/>
-      <c r="AP101" s="491"/>
-      <c r="AQ101" s="491"/>
-      <c r="AR101" s="491"/>
-      <c r="AS101" s="491"/>
+    <row r="103" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="AB103" s="433"/>
+      <c r="AC103" s="85"/>
+      <c r="AD103" s="85"/>
     </row>
-    <row r="102" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F102" s="491"/>
-      <c r="G102" s="491"/>
-      <c r="H102" s="491"/>
-      <c r="I102" s="488"/>
-      <c r="J102" s="488"/>
-      <c r="K102" s="488"/>
-      <c r="L102" s="488"/>
-      <c r="M102" s="488"/>
-      <c r="N102" s="488"/>
-      <c r="O102" s="488"/>
-      <c r="P102" s="488"/>
-      <c r="Q102" s="488"/>
-      <c r="R102" s="488"/>
-      <c r="S102" s="488"/>
-      <c r="T102" s="488"/>
-      <c r="U102" s="488"/>
-      <c r="V102" s="488"/>
-      <c r="W102" s="488"/>
-      <c r="X102" s="488"/>
-      <c r="Y102" s="488"/>
-      <c r="Z102" s="488"/>
-      <c r="AA102" s="488"/>
-      <c r="AB102" s="489"/>
-      <c r="AC102" s="490"/>
-      <c r="AD102" s="490"/>
-      <c r="AF102" s="491"/>
-      <c r="AG102" s="491"/>
-      <c r="AH102" s="491"/>
-      <c r="AI102" s="491"/>
-      <c r="AJ102" s="491"/>
-      <c r="AK102" s="491"/>
-      <c r="AL102" s="491"/>
-      <c r="AM102" s="491"/>
-      <c r="AN102" s="491"/>
-      <c r="AO102" s="491"/>
-      <c r="AP102" s="491"/>
-      <c r="AQ102" s="491"/>
-      <c r="AR102" s="491"/>
-      <c r="AS102" s="491"/>
+    <row r="104" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="AB104" s="433"/>
+      <c r="AC104" s="85"/>
+      <c r="AD104" s="85"/>
     </row>
-    <row r="103" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F103" s="491"/>
-      <c r="G103" s="491"/>
-      <c r="H103" s="491"/>
-      <c r="I103" s="488"/>
-      <c r="J103" s="488"/>
-      <c r="K103" s="488"/>
-      <c r="L103" s="488"/>
-      <c r="M103" s="488"/>
-      <c r="N103" s="488"/>
-      <c r="O103" s="488"/>
-      <c r="P103" s="488"/>
-      <c r="Q103" s="488"/>
-      <c r="R103" s="488"/>
-      <c r="S103" s="488"/>
-      <c r="T103" s="488"/>
-      <c r="U103" s="488"/>
-      <c r="V103" s="488"/>
-      <c r="W103" s="488"/>
-      <c r="X103" s="488"/>
-      <c r="Y103" s="488"/>
-      <c r="Z103" s="488"/>
-      <c r="AA103" s="488"/>
-      <c r="AB103" s="489"/>
-      <c r="AC103" s="490"/>
-      <c r="AD103" s="490"/>
-      <c r="AF103" s="491"/>
-      <c r="AG103" s="491"/>
-      <c r="AH103" s="491"/>
-      <c r="AI103" s="491"/>
-      <c r="AJ103" s="491"/>
-      <c r="AK103" s="491"/>
-      <c r="AL103" s="491"/>
-      <c r="AM103" s="491"/>
-      <c r="AN103" s="491"/>
-      <c r="AO103" s="491"/>
-      <c r="AP103" s="491"/>
-      <c r="AQ103" s="491"/>
-      <c r="AR103" s="491"/>
-      <c r="AS103" s="491"/>
+    <row r="105" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="I105" s="435"/>
+      <c r="J105" s="435"/>
+      <c r="K105" s="435"/>
+      <c r="L105" s="435"/>
+      <c r="M105" s="435"/>
+      <c r="N105" s="435"/>
+      <c r="AG105" s="434"/>
+      <c r="AH105" s="434"/>
     </row>
-    <row r="104" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F104" s="491"/>
-      <c r="G104" s="491"/>
-      <c r="H104" s="491"/>
-      <c r="I104" s="488"/>
-      <c r="J104" s="488"/>
-      <c r="K104" s="488"/>
-      <c r="L104" s="488"/>
-      <c r="M104" s="488"/>
-      <c r="N104" s="488"/>
-      <c r="O104" s="488"/>
-      <c r="P104" s="488"/>
-      <c r="Q104" s="488"/>
-      <c r="R104" s="488"/>
-      <c r="S104" s="488"/>
-      <c r="T104" s="488"/>
-      <c r="U104" s="488"/>
-      <c r="V104" s="488"/>
-      <c r="W104" s="488"/>
-      <c r="X104" s="488"/>
-      <c r="Y104" s="488"/>
-      <c r="Z104" s="488"/>
-      <c r="AA104" s="488"/>
-      <c r="AB104" s="489"/>
-      <c r="AC104" s="490"/>
-      <c r="AD104" s="490"/>
-      <c r="AF104" s="491"/>
-      <c r="AG104" s="491"/>
-      <c r="AH104" s="491"/>
-      <c r="AI104" s="491"/>
-      <c r="AJ104" s="491"/>
-      <c r="AK104" s="491"/>
-      <c r="AL104" s="491"/>
-      <c r="AM104" s="491"/>
-      <c r="AN104" s="491"/>
-      <c r="AO104" s="491"/>
-      <c r="AP104" s="491"/>
-      <c r="AQ104" s="491"/>
-      <c r="AR104" s="491"/>
-      <c r="AS104" s="491"/>
+    <row r="106" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="R106" s="435"/>
+      <c r="S106" s="435"/>
+      <c r="T106" s="435"/>
+      <c r="U106" s="435"/>
+      <c r="V106" s="435"/>
+      <c r="W106" s="435"/>
     </row>
-    <row r="105" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F105" s="491"/>
-      <c r="G105" s="491"/>
-      <c r="H105" s="491"/>
-      <c r="I105" s="493"/>
-      <c r="J105" s="493"/>
-      <c r="K105" s="495"/>
-      <c r="L105" s="495"/>
-      <c r="M105" s="495"/>
-      <c r="N105" s="495"/>
-      <c r="O105" s="491"/>
-      <c r="P105" s="491"/>
-      <c r="Q105" s="491"/>
-      <c r="R105" s="491"/>
-      <c r="S105" s="491"/>
-      <c r="T105" s="491"/>
-      <c r="U105" s="491"/>
-      <c r="V105" s="491"/>
-      <c r="W105" s="491"/>
-      <c r="X105" s="488"/>
-      <c r="Y105" s="488"/>
-      <c r="Z105" s="488"/>
-      <c r="AA105" s="488"/>
-      <c r="AB105" s="491"/>
-      <c r="AC105" s="491"/>
-      <c r="AD105" s="491"/>
-      <c r="AF105" s="491"/>
-      <c r="AG105" s="494"/>
-      <c r="AH105" s="494"/>
-      <c r="AI105" s="491"/>
-      <c r="AJ105" s="491"/>
-      <c r="AK105" s="491"/>
-      <c r="AL105" s="491"/>
-      <c r="AM105" s="491"/>
-      <c r="AN105" s="491"/>
-      <c r="AO105" s="491"/>
-      <c r="AP105" s="491"/>
-      <c r="AQ105" s="491"/>
-      <c r="AR105" s="491"/>
-      <c r="AS105" s="491"/>
+    <row r="110" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="I110" s="435"/>
+      <c r="J110" s="435"/>
+      <c r="K110" s="435"/>
+      <c r="L110" s="435"/>
+      <c r="M110" s="435"/>
+      <c r="N110" s="435"/>
     </row>
-    <row r="106" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F106" s="491"/>
-      <c r="G106" s="491"/>
-      <c r="H106" s="491"/>
-      <c r="I106" s="488"/>
-      <c r="J106" s="488"/>
-      <c r="K106" s="491"/>
-      <c r="L106" s="491"/>
-      <c r="M106" s="491"/>
-      <c r="N106" s="491"/>
-      <c r="O106" s="491"/>
-      <c r="P106" s="491"/>
-      <c r="Q106" s="491"/>
-      <c r="R106" s="495"/>
-      <c r="S106" s="495"/>
-      <c r="T106" s="495"/>
-      <c r="U106" s="495"/>
-      <c r="V106" s="495"/>
-      <c r="W106" s="495"/>
-      <c r="X106" s="488"/>
-      <c r="Y106" s="488"/>
-      <c r="Z106" s="488"/>
-      <c r="AA106" s="488"/>
-      <c r="AB106" s="491"/>
-      <c r="AC106" s="491"/>
-      <c r="AD106" s="491"/>
-      <c r="AF106" s="491"/>
-      <c r="AG106" s="491"/>
-      <c r="AH106" s="491"/>
-      <c r="AI106" s="491"/>
-      <c r="AJ106" s="491"/>
-      <c r="AK106" s="491"/>
-      <c r="AL106" s="491"/>
-      <c r="AM106" s="491"/>
-      <c r="AN106" s="491"/>
-      <c r="AO106" s="491"/>
-      <c r="AP106" s="491"/>
-      <c r="AQ106" s="491"/>
-      <c r="AR106" s="491"/>
-      <c r="AS106" s="491"/>
+    <row r="111" spans="6:41" x14ac:dyDescent="0.25">
+      <c r="O111" s="435"/>
+      <c r="P111" s="435"/>
+      <c r="Q111" s="435"/>
+      <c r="R111" s="435"/>
+      <c r="S111" s="435"/>
+      <c r="T111" s="435"/>
+      <c r="U111" s="435"/>
+      <c r="V111" s="435"/>
+      <c r="W111" s="435"/>
+      <c r="X111" s="435"/>
+      <c r="Y111" s="435"/>
+      <c r="Z111" s="435"/>
     </row>
-    <row r="107" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F107" s="491"/>
-      <c r="G107" s="491"/>
-      <c r="H107" s="491"/>
-      <c r="I107" s="488"/>
-      <c r="J107" s="488"/>
-      <c r="K107" s="491"/>
-      <c r="L107" s="491"/>
-      <c r="M107" s="491"/>
-      <c r="N107" s="491"/>
-      <c r="O107" s="491"/>
-      <c r="P107" s="491"/>
-      <c r="Q107" s="491"/>
-      <c r="R107" s="491"/>
-      <c r="S107" s="491"/>
-      <c r="T107" s="491"/>
-      <c r="U107" s="491"/>
-      <c r="V107" s="491"/>
-      <c r="W107" s="491"/>
-      <c r="X107" s="488"/>
-      <c r="Y107" s="488"/>
-      <c r="Z107" s="488"/>
-      <c r="AA107" s="488"/>
-      <c r="AB107" s="488"/>
-      <c r="AC107" s="488"/>
-      <c r="AF107" s="491"/>
-      <c r="AG107" s="491"/>
-      <c r="AH107" s="491"/>
-      <c r="AI107" s="491"/>
-      <c r="AJ107" s="491"/>
-      <c r="AK107" s="491"/>
-      <c r="AL107" s="491"/>
-      <c r="AM107" s="491"/>
-      <c r="AN107" s="491"/>
-      <c r="AO107" s="491"/>
-      <c r="AP107" s="491"/>
-      <c r="AQ107" s="491"/>
-      <c r="AR107" s="491"/>
-      <c r="AS107" s="491"/>
+    <row r="113" spans="33:41" x14ac:dyDescent="0.25">
+      <c r="AG113" s="435"/>
+      <c r="AH113" s="435"/>
+      <c r="AI113" s="435"/>
+      <c r="AJ113" s="435"/>
+      <c r="AK113" s="435"/>
+      <c r="AL113" s="435"/>
     </row>
-    <row r="108" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="F108" s="491"/>
-      <c r="G108" s="491"/>
-      <c r="H108" s="491"/>
-      <c r="I108" s="488"/>
-      <c r="J108" s="488"/>
-      <c r="K108" s="491"/>
-      <c r="L108" s="491"/>
-      <c r="M108" s="491"/>
-      <c r="N108" s="491"/>
-      <c r="O108" s="491"/>
-      <c r="P108" s="491"/>
-      <c r="Q108" s="491"/>
-      <c r="R108" s="491"/>
-      <c r="S108" s="491"/>
-      <c r="T108" s="491"/>
-      <c r="U108" s="491"/>
-      <c r="V108" s="491"/>
-      <c r="W108" s="491"/>
-      <c r="X108" s="488"/>
-      <c r="Y108" s="488"/>
-      <c r="Z108" s="488"/>
-      <c r="AA108" s="488"/>
-      <c r="AB108" s="488"/>
-      <c r="AC108" s="488"/>
-      <c r="AF108" s="491"/>
-      <c r="AG108" s="491"/>
-      <c r="AH108" s="491"/>
-      <c r="AI108" s="491"/>
-      <c r="AJ108" s="491"/>
-      <c r="AK108" s="491"/>
-      <c r="AL108" s="491"/>
-      <c r="AM108" s="491"/>
-      <c r="AN108" s="491"/>
-      <c r="AO108" s="491"/>
-      <c r="AP108" s="491"/>
-      <c r="AQ108" s="491"/>
-      <c r="AR108" s="491"/>
-      <c r="AS108" s="491"/>
+    <row r="118" spans="33:41" x14ac:dyDescent="0.25">
+      <c r="AG118" s="435"/>
+      <c r="AH118" s="435"/>
+      <c r="AI118" s="435"/>
+      <c r="AJ118" s="435"/>
+      <c r="AK118" s="435"/>
+      <c r="AL118" s="435"/>
+      <c r="AM118" s="435"/>
+      <c r="AN118" s="435"/>
+      <c r="AO118" s="435"/>
     </row>
-    <row r="109" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="H109" s="488"/>
-      <c r="I109" s="488"/>
-      <c r="J109" s="488"/>
-      <c r="K109" s="491"/>
-      <c r="L109" s="491"/>
-      <c r="M109" s="491"/>
-      <c r="N109" s="491"/>
-      <c r="O109" s="491"/>
-      <c r="P109" s="491"/>
-      <c r="Q109" s="491"/>
-      <c r="R109" s="491"/>
-      <c r="S109" s="491"/>
-      <c r="T109" s="491"/>
-      <c r="U109" s="491"/>
-      <c r="V109" s="491"/>
-      <c r="W109" s="491"/>
-      <c r="X109" s="488"/>
-      <c r="Y109" s="488"/>
-      <c r="Z109" s="488"/>
-      <c r="AA109" s="488"/>
-      <c r="AB109" s="488"/>
-      <c r="AC109" s="488"/>
-      <c r="AF109" s="491"/>
-      <c r="AG109" s="491"/>
-      <c r="AH109" s="491"/>
-      <c r="AI109" s="491"/>
-      <c r="AJ109" s="491"/>
-      <c r="AK109" s="491"/>
-      <c r="AL109" s="491"/>
-      <c r="AM109" s="491"/>
-      <c r="AN109" s="491"/>
-      <c r="AO109" s="491"/>
-      <c r="AP109" s="491"/>
-      <c r="AQ109" s="491"/>
-      <c r="AR109" s="491"/>
-      <c r="AS109" s="491"/>
-    </row>
-    <row r="110" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="H110" s="488"/>
-      <c r="I110" s="493"/>
-      <c r="J110" s="493"/>
-      <c r="K110" s="495"/>
-      <c r="L110" s="495"/>
-      <c r="M110" s="495"/>
-      <c r="N110" s="495"/>
-      <c r="O110" s="491"/>
-      <c r="P110" s="491"/>
-      <c r="Q110" s="491"/>
-      <c r="R110" s="491"/>
-      <c r="S110" s="491"/>
-      <c r="T110" s="491"/>
-      <c r="U110" s="491"/>
-      <c r="V110" s="491"/>
-      <c r="W110" s="491"/>
-      <c r="X110" s="488"/>
-      <c r="Y110" s="488"/>
-      <c r="Z110" s="488"/>
-      <c r="AA110" s="488"/>
-      <c r="AB110" s="488"/>
-      <c r="AC110" s="488"/>
-      <c r="AF110" s="491"/>
-      <c r="AG110" s="491"/>
-      <c r="AH110" s="491"/>
-      <c r="AI110" s="491"/>
-      <c r="AJ110" s="491"/>
-      <c r="AK110" s="491"/>
-      <c r="AL110" s="491"/>
-      <c r="AM110" s="491"/>
-      <c r="AN110" s="491"/>
-      <c r="AO110" s="491"/>
-      <c r="AP110" s="491"/>
-      <c r="AQ110" s="491"/>
-      <c r="AR110" s="491"/>
-      <c r="AS110" s="491"/>
-    </row>
-    <row r="111" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="H111" s="488"/>
-      <c r="I111" s="488"/>
-      <c r="J111" s="488"/>
-      <c r="K111" s="491"/>
-      <c r="L111" s="491"/>
-      <c r="M111" s="491"/>
-      <c r="N111" s="491"/>
-      <c r="O111" s="495"/>
-      <c r="P111" s="495"/>
-      <c r="Q111" s="495"/>
-      <c r="R111" s="495"/>
-      <c r="S111" s="495"/>
-      <c r="T111" s="495"/>
-      <c r="U111" s="495"/>
-      <c r="V111" s="495"/>
-      <c r="W111" s="495"/>
-      <c r="X111" s="493"/>
-      <c r="Y111" s="493"/>
-      <c r="Z111" s="493"/>
-      <c r="AA111" s="488"/>
-      <c r="AB111" s="488"/>
-      <c r="AC111" s="488"/>
-      <c r="AF111" s="491"/>
-      <c r="AG111" s="491"/>
-      <c r="AH111" s="491"/>
-      <c r="AI111" s="491"/>
-      <c r="AJ111" s="491"/>
-      <c r="AK111" s="491"/>
-      <c r="AL111" s="491"/>
-      <c r="AM111" s="491"/>
-      <c r="AN111" s="491"/>
-      <c r="AO111" s="491"/>
-      <c r="AP111" s="491"/>
-      <c r="AQ111" s="491"/>
-      <c r="AR111" s="491"/>
-      <c r="AS111" s="491"/>
-    </row>
-    <row r="112" spans="6:45" x14ac:dyDescent="0.25">
-      <c r="H112" s="488"/>
-      <c r="I112" s="488"/>
-      <c r="J112" s="488"/>
-      <c r="K112" s="491"/>
-      <c r="L112" s="491"/>
-      <c r="M112" s="491"/>
-      <c r="N112" s="491"/>
-      <c r="O112" s="491"/>
-      <c r="P112" s="491"/>
-      <c r="Q112" s="491"/>
-      <c r="R112" s="491"/>
-      <c r="S112" s="491"/>
-      <c r="T112" s="491"/>
-      <c r="U112" s="491"/>
-      <c r="V112" s="491"/>
-      <c r="W112" s="491"/>
-      <c r="X112" s="488"/>
-      <c r="Y112" s="488"/>
-      <c r="Z112" s="488"/>
-      <c r="AA112" s="488"/>
-      <c r="AB112" s="488"/>
-      <c r="AC112" s="488"/>
-      <c r="AF112" s="491"/>
-      <c r="AG112" s="491"/>
-      <c r="AH112" s="491"/>
-      <c r="AI112" s="491"/>
-      <c r="AJ112" s="491"/>
-      <c r="AK112" s="491"/>
-      <c r="AL112" s="491"/>
-      <c r="AM112" s="491"/>
-      <c r="AN112" s="491"/>
-      <c r="AO112" s="491"/>
-      <c r="AP112" s="491"/>
-      <c r="AQ112" s="491"/>
-      <c r="AR112" s="491"/>
-      <c r="AS112" s="491"/>
-    </row>
-    <row r="113" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H113" s="488"/>
-      <c r="I113" s="488"/>
-      <c r="J113" s="488"/>
-      <c r="K113" s="491"/>
-      <c r="L113" s="491"/>
-      <c r="M113" s="491"/>
-      <c r="N113" s="491"/>
-      <c r="O113" s="491"/>
-      <c r="P113" s="491"/>
-      <c r="Q113" s="491"/>
-      <c r="R113" s="491"/>
-      <c r="S113" s="491"/>
-      <c r="T113" s="491"/>
-      <c r="U113" s="491"/>
-      <c r="V113" s="491"/>
-      <c r="W113" s="491"/>
-      <c r="X113" s="488"/>
-      <c r="Y113" s="488"/>
-      <c r="Z113" s="488"/>
-      <c r="AA113" s="488"/>
-      <c r="AB113" s="488"/>
-      <c r="AC113" s="488"/>
-      <c r="AF113" s="491"/>
-      <c r="AG113" s="495"/>
-      <c r="AH113" s="495"/>
-      <c r="AI113" s="495"/>
-      <c r="AJ113" s="495"/>
-      <c r="AK113" s="495"/>
-      <c r="AL113" s="495"/>
-      <c r="AM113" s="491"/>
-      <c r="AN113" s="491"/>
-      <c r="AO113" s="491"/>
-      <c r="AP113" s="491"/>
-      <c r="AQ113" s="491"/>
-      <c r="AR113" s="491"/>
-      <c r="AS113" s="491"/>
-    </row>
-    <row r="114" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H114" s="488"/>
-      <c r="I114" s="488"/>
-      <c r="J114" s="488"/>
-      <c r="K114" s="491"/>
-      <c r="L114" s="491"/>
-      <c r="M114" s="491"/>
-      <c r="N114" s="491"/>
-      <c r="O114" s="491"/>
-      <c r="P114" s="491"/>
-      <c r="Q114" s="491"/>
-      <c r="R114" s="491"/>
-      <c r="S114" s="491"/>
-      <c r="T114" s="491"/>
-      <c r="U114" s="491"/>
-      <c r="V114" s="491"/>
-      <c r="W114" s="491"/>
-      <c r="X114" s="488"/>
-      <c r="Y114" s="488"/>
-      <c r="Z114" s="488"/>
-      <c r="AA114" s="488"/>
-      <c r="AB114" s="488"/>
-      <c r="AC114" s="488"/>
-      <c r="AF114" s="491"/>
-      <c r="AG114" s="491"/>
-      <c r="AH114" s="491"/>
-      <c r="AI114" s="491"/>
-      <c r="AJ114" s="491"/>
-      <c r="AK114" s="491"/>
-      <c r="AL114" s="491"/>
-      <c r="AM114" s="491"/>
-      <c r="AN114" s="491"/>
-      <c r="AO114" s="491"/>
-      <c r="AP114" s="491"/>
-      <c r="AQ114" s="491"/>
-      <c r="AR114" s="491"/>
-      <c r="AS114" s="491"/>
-    </row>
-    <row r="115" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H115" s="488"/>
-      <c r="I115" s="488"/>
-      <c r="J115" s="488"/>
-      <c r="K115" s="491"/>
-      <c r="L115" s="491"/>
-      <c r="M115" s="491"/>
-      <c r="N115" s="491"/>
-      <c r="O115" s="491"/>
-      <c r="P115" s="491"/>
-      <c r="Q115" s="491"/>
-      <c r="R115" s="491"/>
-      <c r="S115" s="491"/>
-      <c r="T115" s="491"/>
-      <c r="U115" s="491"/>
-      <c r="V115" s="491"/>
-      <c r="W115" s="491"/>
-      <c r="X115" s="488"/>
-      <c r="Y115" s="488"/>
-      <c r="Z115" s="488"/>
-      <c r="AA115" s="488"/>
-      <c r="AB115" s="488"/>
-      <c r="AC115" s="488"/>
-      <c r="AF115" s="491"/>
-      <c r="AG115" s="491"/>
-      <c r="AH115" s="491"/>
-      <c r="AI115" s="491"/>
-      <c r="AJ115" s="491"/>
-      <c r="AK115" s="491"/>
-      <c r="AL115" s="491"/>
-      <c r="AM115" s="491"/>
-      <c r="AN115" s="491"/>
-      <c r="AO115" s="491"/>
-      <c r="AP115" s="491"/>
-      <c r="AQ115" s="491"/>
-      <c r="AR115" s="491"/>
-      <c r="AS115" s="491"/>
-    </row>
-    <row r="116" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H116" s="488"/>
-      <c r="I116" s="488"/>
-      <c r="J116" s="488"/>
-      <c r="K116" s="491"/>
-      <c r="L116" s="491"/>
-      <c r="M116" s="491"/>
-      <c r="N116" s="491"/>
-      <c r="O116" s="491"/>
-      <c r="P116" s="491"/>
-      <c r="Q116" s="491"/>
-      <c r="R116" s="491"/>
-      <c r="S116" s="491"/>
-      <c r="T116" s="491"/>
-      <c r="U116" s="491"/>
-      <c r="V116" s="491"/>
-      <c r="W116" s="491"/>
-      <c r="X116" s="488"/>
-      <c r="Y116" s="488"/>
-      <c r="Z116" s="488"/>
-      <c r="AA116" s="488"/>
-      <c r="AB116" s="488"/>
-      <c r="AC116" s="488"/>
-      <c r="AF116" s="491"/>
-      <c r="AG116" s="491"/>
-      <c r="AH116" s="491"/>
-      <c r="AI116" s="491"/>
-      <c r="AJ116" s="491"/>
-      <c r="AK116" s="491"/>
-      <c r="AL116" s="491"/>
-      <c r="AM116" s="491"/>
-      <c r="AN116" s="491"/>
-      <c r="AO116" s="491"/>
-      <c r="AP116" s="491"/>
-      <c r="AQ116" s="491"/>
-      <c r="AR116" s="491"/>
-      <c r="AS116" s="491"/>
-    </row>
-    <row r="117" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H117" s="488"/>
-      <c r="I117" s="488"/>
-      <c r="J117" s="488"/>
-      <c r="K117" s="491"/>
-      <c r="L117" s="491"/>
-      <c r="M117" s="491"/>
-      <c r="N117" s="491"/>
-      <c r="O117" s="491"/>
-      <c r="P117" s="491"/>
-      <c r="Q117" s="491"/>
-      <c r="R117" s="491"/>
-      <c r="S117" s="491"/>
-      <c r="T117" s="491"/>
-      <c r="U117" s="491"/>
-      <c r="V117" s="491"/>
-      <c r="W117" s="491"/>
-      <c r="X117" s="488"/>
-      <c r="Y117" s="488"/>
-      <c r="Z117" s="488"/>
-      <c r="AA117" s="488"/>
-      <c r="AB117" s="488"/>
-      <c r="AC117" s="488"/>
-      <c r="AF117" s="491"/>
-      <c r="AG117" s="491"/>
-      <c r="AH117" s="491"/>
-      <c r="AI117" s="491"/>
-      <c r="AJ117" s="491"/>
-      <c r="AK117" s="491"/>
-      <c r="AL117" s="491"/>
-      <c r="AM117" s="491"/>
-      <c r="AN117" s="491"/>
-      <c r="AO117" s="491"/>
-      <c r="AP117" s="491"/>
-      <c r="AQ117" s="491"/>
-      <c r="AR117" s="491"/>
-      <c r="AS117" s="491"/>
-    </row>
-    <row r="118" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H118" s="488"/>
-      <c r="I118" s="488"/>
-      <c r="J118" s="488"/>
-      <c r="K118" s="491"/>
-      <c r="L118" s="491"/>
-      <c r="M118" s="491"/>
-      <c r="N118" s="491"/>
-      <c r="O118" s="491"/>
-      <c r="P118" s="491"/>
-      <c r="Q118" s="491"/>
-      <c r="R118" s="491"/>
-      <c r="S118" s="491"/>
-      <c r="T118" s="491"/>
-      <c r="U118" s="491"/>
-      <c r="V118" s="491"/>
-      <c r="W118" s="491"/>
-      <c r="X118" s="488"/>
-      <c r="Y118" s="488"/>
-      <c r="Z118" s="488"/>
-      <c r="AA118" s="488"/>
-      <c r="AB118" s="488"/>
-      <c r="AC118" s="488"/>
-      <c r="AF118" s="491"/>
-      <c r="AG118" s="495"/>
-      <c r="AH118" s="495"/>
-      <c r="AI118" s="495"/>
-      <c r="AJ118" s="495"/>
-      <c r="AK118" s="495"/>
-      <c r="AL118" s="495"/>
-      <c r="AM118" s="495"/>
-      <c r="AN118" s="495"/>
-      <c r="AO118" s="495"/>
-      <c r="AP118" s="491"/>
-      <c r="AQ118" s="491"/>
-      <c r="AR118" s="491"/>
-      <c r="AS118" s="491"/>
-    </row>
-    <row r="119" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H119" s="488"/>
-      <c r="I119" s="488"/>
-      <c r="J119" s="488"/>
-      <c r="K119" s="491"/>
-      <c r="L119" s="491"/>
-      <c r="M119" s="491"/>
-      <c r="N119" s="491"/>
-      <c r="O119" s="491"/>
-      <c r="P119" s="491"/>
-      <c r="Q119" s="491"/>
-      <c r="R119" s="491"/>
-      <c r="S119" s="491"/>
-      <c r="T119" s="491"/>
-      <c r="U119" s="491"/>
-      <c r="V119" s="491"/>
-      <c r="W119" s="491"/>
-      <c r="X119" s="488"/>
-      <c r="Y119" s="488"/>
-      <c r="Z119" s="488"/>
-      <c r="AA119" s="488"/>
-      <c r="AB119" s="488"/>
-      <c r="AC119" s="488"/>
-      <c r="AF119" s="491"/>
-      <c r="AG119" s="491"/>
-      <c r="AH119" s="491"/>
-      <c r="AI119" s="491"/>
-      <c r="AJ119" s="491"/>
-      <c r="AK119" s="491"/>
-      <c r="AL119" s="491"/>
-      <c r="AM119" s="491"/>
-      <c r="AN119" s="491"/>
-      <c r="AO119" s="491"/>
-      <c r="AP119" s="491"/>
-      <c r="AQ119" s="491"/>
-      <c r="AR119" s="491"/>
-      <c r="AS119" s="491"/>
-    </row>
-    <row r="120" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H120" s="488"/>
-      <c r="I120" s="488"/>
-      <c r="J120" s="488"/>
-      <c r="K120" s="491"/>
-      <c r="L120" s="491"/>
-      <c r="M120" s="491"/>
-      <c r="N120" s="491"/>
-      <c r="O120" s="491"/>
-      <c r="P120" s="491"/>
-      <c r="Q120" s="491"/>
-      <c r="R120" s="491"/>
-      <c r="S120" s="491"/>
-      <c r="T120" s="491"/>
-      <c r="U120" s="491"/>
-      <c r="V120" s="491"/>
-      <c r="W120" s="491"/>
-      <c r="X120" s="488"/>
-      <c r="Y120" s="488"/>
-      <c r="Z120" s="488"/>
-      <c r="AA120" s="488"/>
-      <c r="AB120" s="488"/>
-      <c r="AC120" s="488"/>
-      <c r="AF120" s="491"/>
-      <c r="AG120" s="491"/>
-      <c r="AH120" s="491"/>
-      <c r="AI120" s="491"/>
-      <c r="AJ120" s="491"/>
-      <c r="AK120" s="497"/>
-      <c r="AL120" s="491"/>
-      <c r="AM120" s="491"/>
-      <c r="AN120" s="491"/>
-      <c r="AO120" s="491"/>
-      <c r="AP120" s="491"/>
-      <c r="AQ120" s="491"/>
-      <c r="AR120" s="491"/>
-      <c r="AS120" s="491"/>
-    </row>
-    <row r="121" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="H121" s="488"/>
-      <c r="I121" s="488"/>
-      <c r="J121" s="488"/>
-      <c r="K121" s="491"/>
-      <c r="L121" s="491"/>
-      <c r="M121" s="491"/>
-      <c r="N121" s="491"/>
-      <c r="O121" s="491"/>
-      <c r="P121" s="491"/>
-      <c r="Q121" s="491"/>
-      <c r="R121" s="491"/>
-      <c r="S121" s="491"/>
-      <c r="T121" s="491"/>
-      <c r="U121" s="491"/>
-      <c r="V121" s="491"/>
-      <c r="W121" s="491"/>
-      <c r="X121" s="488"/>
-      <c r="Y121" s="488"/>
-      <c r="Z121" s="488"/>
-      <c r="AA121" s="488"/>
-      <c r="AB121" s="488"/>
-      <c r="AC121" s="488"/>
-      <c r="AF121" s="491"/>
-      <c r="AG121" s="491"/>
-      <c r="AH121" s="491"/>
-      <c r="AI121" s="491"/>
-      <c r="AJ121" s="491"/>
-      <c r="AK121" s="491"/>
-      <c r="AL121" s="491"/>
-      <c r="AM121" s="491"/>
-      <c r="AN121" s="491"/>
-      <c r="AO121" s="491"/>
-      <c r="AP121" s="491"/>
-      <c r="AQ121" s="491"/>
-      <c r="AR121" s="491"/>
-      <c r="AS121" s="491"/>
-    </row>
-    <row r="122" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="K122" s="522"/>
-      <c r="L122" s="522"/>
-      <c r="M122" s="522"/>
-      <c r="N122" s="522"/>
-      <c r="O122" s="522"/>
-      <c r="P122" s="522"/>
-      <c r="Q122" s="522"/>
-      <c r="R122" s="522"/>
-      <c r="S122" s="522"/>
-      <c r="T122" s="522"/>
-      <c r="U122" s="522"/>
-      <c r="V122" s="522"/>
-      <c r="W122" s="522"/>
-      <c r="AF122" s="491"/>
-      <c r="AG122" s="491"/>
-      <c r="AH122" s="491"/>
-      <c r="AI122" s="491"/>
-      <c r="AJ122" s="491"/>
-      <c r="AK122" s="491"/>
-      <c r="AL122" s="491"/>
-      <c r="AM122" s="491"/>
-      <c r="AN122" s="491"/>
-      <c r="AO122" s="491"/>
-      <c r="AP122" s="491"/>
-      <c r="AQ122" s="491"/>
-      <c r="AR122" s="491"/>
-      <c r="AS122" s="491"/>
-    </row>
-    <row r="123" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="K123" s="522"/>
-      <c r="L123" s="522"/>
-      <c r="M123" s="522"/>
-      <c r="N123" s="522"/>
-      <c r="O123" s="522"/>
-      <c r="P123" s="522"/>
-      <c r="Q123" s="522"/>
-      <c r="R123" s="522"/>
-      <c r="S123" s="522"/>
-      <c r="T123" s="522"/>
-      <c r="U123" s="522"/>
-      <c r="V123" s="522"/>
-      <c r="W123" s="522"/>
-      <c r="AF123" s="491"/>
-      <c r="AG123" s="491"/>
-      <c r="AH123" s="491"/>
-      <c r="AI123" s="491"/>
-      <c r="AJ123" s="491"/>
-      <c r="AK123" s="491"/>
-      <c r="AL123" s="491"/>
-      <c r="AM123" s="491"/>
-      <c r="AN123" s="491"/>
-      <c r="AO123" s="491"/>
-      <c r="AP123" s="491"/>
-      <c r="AQ123" s="491"/>
-      <c r="AR123" s="491"/>
-      <c r="AS123" s="491"/>
-    </row>
-    <row r="124" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="K124" s="522"/>
-      <c r="L124" s="522"/>
-      <c r="M124" s="522"/>
-      <c r="N124" s="522"/>
-      <c r="O124" s="522"/>
-      <c r="P124" s="522"/>
-      <c r="Q124" s="522"/>
-      <c r="R124" s="522"/>
-      <c r="S124" s="522"/>
-      <c r="T124" s="522"/>
-      <c r="U124" s="522"/>
-      <c r="V124" s="522"/>
-      <c r="W124" s="522"/>
-      <c r="AF124" s="491"/>
-      <c r="AG124" s="491"/>
-      <c r="AH124" s="491"/>
-      <c r="AI124" s="491"/>
-      <c r="AJ124" s="491"/>
-      <c r="AK124" s="491"/>
-      <c r="AL124" s="491"/>
-      <c r="AM124" s="491"/>
-      <c r="AN124" s="491"/>
-      <c r="AO124" s="491"/>
-      <c r="AP124" s="491"/>
-      <c r="AQ124" s="491"/>
-      <c r="AR124" s="491"/>
-      <c r="AS124" s="491"/>
-    </row>
-    <row r="125" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="K125" s="522"/>
-      <c r="L125" s="522"/>
-      <c r="M125" s="522"/>
-      <c r="N125" s="522"/>
-      <c r="O125" s="522"/>
-      <c r="P125" s="522"/>
-      <c r="Q125" s="522"/>
-      <c r="R125" s="522"/>
-      <c r="S125" s="522"/>
-      <c r="T125" s="522"/>
-      <c r="U125" s="522"/>
-      <c r="V125" s="522"/>
-      <c r="W125" s="522"/>
-      <c r="AF125" s="491"/>
-      <c r="AG125" s="491"/>
-      <c r="AH125" s="491"/>
-      <c r="AI125" s="491"/>
-      <c r="AJ125" s="491"/>
-      <c r="AK125" s="491"/>
-      <c r="AL125" s="491"/>
-      <c r="AM125" s="491"/>
-      <c r="AN125" s="491"/>
-      <c r="AO125" s="491"/>
-      <c r="AP125" s="491"/>
-      <c r="AQ125" s="491"/>
-      <c r="AR125" s="491"/>
-      <c r="AS125" s="491"/>
-    </row>
-    <row r="126" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="AF126" s="491"/>
-      <c r="AG126" s="491"/>
-      <c r="AH126" s="491"/>
-      <c r="AI126" s="491"/>
-      <c r="AJ126" s="491"/>
-      <c r="AK126" s="491"/>
-      <c r="AL126" s="491"/>
-      <c r="AM126" s="491"/>
-      <c r="AN126" s="491"/>
-      <c r="AO126" s="491"/>
-      <c r="AP126" s="491"/>
-      <c r="AQ126" s="491"/>
-      <c r="AR126" s="491"/>
-      <c r="AS126" s="491"/>
-    </row>
-    <row r="127" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="AF127" s="491"/>
-      <c r="AG127" s="491"/>
-      <c r="AH127" s="491"/>
-      <c r="AI127" s="491"/>
-      <c r="AJ127" s="491"/>
-      <c r="AK127" s="491"/>
-      <c r="AL127" s="491"/>
-      <c r="AM127" s="491"/>
-      <c r="AN127" s="491"/>
-      <c r="AO127" s="491"/>
-      <c r="AP127" s="491"/>
-      <c r="AQ127" s="491"/>
-      <c r="AR127" s="491"/>
-      <c r="AS127" s="491"/>
-    </row>
-    <row r="128" spans="8:45" x14ac:dyDescent="0.25">
-      <c r="AF128" s="491"/>
-      <c r="AG128" s="491"/>
-      <c r="AH128" s="491"/>
-      <c r="AI128" s="491"/>
-      <c r="AJ128" s="491"/>
-      <c r="AK128" s="491"/>
-      <c r="AL128" s="491"/>
-      <c r="AM128" s="491"/>
-      <c r="AN128" s="491"/>
-      <c r="AO128" s="491"/>
-      <c r="AP128" s="491"/>
-      <c r="AQ128" s="491"/>
-      <c r="AR128" s="491"/>
-      <c r="AS128" s="491"/>
-    </row>
-    <row r="129" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF129" s="491"/>
-      <c r="AG129" s="491"/>
-      <c r="AH129" s="491"/>
-      <c r="AI129" s="491"/>
-      <c r="AJ129" s="491"/>
-      <c r="AK129" s="491"/>
-      <c r="AL129" s="491"/>
-      <c r="AM129" s="491"/>
-      <c r="AN129" s="491"/>
-      <c r="AO129" s="491"/>
-      <c r="AP129" s="491"/>
-      <c r="AQ129" s="491"/>
-      <c r="AR129" s="491"/>
-      <c r="AS129" s="491"/>
-    </row>
-    <row r="130" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF130" s="491"/>
-      <c r="AG130" s="491"/>
-      <c r="AH130" s="491"/>
-      <c r="AI130" s="491"/>
-      <c r="AJ130" s="491"/>
-      <c r="AK130" s="491"/>
-      <c r="AL130" s="491"/>
-      <c r="AM130" s="491"/>
-      <c r="AN130" s="491"/>
-      <c r="AO130" s="491"/>
-      <c r="AP130" s="491"/>
-      <c r="AQ130" s="491"/>
-      <c r="AR130" s="491"/>
-      <c r="AS130" s="491"/>
-    </row>
-    <row r="131" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF131" s="491"/>
-      <c r="AG131" s="491"/>
-      <c r="AH131" s="491"/>
-      <c r="AI131" s="491"/>
-      <c r="AJ131" s="491"/>
-      <c r="AK131" s="491"/>
-      <c r="AL131" s="491"/>
-      <c r="AM131" s="491"/>
-      <c r="AN131" s="491"/>
-      <c r="AO131" s="491"/>
-      <c r="AP131" s="491"/>
-      <c r="AQ131" s="491"/>
-      <c r="AR131" s="491"/>
-      <c r="AS131" s="491"/>
-    </row>
-    <row r="132" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF132" s="491"/>
-      <c r="AG132" s="491"/>
-      <c r="AH132" s="491"/>
-      <c r="AI132" s="491"/>
-      <c r="AJ132" s="491"/>
-      <c r="AK132" s="491"/>
-      <c r="AL132" s="491"/>
-      <c r="AM132" s="491"/>
-      <c r="AN132" s="491"/>
-      <c r="AO132" s="491"/>
-      <c r="AP132" s="491"/>
-      <c r="AQ132" s="491"/>
-      <c r="AR132" s="491"/>
-      <c r="AS132" s="491"/>
-    </row>
-    <row r="133" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF133" s="491"/>
-      <c r="AG133" s="491"/>
-      <c r="AH133" s="491"/>
-      <c r="AI133" s="491"/>
-      <c r="AJ133" s="491"/>
-      <c r="AK133" s="491"/>
-      <c r="AL133" s="491"/>
-      <c r="AM133" s="491"/>
-      <c r="AN133" s="491"/>
-      <c r="AO133" s="491"/>
-      <c r="AP133" s="491"/>
-      <c r="AQ133" s="491"/>
-      <c r="AR133" s="491"/>
-      <c r="AS133" s="491"/>
-    </row>
-    <row r="134" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF134" s="491"/>
-      <c r="AG134" s="491"/>
-      <c r="AH134" s="491"/>
-      <c r="AI134" s="491"/>
-      <c r="AJ134" s="491"/>
-      <c r="AK134" s="491"/>
-      <c r="AL134" s="491"/>
-      <c r="AM134" s="491"/>
-      <c r="AN134" s="491"/>
-      <c r="AO134" s="491"/>
-      <c r="AP134" s="491"/>
-      <c r="AQ134" s="491"/>
-      <c r="AR134" s="491"/>
-      <c r="AS134" s="491"/>
-    </row>
-    <row r="135" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF135" s="491"/>
-      <c r="AG135" s="491"/>
-      <c r="AH135" s="491"/>
-      <c r="AI135" s="491"/>
-      <c r="AJ135" s="491"/>
-      <c r="AK135" s="491"/>
-      <c r="AL135" s="491"/>
-      <c r="AM135" s="491"/>
-      <c r="AN135" s="491"/>
-      <c r="AO135" s="491"/>
-      <c r="AP135" s="491"/>
-      <c r="AQ135" s="491"/>
-      <c r="AR135" s="491"/>
-      <c r="AS135" s="491"/>
-    </row>
-    <row r="136" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF136" s="491"/>
-      <c r="AG136" s="491"/>
-      <c r="AH136" s="491"/>
-      <c r="AI136" s="491"/>
-      <c r="AJ136" s="491"/>
-      <c r="AK136" s="491"/>
-      <c r="AL136" s="491"/>
-      <c r="AM136" s="491"/>
-      <c r="AN136" s="491"/>
-      <c r="AO136" s="491"/>
-      <c r="AP136" s="491"/>
-      <c r="AQ136" s="491"/>
-      <c r="AR136" s="491"/>
-      <c r="AS136" s="491"/>
-    </row>
-    <row r="137" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF137" s="491"/>
-      <c r="AG137" s="491"/>
-      <c r="AH137" s="491"/>
-      <c r="AI137" s="491"/>
-      <c r="AJ137" s="491"/>
-      <c r="AK137" s="491"/>
-      <c r="AL137" s="491"/>
-      <c r="AM137" s="491"/>
-      <c r="AN137" s="491"/>
-      <c r="AO137" s="491"/>
-      <c r="AP137" s="491"/>
-      <c r="AQ137" s="491"/>
-      <c r="AR137" s="491"/>
-      <c r="AS137" s="491"/>
-    </row>
-    <row r="138" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF138" s="491"/>
-      <c r="AG138" s="491"/>
-      <c r="AH138" s="491"/>
-      <c r="AI138" s="491"/>
-      <c r="AJ138" s="491"/>
-      <c r="AK138" s="491"/>
-      <c r="AL138" s="491"/>
-      <c r="AM138" s="491"/>
-      <c r="AN138" s="491"/>
-      <c r="AO138" s="491"/>
-      <c r="AP138" s="491"/>
-      <c r="AQ138" s="491"/>
-      <c r="AR138" s="491"/>
-      <c r="AS138" s="491"/>
-    </row>
-    <row r="139" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF139" s="491"/>
-      <c r="AG139" s="491"/>
-      <c r="AH139" s="491"/>
-      <c r="AI139" s="491"/>
-      <c r="AJ139" s="491"/>
-      <c r="AK139" s="491"/>
-      <c r="AL139" s="491"/>
-      <c r="AM139" s="491"/>
-      <c r="AN139" s="491"/>
-      <c r="AO139" s="491"/>
-      <c r="AP139" s="491"/>
-      <c r="AQ139" s="491"/>
-      <c r="AR139" s="491"/>
-      <c r="AS139" s="491"/>
-    </row>
-    <row r="140" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF140" s="491"/>
-      <c r="AG140" s="491"/>
-      <c r="AH140" s="491"/>
-      <c r="AI140" s="491"/>
-      <c r="AJ140" s="491"/>
-      <c r="AK140" s="491"/>
-      <c r="AL140" s="491"/>
-      <c r="AM140" s="491"/>
-      <c r="AN140" s="491"/>
-      <c r="AO140" s="491"/>
-      <c r="AP140" s="491"/>
-      <c r="AQ140" s="491"/>
-      <c r="AR140" s="491"/>
-      <c r="AS140" s="491"/>
-    </row>
-    <row r="141" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF141" s="491"/>
-      <c r="AG141" s="491"/>
-      <c r="AH141" s="491"/>
-      <c r="AI141" s="491"/>
-      <c r="AJ141" s="491"/>
-      <c r="AK141" s="491"/>
-      <c r="AL141" s="491"/>
-      <c r="AM141" s="491"/>
-      <c r="AN141" s="491"/>
-      <c r="AO141" s="491"/>
-      <c r="AP141" s="491"/>
-      <c r="AQ141" s="491"/>
-      <c r="AR141" s="491"/>
-      <c r="AS141" s="491"/>
-    </row>
-    <row r="142" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF142" s="491"/>
-      <c r="AG142" s="491"/>
-      <c r="AH142" s="491"/>
-      <c r="AI142" s="491"/>
-      <c r="AJ142" s="491"/>
-      <c r="AK142" s="491"/>
-      <c r="AL142" s="491"/>
-      <c r="AM142" s="491"/>
-      <c r="AN142" s="491"/>
-      <c r="AO142" s="491"/>
-      <c r="AP142" s="491"/>
-      <c r="AQ142" s="491"/>
-      <c r="AR142" s="491"/>
-      <c r="AS142" s="491"/>
-    </row>
-    <row r="143" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF143" s="491"/>
-      <c r="AG143" s="491"/>
-      <c r="AH143" s="491"/>
-      <c r="AI143" s="491"/>
-      <c r="AJ143" s="491"/>
-      <c r="AK143" s="491"/>
-      <c r="AL143" s="491"/>
-      <c r="AM143" s="491"/>
-      <c r="AN143" s="491"/>
-      <c r="AO143" s="491"/>
-      <c r="AP143" s="491"/>
-      <c r="AQ143" s="491"/>
-      <c r="AR143" s="491"/>
-      <c r="AS143" s="491"/>
-    </row>
-    <row r="144" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF144" s="491"/>
-      <c r="AG144" s="491"/>
-      <c r="AH144" s="491"/>
-      <c r="AI144" s="491"/>
-      <c r="AJ144" s="491"/>
-      <c r="AK144" s="491"/>
-      <c r="AL144" s="491"/>
-      <c r="AM144" s="491"/>
-      <c r="AN144" s="491"/>
-      <c r="AO144" s="491"/>
-      <c r="AP144" s="491"/>
-      <c r="AQ144" s="491"/>
-      <c r="AR144" s="491"/>
-      <c r="AS144" s="491"/>
-    </row>
-    <row r="145" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF145" s="491"/>
-      <c r="AG145" s="491"/>
-      <c r="AH145" s="491"/>
-      <c r="AI145" s="491"/>
-      <c r="AJ145" s="491"/>
-      <c r="AK145" s="491"/>
-      <c r="AL145" s="491"/>
-      <c r="AM145" s="491"/>
-      <c r="AN145" s="491"/>
-      <c r="AO145" s="491"/>
-      <c r="AP145" s="491"/>
-      <c r="AQ145" s="491"/>
-      <c r="AR145" s="491"/>
-      <c r="AS145" s="491"/>
-    </row>
-    <row r="146" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF146" s="491"/>
-      <c r="AG146" s="491"/>
-      <c r="AH146" s="491"/>
-      <c r="AI146" s="491"/>
-      <c r="AJ146" s="491"/>
-      <c r="AK146" s="491"/>
-      <c r="AL146" s="491"/>
-      <c r="AM146" s="491"/>
-      <c r="AN146" s="491"/>
-      <c r="AO146" s="491"/>
-      <c r="AP146" s="491"/>
-      <c r="AQ146" s="491"/>
-      <c r="AR146" s="491"/>
-      <c r="AS146" s="491"/>
-    </row>
-    <row r="147" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF147" s="491"/>
-      <c r="AG147" s="491"/>
-      <c r="AH147" s="491"/>
-      <c r="AI147" s="491"/>
-      <c r="AJ147" s="491"/>
-      <c r="AK147" s="491"/>
-      <c r="AL147" s="491"/>
-      <c r="AM147" s="491"/>
-      <c r="AN147" s="491"/>
-      <c r="AO147" s="491"/>
-      <c r="AP147" s="491"/>
-      <c r="AQ147" s="491"/>
-      <c r="AR147" s="491"/>
-      <c r="AS147" s="491"/>
-    </row>
-    <row r="148" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF148" s="491"/>
-      <c r="AG148" s="491"/>
-      <c r="AH148" s="491"/>
-      <c r="AI148" s="491"/>
-      <c r="AJ148" s="491"/>
-      <c r="AK148" s="491"/>
-      <c r="AL148" s="491"/>
-      <c r="AM148" s="491"/>
-      <c r="AN148" s="491"/>
-      <c r="AO148" s="491"/>
-      <c r="AP148" s="491"/>
-      <c r="AQ148" s="491"/>
-      <c r="AR148" s="491"/>
-      <c r="AS148" s="491"/>
-    </row>
-    <row r="149" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF149" s="491"/>
-      <c r="AG149" s="491"/>
-      <c r="AH149" s="491"/>
-      <c r="AI149" s="491"/>
-      <c r="AJ149" s="491"/>
-      <c r="AK149" s="491"/>
-      <c r="AL149" s="491"/>
-      <c r="AM149" s="491"/>
-      <c r="AN149" s="491"/>
-      <c r="AO149" s="491"/>
-      <c r="AP149" s="491"/>
-      <c r="AQ149" s="491"/>
-      <c r="AR149" s="491"/>
-      <c r="AS149" s="491"/>
-    </row>
-    <row r="150" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF150" s="491"/>
-      <c r="AG150" s="491"/>
-      <c r="AH150" s="491"/>
-      <c r="AI150" s="491"/>
-      <c r="AJ150" s="491"/>
-      <c r="AK150" s="491"/>
-      <c r="AL150" s="491"/>
-      <c r="AM150" s="491"/>
-      <c r="AN150" s="491"/>
-      <c r="AO150" s="491"/>
-      <c r="AP150" s="491"/>
-      <c r="AQ150" s="491"/>
-      <c r="AR150" s="491"/>
-      <c r="AS150" s="491"/>
-    </row>
-    <row r="151" spans="32:45" x14ac:dyDescent="0.25">
-      <c r="AF151" s="491"/>
-      <c r="AG151" s="491"/>
-      <c r="AH151" s="491"/>
-      <c r="AI151" s="491"/>
-      <c r="AJ151" s="491"/>
-      <c r="AK151" s="491"/>
-      <c r="AL151" s="491"/>
-      <c r="AM151" s="491"/>
-      <c r="AN151" s="491"/>
-      <c r="AO151" s="491"/>
-      <c r="AP151" s="491"/>
-      <c r="AQ151" s="491"/>
-      <c r="AR151" s="491"/>
-      <c r="AS151" s="491"/>
+    <row r="120" spans="33:41" x14ac:dyDescent="0.25">
+      <c r="AK120" s="437"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="Q2:AD2"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="W74:Y74"/>
+    <mergeCell ref="Q13:AD13"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="X14:Z14"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="H17:J17"/>
@@ -51043,23 +46953,6 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="A16:N16"/>
-    <mergeCell ref="A29:N29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="W74:Y74"/>
-    <mergeCell ref="Q13:AD13"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="X14:Z14"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="Q2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -51089,14 +46982,14 @@
         <v>146</v>
       </c>
       <c r="O1" s="83"/>
-      <c r="R1" s="484" t="s">
+      <c r="R1" s="529" t="s">
         <v>156</v>
       </c>
-      <c r="S1" s="484"/>
-      <c r="W1" s="485" t="s">
+      <c r="S1" s="529"/>
+      <c r="W1" s="530" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="485"/>
+      <c r="X1" s="530"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -51875,14 +47768,14 @@
         <v>62</v>
       </c>
       <c r="O14" s="83"/>
-      <c r="R14" s="484" t="s">
+      <c r="R14" s="529" t="s">
         <v>156</v>
       </c>
-      <c r="S14" s="484"/>
-      <c r="W14" s="485" t="s">
+      <c r="S14" s="529"/>
+      <c r="W14" s="530" t="s">
         <v>161</v>
       </c>
-      <c r="X14" s="485"/>
+      <c r="X14" s="530"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="83" t="s">
@@ -52605,14 +48498,14 @@
         <v>62</v>
       </c>
       <c r="O27" s="83"/>
-      <c r="R27" s="484" t="s">
+      <c r="R27" s="529" t="s">
         <v>156</v>
       </c>
-      <c r="S27" s="484"/>
-      <c r="W27" s="485" t="s">
+      <c r="S27" s="529"/>
+      <c r="W27" s="530" t="s">
         <v>161</v>
       </c>
-      <c r="X27" s="485"/>
+      <c r="X27" s="530"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H28" s="60" t="s">
@@ -53731,18 +49624,18 @@
       <c r="H56" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="R56" s="484" t="s">
+      <c r="R56" s="529" t="s">
         <v>156</v>
       </c>
-      <c r="S56" s="484"/>
-      <c r="T56" s="486" t="s">
+      <c r="S56" s="529"/>
+      <c r="T56" s="531" t="s">
         <v>166</v>
       </c>
-      <c r="U56" s="486"/>
-      <c r="Y56" s="485" t="s">
+      <c r="U56" s="531"/>
+      <c r="Y56" s="530" t="s">
         <v>161</v>
       </c>
-      <c r="Z56" s="485"/>
+      <c r="Z56" s="530"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="59" t="s">
@@ -54358,18 +50251,18 @@
       <c r="H65" s="422" t="s">
         <v>146</v>
       </c>
-      <c r="R65" s="484" t="s">
+      <c r="R65" s="529" t="s">
         <v>156</v>
       </c>
-      <c r="S65" s="484"/>
-      <c r="T65" s="486" t="s">
+      <c r="S65" s="529"/>
+      <c r="T65" s="531" t="s">
         <v>166</v>
       </c>
-      <c r="U65" s="486"/>
-      <c r="Y65" s="485" t="s">
+      <c r="U65" s="531"/>
+      <c r="Y65" s="530" t="s">
         <v>161</v>
       </c>
-      <c r="Z65" s="485"/>
+      <c r="Z65" s="530"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="59" t="s">
@@ -54996,18 +50889,18 @@
         <v>62</v>
       </c>
       <c r="O75" s="83"/>
-      <c r="R75" s="484" t="s">
+      <c r="R75" s="529" t="s">
         <v>156</v>
       </c>
-      <c r="S75" s="484"/>
-      <c r="T75" s="486" t="s">
+      <c r="S75" s="529"/>
+      <c r="T75" s="531" t="s">
         <v>166</v>
       </c>
-      <c r="U75" s="486"/>
-      <c r="Y75" s="485" t="s">
+      <c r="U75" s="531"/>
+      <c r="Y75" s="530" t="s">
         <v>161</v>
       </c>
-      <c r="Z75" s="485"/>
+      <c r="Z75" s="530"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="61" t="s">
@@ -55765,11 +51658,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="R56:S56"/>
     <mergeCell ref="R65:S65"/>
     <mergeCell ref="Y65:Z65"/>
     <mergeCell ref="R27:S27"/>
@@ -55780,6 +51668,11 @@
     <mergeCell ref="T65:U65"/>
     <mergeCell ref="T75:U75"/>
     <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="R56:S56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
